--- a/left_elbow_Data_Variable.xlsx
+++ b/left_elbow_Data_Variable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HU4"/>
+  <dimension ref="A1:NM4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1121,2072 +1121,3848 @@
       <c r="HU1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ML1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ND1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NM1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>316.6383972167969</v>
+        <v>411.87890625</v>
       </c>
       <c r="B2" t="n">
-        <v>321.9263305664062</v>
+        <v>416.9285278320312</v>
       </c>
       <c r="C2" t="n">
-        <v>322.3473510742188</v>
+        <v>426.2093811035156</v>
       </c>
       <c r="D2" t="n">
-        <v>324.592529296875</v>
+        <v>435.7850341796875</v>
       </c>
       <c r="E2" t="n">
-        <v>330.7376708984375</v>
+        <v>444.7848815917969</v>
       </c>
       <c r="F2" t="n">
-        <v>333.3801879882812</v>
+        <v>458.8458251953125</v>
       </c>
       <c r="G2" t="n">
-        <v>338.7487487792969</v>
+        <v>473.796630859375</v>
       </c>
       <c r="H2" t="n">
-        <v>340.4031982421875</v>
+        <v>484.4341735839844</v>
       </c>
       <c r="I2" t="n">
-        <v>348.5960083007812</v>
+        <v>494.2593383789062</v>
       </c>
       <c r="J2" t="n">
-        <v>350.0815124511719</v>
+        <v>504.49951171875</v>
       </c>
       <c r="K2" t="n">
-        <v>359.7223510742188</v>
+        <v>517.46484375</v>
       </c>
       <c r="L2" t="n">
-        <v>357.9496765136719</v>
+        <v>527.5499267578125</v>
       </c>
       <c r="M2" t="n">
-        <v>366.4530944824219</v>
+        <v>555.5518188476562</v>
       </c>
       <c r="N2" t="n">
-        <v>362.4804992675781</v>
+        <v>554.1918334960938</v>
       </c>
       <c r="O2" t="n">
-        <v>375.3054504394531</v>
+        <v>543.3361206054688</v>
       </c>
       <c r="P2" t="n">
-        <v>377.139404296875</v>
+        <v>538.9967041015625</v>
       </c>
       <c r="Q2" t="n">
-        <v>377.7270812988281</v>
+        <v>535.6837768554688</v>
       </c>
       <c r="R2" t="n">
-        <v>377.9035034179688</v>
+        <v>533.0614624023438</v>
       </c>
       <c r="S2" t="n">
-        <v>397.0094604492188</v>
+        <v>532.2052612304688</v>
       </c>
       <c r="T2" t="n">
-        <v>396.1679382324219</v>
+        <v>529.8272705078125</v>
       </c>
       <c r="U2" t="n">
-        <v>395.1993408203125</v>
+        <v>523.297119140625</v>
       </c>
       <c r="V2" t="n">
-        <v>393.6298217773438</v>
+        <v>514.3935546875</v>
       </c>
       <c r="W2" t="n">
-        <v>392.1316833496094</v>
+        <v>503.1445007324219</v>
       </c>
       <c r="X2" t="n">
-        <v>389.9344177246094</v>
+        <v>499.549560546875</v>
       </c>
       <c r="Y2" t="n">
-        <v>387.2103881835938</v>
+        <v>497.0831604003906</v>
       </c>
       <c r="Z2" t="n">
-        <v>384.6310424804688</v>
+        <v>491.9068908691406</v>
       </c>
       <c r="AA2" t="n">
-        <v>382.358642578125</v>
+        <v>479.8855285644531</v>
       </c>
       <c r="AB2" t="n">
-        <v>379.5404663085938</v>
+        <v>470.4515075683594</v>
       </c>
       <c r="AC2" t="n">
-        <v>376.5400695800781</v>
+        <v>463.0080871582031</v>
       </c>
       <c r="AD2" t="n">
-        <v>376.3784484863281</v>
+        <v>463.2094116210938</v>
       </c>
       <c r="AE2" t="n">
-        <v>376.7813415527344</v>
+        <v>461.435546875</v>
       </c>
       <c r="AF2" t="n">
-        <v>378.8305053710938</v>
+        <v>458.4378051757812</v>
       </c>
       <c r="AG2" t="n">
-        <v>378.1195068359375</v>
+        <v>456.5995788574219</v>
       </c>
       <c r="AH2" t="n">
-        <v>378.1407165527344</v>
+        <v>454.39990234375</v>
       </c>
       <c r="AI2" t="n">
-        <v>380.6069946289062</v>
+        <v>453.2673950195312</v>
       </c>
       <c r="AJ2" t="n">
-        <v>382.6002807617188</v>
+        <v>451.5002136230469</v>
       </c>
       <c r="AK2" t="n">
-        <v>383.5734558105469</v>
+        <v>449.832763671875</v>
       </c>
       <c r="AL2" t="n">
-        <v>383.7390441894531</v>
+        <v>448.7587280273438</v>
       </c>
       <c r="AM2" t="n">
-        <v>383.5059204101562</v>
+        <v>448.2337036132812</v>
       </c>
       <c r="AN2" t="n">
-        <v>382.0978393554688</v>
+        <v>447.9888610839844</v>
       </c>
       <c r="AO2" t="n">
-        <v>382.3627319335938</v>
+        <v>448.0868530273438</v>
       </c>
       <c r="AP2" t="n">
-        <v>383.3580322265625</v>
+        <v>448.348876953125</v>
       </c>
       <c r="AQ2" t="n">
-        <v>381.8445434570312</v>
+        <v>448.556640625</v>
       </c>
       <c r="AR2" t="n">
-        <v>381.2252502441406</v>
+        <v>448.7359619140625</v>
       </c>
       <c r="AS2" t="n">
-        <v>381.851318359375</v>
+        <v>449.17626953125</v>
       </c>
       <c r="AT2" t="n">
-        <v>381.0745849609375</v>
+        <v>449.5012817382812</v>
       </c>
       <c r="AU2" t="n">
-        <v>380.5249633789062</v>
+        <v>450.9029541015625</v>
       </c>
       <c r="AV2" t="n">
-        <v>379.1002807617188</v>
+        <v>453.0911865234375</v>
       </c>
       <c r="AW2" t="n">
-        <v>378.34912109375</v>
+        <v>453.2544250488281</v>
       </c>
       <c r="AX2" t="n">
-        <v>377.0674438476562</v>
+        <v>451.4041748046875</v>
       </c>
       <c r="AY2" t="n">
-        <v>376.4404907226562</v>
+        <v>451.4446411132812</v>
       </c>
       <c r="AZ2" t="n">
-        <v>375.1893920898438</v>
+        <v>462.0491943359375</v>
       </c>
       <c r="BA2" t="n">
-        <v>373.3380432128906</v>
+        <v>472.8178405761719</v>
       </c>
       <c r="BB2" t="n">
-        <v>372.13525390625</v>
+        <v>479.5772094726562</v>
       </c>
       <c r="BC2" t="n">
-        <v>369.614013671875</v>
+        <v>486.5049743652344</v>
       </c>
       <c r="BD2" t="n">
-        <v>366.7591857910156</v>
+        <v>491.69775390625</v>
       </c>
       <c r="BE2" t="n">
-        <v>365.2718505859375</v>
+        <v>495.8847351074219</v>
       </c>
       <c r="BF2" t="n">
-        <v>363.0396118164062</v>
+        <v>499.3394775390625</v>
       </c>
       <c r="BG2" t="n">
-        <v>361.1868591308594</v>
+        <v>501.4387817382812</v>
       </c>
       <c r="BH2" t="n">
-        <v>354.681396484375</v>
+        <v>503.2202453613281</v>
       </c>
       <c r="BI2" t="n">
-        <v>355.5160827636719</v>
+        <v>502.4720458984375</v>
       </c>
       <c r="BJ2" t="n">
-        <v>354.0570373535156</v>
+        <v>500.7920532226562</v>
       </c>
       <c r="BK2" t="n">
-        <v>352.6427612304688</v>
+        <v>497.8118591308594</v>
       </c>
       <c r="BL2" t="n">
-        <v>350.9307861328125</v>
+        <v>494.7637939453125</v>
       </c>
       <c r="BM2" t="n">
-        <v>348.7255859375</v>
+        <v>489.6277160644531</v>
       </c>
       <c r="BN2" t="n">
-        <v>346.5235595703125</v>
+        <v>486.5898132324219</v>
       </c>
       <c r="BO2" t="n">
-        <v>345.7142944335938</v>
+        <v>480.8776245117188</v>
       </c>
       <c r="BP2" t="n">
-        <v>342.8862915039062</v>
+        <v>477.85888671875</v>
       </c>
       <c r="BQ2" t="n">
-        <v>345.38427734375</v>
+        <v>475.5667419433594</v>
       </c>
       <c r="BR2" t="n">
-        <v>347.2857360839844</v>
+        <v>472.7889709472656</v>
       </c>
       <c r="BS2" t="n">
-        <v>346.1491394042969</v>
+        <v>470.739990234375</v>
       </c>
       <c r="BT2" t="n">
-        <v>346.1642761230469</v>
+        <v>468.938232421875</v>
       </c>
       <c r="BU2" t="n">
-        <v>345.9239196777344</v>
+        <v>467.7200317382812</v>
       </c>
       <c r="BV2" t="n">
-        <v>345.4501953125</v>
+        <v>466.5816955566406</v>
       </c>
       <c r="BW2" t="n">
-        <v>345.3704223632812</v>
+        <v>466.1839294433594</v>
       </c>
       <c r="BX2" t="n">
-        <v>344.936767578125</v>
+        <v>466.1391906738281</v>
       </c>
       <c r="BY2" t="n">
-        <v>344.6992797851562</v>
+        <v>466.9781494140625</v>
       </c>
       <c r="BZ2" t="n">
-        <v>343.8785400390625</v>
+        <v>467.5395202636719</v>
       </c>
       <c r="CA2" t="n">
-        <v>344.5579528808594</v>
+        <v>469.2223510742188</v>
       </c>
       <c r="CB2" t="n">
-        <v>343.8967895507812</v>
+        <v>471.7039184570312</v>
       </c>
       <c r="CC2" t="n">
-        <v>347.3656005859375</v>
+        <v>476.3505249023438</v>
       </c>
       <c r="CD2" t="n">
-        <v>353.0726928710938</v>
+        <v>480.3541870117188</v>
       </c>
       <c r="CE2" t="n">
-        <v>353.4142456054688</v>
+        <v>489.3719177246094</v>
       </c>
       <c r="CF2" t="n">
-        <v>352.5031127929688</v>
+        <v>493.4201049804688</v>
       </c>
       <c r="CG2" t="n">
-        <v>353.6079406738281</v>
+        <v>496.9437255859375</v>
       </c>
       <c r="CH2" t="n">
-        <v>355.6310729980469</v>
+        <v>502.9535522460938</v>
       </c>
       <c r="CI2" t="n">
-        <v>353.4760131835938</v>
+        <v>507.8353881835938</v>
       </c>
       <c r="CJ2" t="n">
-        <v>343.287353515625</v>
+        <v>512.4421997070312</v>
       </c>
       <c r="CK2" t="n">
-        <v>347.1707153320312</v>
+        <v>515.553466796875</v>
       </c>
       <c r="CL2" t="n">
-        <v>348.9196166992188</v>
+        <v>518.7399291992188</v>
       </c>
       <c r="CM2" t="n">
-        <v>346.5853271484375</v>
+        <v>522.5992431640625</v>
       </c>
       <c r="CN2" t="n">
-        <v>348.0407104492188</v>
+        <v>529.8475952148438</v>
       </c>
       <c r="CO2" t="n">
-        <v>340.8446044921875</v>
+        <v>529.758544921875</v>
       </c>
       <c r="CP2" t="n">
-        <v>339.5721740722656</v>
+        <v>528.69384765625</v>
       </c>
       <c r="CQ2" t="n">
-        <v>338.3988037109375</v>
+        <v>526.1765747070312</v>
       </c>
       <c r="CR2" t="n">
-        <v>338.0035400390625</v>
+        <v>521.5196533203125</v>
       </c>
       <c r="CS2" t="n">
-        <v>337.402587890625</v>
+        <v>511.1111145019531</v>
       </c>
       <c r="CT2" t="n">
-        <v>339.0854187011719</v>
+        <v>490.5657958984375</v>
       </c>
       <c r="CU2" t="n">
-        <v>338.7752990722656</v>
+        <v>481.517822265625</v>
       </c>
       <c r="CV2" t="n">
-        <v>337.470947265625</v>
+        <v>470.7328796386719</v>
       </c>
       <c r="CW2" t="n">
-        <v>333.1989135742188</v>
+        <v>460.7330932617188</v>
       </c>
       <c r="CX2" t="n">
-        <v>330.8231811523438</v>
+        <v>448.0416259765625</v>
       </c>
       <c r="CY2" t="n">
-        <v>327.1802368164062</v>
+        <v>442.4649658203125</v>
       </c>
       <c r="CZ2" t="n">
-        <v>327.259765625</v>
+        <v>434.6826782226562</v>
       </c>
       <c r="DA2" t="n">
-        <v>324.4190063476562</v>
+        <v>430.749755859375</v>
       </c>
       <c r="DB2" t="n">
-        <v>324.1818237304688</v>
+        <v>429.46875</v>
       </c>
       <c r="DC2" t="n">
-        <v>325.2645263671875</v>
+        <v>425.6961059570312</v>
       </c>
       <c r="DD2" t="n">
-        <v>325.7066650390625</v>
+        <v>421.8603515625</v>
       </c>
       <c r="DE2" t="n">
-        <v>326.0913696289062</v>
+        <v>413.9368286132812</v>
       </c>
       <c r="DF2" t="n">
-        <v>319.3246154785156</v>
+        <v>406.6784362792969</v>
       </c>
       <c r="DG2" t="n">
-        <v>318.1553039550781</v>
+        <v>402.7343139648438</v>
       </c>
       <c r="DH2" t="n">
-        <v>318.853515625</v>
+        <v>397.8795776367188</v>
       </c>
       <c r="DI2" t="n">
-        <v>320.8917541503906</v>
+        <v>397.2245788574219</v>
       </c>
       <c r="DJ2" t="n">
-        <v>332.6114501953125</v>
+        <v>397.6665649414062</v>
       </c>
       <c r="DK2" t="n">
-        <v>322.1206665039062</v>
+        <v>398.1600341796875</v>
       </c>
       <c r="DL2" t="n">
-        <v>329.8699951171875</v>
+        <v>398.3373718261719</v>
       </c>
       <c r="DM2" t="n">
-        <v>331.5917358398438</v>
+        <v>398.3057861328125</v>
       </c>
       <c r="DN2" t="n">
-        <v>329.2479858398438</v>
+        <v>398.1952514648438</v>
       </c>
       <c r="DO2" t="n">
-        <v>343.7409057617188</v>
+        <v>397.9425048828125</v>
       </c>
       <c r="DP2" t="n">
-        <v>335.3784484863281</v>
+        <v>397.4273681640625</v>
       </c>
       <c r="DQ2" t="n">
-        <v>339.75537109375</v>
+        <v>395.9806518554688</v>
       </c>
       <c r="DR2" t="n">
-        <v>350.5013427734375</v>
+        <v>395.581298828125</v>
       </c>
       <c r="DS2" t="n">
-        <v>356.9063720703125</v>
+        <v>395.885986328125</v>
       </c>
       <c r="DT2" t="n">
-        <v>357.3800048828125</v>
+        <v>396.6052551269531</v>
       </c>
       <c r="DU2" t="n">
-        <v>364.0576171875</v>
+        <v>398.4889221191406</v>
       </c>
       <c r="DV2" t="n">
-        <v>347.3052368164062</v>
+        <v>399.9725952148438</v>
       </c>
       <c r="DW2" t="n">
-        <v>371.8138427734375</v>
+        <v>405.7770385742188</v>
       </c>
       <c r="DX2" t="n">
-        <v>371.059326171875</v>
+        <v>410.9136352539062</v>
       </c>
       <c r="DY2" t="n">
-        <v>372.0955810546875</v>
+        <v>409.7969970703125</v>
       </c>
       <c r="DZ2" t="n">
-        <v>375.8297119140625</v>
+        <v>415.0985107421875</v>
       </c>
       <c r="EA2" t="n">
-        <v>374.1049499511719</v>
+        <v>418.857666015625</v>
       </c>
       <c r="EB2" t="n">
-        <v>374.0481262207031</v>
+        <v>425.3093872070312</v>
       </c>
       <c r="EC2" t="n">
-        <v>374.6065063476562</v>
+        <v>432.9864807128906</v>
       </c>
       <c r="ED2" t="n">
-        <v>372.9534301757812</v>
+        <v>438.542236328125</v>
       </c>
       <c r="EE2" t="n">
-        <v>373.8215942382812</v>
+        <v>451.1347961425781</v>
       </c>
       <c r="EF2" t="n">
-        <v>374.5230712890625</v>
+        <v>467.5556640625</v>
       </c>
       <c r="EG2" t="n">
-        <v>369.991455078125</v>
+        <v>482.1629028320312</v>
       </c>
       <c r="EH2" t="n">
-        <v>365.2286987304688</v>
+        <v>488.9931640625</v>
       </c>
       <c r="EI2" t="n">
-        <v>363.7478942871094</v>
+        <v>500.8678588867188</v>
       </c>
       <c r="EJ2" t="n">
-        <v>358.1067504882812</v>
+        <v>502.7813110351562</v>
       </c>
       <c r="EK2" t="n">
-        <v>355.2539672851562</v>
+        <v>508.7582397460938</v>
       </c>
       <c r="EL2" t="n">
-        <v>353.5871887207031</v>
+        <v>509.7184448242188</v>
       </c>
       <c r="EM2" t="n">
-        <v>353.1771545410156</v>
+        <v>513.6141357421875</v>
       </c>
       <c r="EN2" t="n">
-        <v>346.528564453125</v>
+        <v>517.1498413085938</v>
       </c>
       <c r="EO2" t="n">
-        <v>337.5370483398438</v>
+        <v>517.338623046875</v>
       </c>
       <c r="EP2" t="n">
-        <v>339.0668334960938</v>
+        <v>518.4097290039062</v>
       </c>
       <c r="EQ2" t="n">
-        <v>341.8798217773438</v>
+        <v>518.9197387695312</v>
       </c>
       <c r="ER2" t="n">
-        <v>342.3890380859375</v>
+        <v>519.4299926757812</v>
       </c>
       <c r="ES2" t="n">
-        <v>340.961669921875</v>
+        <v>517.6015625</v>
       </c>
       <c r="ET2" t="n">
-        <v>340.4634094238281</v>
+        <v>517.162841796875</v>
       </c>
       <c r="EU2" t="n">
-        <v>338.9197998046875</v>
+        <v>515.5531005859375</v>
       </c>
       <c r="EV2" t="n">
-        <v>338.1344604492188</v>
+        <v>512.6953125</v>
       </c>
       <c r="EW2" t="n">
-        <v>339.9603881835938</v>
+        <v>508.9864807128906</v>
       </c>
       <c r="EX2" t="n">
-        <v>340.1602783203125</v>
+        <v>510.8600463867188</v>
       </c>
       <c r="EY2" t="n">
-        <v>340.1679992675781</v>
+        <v>509.1007690429688</v>
       </c>
       <c r="EZ2" t="n">
-        <v>334.40673828125</v>
+        <v>509.6249084472656</v>
       </c>
       <c r="FA2" t="n">
-        <v>324.7662658691406</v>
+        <v>509.7103881835938</v>
       </c>
       <c r="FB2" t="n">
-        <v>327.4620971679688</v>
+        <v>508.7268676757812</v>
       </c>
       <c r="FC2" t="n">
-        <v>333.7396545410156</v>
+        <v>508.1173400878906</v>
       </c>
       <c r="FD2" t="n">
-        <v>334.9811401367188</v>
+        <v>506.5001831054688</v>
       </c>
       <c r="FE2" t="n">
-        <v>336.1171875</v>
+        <v>505.8291015625</v>
       </c>
       <c r="FF2" t="n">
-        <v>357.4977111816406</v>
+        <v>504.0185852050781</v>
       </c>
       <c r="FG2" t="n">
-        <v>353.697998046875</v>
+        <v>503.9672241210938</v>
       </c>
       <c r="FH2" t="n">
-        <v>349.4369201660156</v>
+        <v>506.5460815429688</v>
       </c>
       <c r="FI2" t="n">
-        <v>348.2158813476562</v>
+        <v>507.0014038085938</v>
       </c>
       <c r="FJ2" t="n">
-        <v>347.3502197265625</v>
+        <v>507.7576293945312</v>
       </c>
       <c r="FK2" t="n">
-        <v>349.9437255859375</v>
+        <v>509.6976013183594</v>
       </c>
       <c r="FL2" t="n">
-        <v>351.8517761230469</v>
+        <v>509.0443725585938</v>
       </c>
       <c r="FM2" t="n">
-        <v>340.3128662109375</v>
+        <v>504.44384765625</v>
       </c>
       <c r="FN2" t="n">
-        <v>321.5876770019531</v>
+        <v>502.1017456054688</v>
       </c>
       <c r="FO2" t="n">
-        <v>317.9562683105469</v>
+        <v>500.8890380859375</v>
       </c>
       <c r="FP2" t="n">
-        <v>340.0369873046875</v>
+        <v>491.1541442871094</v>
       </c>
       <c r="FQ2" t="n">
-        <v>339.2798461914062</v>
+        <v>483.5135498046875</v>
       </c>
       <c r="FR2" t="n">
-        <v>330.012451171875</v>
+        <v>479.6498107910156</v>
       </c>
       <c r="FS2" t="n">
-        <v>320.7268676757812</v>
+        <v>471.5152587890625</v>
       </c>
       <c r="FT2" t="n">
-        <v>329.638427734375</v>
+        <v>466.4097900390625</v>
       </c>
       <c r="FU2" t="n">
-        <v>329.2489013671875</v>
+        <v>462.7396240234375</v>
       </c>
       <c r="FV2" t="n">
-        <v>329.1275024414062</v>
+        <v>454.8179931640625</v>
       </c>
       <c r="FW2" t="n">
-        <v>328.9339904785156</v>
+        <v>450.9018249511719</v>
       </c>
       <c r="FX2" t="n">
-        <v>328.8977661132812</v>
+        <v>447.9900512695312</v>
       </c>
       <c r="FY2" t="n">
-        <v>328.5228881835938</v>
+        <v>446.9985656738281</v>
       </c>
       <c r="FZ2" t="n">
-        <v>328.0008239746094</v>
+        <v>446.0351867675781</v>
       </c>
       <c r="GA2" t="n">
-        <v>325.3793640136719</v>
+        <v>444.9348449707031</v>
       </c>
       <c r="GB2" t="n">
-        <v>324.2284545898438</v>
+        <v>443.4979553222656</v>
       </c>
       <c r="GC2" t="n">
-        <v>329.0880737304688</v>
+        <v>440.2560119628906</v>
       </c>
       <c r="GD2" t="n">
-        <v>329.9061889648438</v>
+        <v>438.433349609375</v>
       </c>
       <c r="GE2" t="n">
-        <v>330.685302734375</v>
+        <v>438.0623168945312</v>
       </c>
       <c r="GF2" t="n">
-        <v>330.9828491210938</v>
+        <v>438.0181274414062</v>
       </c>
       <c r="GG2" t="n">
-        <v>330.81884765625</v>
+        <v>438.8609619140625</v>
       </c>
       <c r="GH2" t="n">
-        <v>331.0907592773438</v>
+        <v>437.6636352539062</v>
       </c>
       <c r="GI2" t="n">
-        <v>331.5060729980469</v>
+        <v>435.16650390625</v>
       </c>
       <c r="GJ2" t="n">
-        <v>334.5597534179688</v>
+        <v>431.7821655273438</v>
       </c>
       <c r="GK2" t="n">
-        <v>348.2498168945312</v>
+        <v>431.5328369140625</v>
       </c>
       <c r="GL2" t="n">
-        <v>353.1834106445312</v>
+        <v>429.4153137207031</v>
       </c>
       <c r="GM2" t="n">
-        <v>365.0210571289062</v>
+        <v>423.78759765625</v>
       </c>
       <c r="GN2" t="n">
-        <v>368.5674743652344</v>
+        <v>419.2190246582031</v>
       </c>
       <c r="GO2" t="n">
-        <v>372.2814331054688</v>
+        <v>412.5342407226562</v>
       </c>
       <c r="GP2" t="n">
-        <v>373.2073364257812</v>
+        <v>408.6614379882812</v>
       </c>
       <c r="GQ2" t="n">
-        <v>374.9170227050781</v>
+        <v>398.939697265625</v>
       </c>
       <c r="GR2" t="n">
-        <v>376.1328430175781</v>
+        <v>391.0433654785156</v>
       </c>
       <c r="GS2" t="n">
-        <v>378.1744689941406</v>
+        <v>384.3301696777344</v>
       </c>
       <c r="GT2" t="n">
-        <v>378.9595947265625</v>
+        <v>383.5234375</v>
       </c>
       <c r="GU2" t="n">
-        <v>379.2021179199219</v>
+        <v>381.7418823242188</v>
       </c>
       <c r="GV2" t="n">
-        <v>378.3248596191406</v>
+        <v>377.115478515625</v>
       </c>
       <c r="GW2" t="n">
-        <v>378.3267822265625</v>
+        <v>375.215576171875</v>
       </c>
       <c r="GX2" t="n">
-        <v>378.691650390625</v>
+        <v>372.01513671875</v>
       </c>
       <c r="GY2" t="n">
-        <v>373.9608154296875</v>
+        <v>371.4979858398438</v>
       </c>
       <c r="GZ2" t="n">
-        <v>368.3739929199219</v>
+        <v>370.1659545898438</v>
       </c>
       <c r="HA2" t="n">
-        <v>355.1753234863281</v>
+        <v>370.082763671875</v>
       </c>
       <c r="HB2" t="n">
-        <v>345.1647644042969</v>
+        <v>370.5095825195312</v>
       </c>
       <c r="HC2" t="n">
-        <v>345.4452209472656</v>
+        <v>369.9743041992188</v>
       </c>
       <c r="HD2" t="n">
-        <v>340.3133544921875</v>
+        <v>369.5150756835938</v>
       </c>
       <c r="HE2" t="n">
-        <v>342.2713928222656</v>
+        <v>369.5670166015625</v>
       </c>
       <c r="HF2" t="n">
-        <v>347.5537719726562</v>
+        <v>373.0565185546875</v>
       </c>
       <c r="HG2" t="n">
-        <v>351.4148559570312</v>
+        <v>381.693603515625</v>
       </c>
       <c r="HH2" t="n">
-        <v>353.1733703613281</v>
+        <v>361.0751037597656</v>
       </c>
       <c r="HI2" t="n">
-        <v>351.5975341796875</v>
+        <v>381.4149475097656</v>
       </c>
       <c r="HJ2" t="n">
-        <v>353.0957641601562</v>
+        <v>385.78466796875</v>
       </c>
       <c r="HK2" t="n">
-        <v>353.373779296875</v>
+        <v>389.9977111816406</v>
       </c>
       <c r="HL2" t="n">
-        <v>349.5906372070312</v>
+        <v>399.3158264160156</v>
       </c>
       <c r="HM2" t="n">
-        <v>348.251220703125</v>
+        <v>407.7101135253906</v>
       </c>
       <c r="HN2" t="n">
-        <v>353.2788696289062</v>
+        <v>420.0869140625</v>
       </c>
       <c r="HO2" t="n">
-        <v>354.5623779296875</v>
+        <v>433.9398498535156</v>
       </c>
       <c r="HP2" t="n">
-        <v>353.0618896484375</v>
+        <v>443.5516357421875</v>
       </c>
       <c r="HQ2" t="n">
-        <v>337.7572021484375</v>
+        <v>448.4865112304688</v>
       </c>
       <c r="HR2" t="n">
-        <v>326.297607421875</v>
+        <v>461.0408020019531</v>
       </c>
       <c r="HS2" t="n">
-        <v>321.1871643066406</v>
+        <v>468.762451171875</v>
       </c>
       <c r="HT2" t="n">
-        <v>316.2193603515625</v>
+        <v>474.6002197265625</v>
       </c>
       <c r="HU2" t="n">
-        <v>319.8482971191406</v>
+        <v>476.7947692871094</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>477.5607604980469</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>479.4848022460938</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>478.7639770507812</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>478.2540283203125</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>478.5568542480469</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>477.5700073242188</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>477.5053405761719</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>476.5536193847656</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>470.9542541503906</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>470.6915283203125</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>468.974365234375</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>464.3475646972656</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>460.1821899414062</v>
+      </c>
+      <c r="II2" t="n">
+        <v>452.0211181640625</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>448.1893920898438</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>433.8158569335938</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>430.2180480957031</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>419.5350646972656</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>406.7645874023438</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>398.0972900390625</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>394.1424865722656</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>385.191162109375</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>383.9588012695312</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>381.1004028320312</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>377.7940673828125</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>376.2326049804688</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>376.5005493164062</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>376.6170654296875</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>376.1141357421875</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>376.9454345703125</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>378.296875</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>379.8643493652344</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>382.9523315429688</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>386.4754638671875</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>390.9060363769531</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>398.48388671875</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>405.3166198730469</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>414.5677185058594</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>421.4124145507812</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>428.7750244140625</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>430.7776184082031</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>437.8749084472656</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>420.7580261230469</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>449.2320556640625</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>450.8667602539062</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>454.7225341796875</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>456.6082153320312</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>456.6436157226562</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>457.6788940429688</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>458.5736389160156</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>460.7720642089844</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>462.760009765625</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>463.2967529296875</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>463.9457397460938</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>465.01416015625</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>465.3494262695312</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>465.9520874023438</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>466.8968200683594</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>470.1471557617188</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>480.5863037109375</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>494.2474670410156</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>501.3800659179688</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>506.2963256835938</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>506.5684509277344</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>506.2136535644531</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>505.2322387695312</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>504.000732421875</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>502.55224609375</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>499.583251953125</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>495.7623596191406</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>492.1469421386719</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>486.5813903808594</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>481.9798278808594</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>470.0634155273438</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>462.0184020996094</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>459.8980102539062</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>460.5539245605469</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>460.7159423828125</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>460.35791015625</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>460.9150695800781</v>
+      </c>
+      <c r="KX2" t="n">
+        <v>463.5531616210938</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>465.7498779296875</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>469.1730346679688</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>470.6779479980469</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>470.5643005371094</v>
+      </c>
+      <c r="LC2" t="n">
+        <v>470.190185546875</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>468.162353515625</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>465.7082824707031</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>466.2478942871094</v>
+      </c>
+      <c r="LG2" t="n">
+        <v>469.7366638183594</v>
+      </c>
+      <c r="LH2" t="n">
+        <v>473.4466247558594</v>
+      </c>
+      <c r="LI2" t="n">
+        <v>478.9876098632812</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>487.5088195800781</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>493.8215942382812</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>501.842041015625</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>511.1221618652344</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>526.8062133789062</v>
+      </c>
+      <c r="LO2" t="n">
+        <v>535.9716186523438</v>
+      </c>
+      <c r="LP2" t="n">
+        <v>554.6427001953125</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>572.2106323242188</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>581.8096313476562</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>596.3870239257812</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>621.1539306640625</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>629.1943969726562</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>554.3619995117188</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>534.9041748046875</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>573.6762084960938</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>574.9212036132812</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>608.2568969726562</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>581.8477172851562</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>551.730712890625</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>522.258056640625</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>487.8415222167969</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>474.9053649902344</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>470.5325927734375</v>
+      </c>
+      <c r="MG2" t="n">
+        <v>468.5624389648438</v>
+      </c>
+      <c r="MH2" t="n">
+        <v>479.0611267089844</v>
+      </c>
+      <c r="MI2" t="n">
+        <v>502.4408264160156</v>
+      </c>
+      <c r="MJ2" t="n">
+        <v>544.7620239257812</v>
+      </c>
+      <c r="MK2" t="n">
+        <v>577.992919921875</v>
+      </c>
+      <c r="ML2" t="n">
+        <v>585.876953125</v>
+      </c>
+      <c r="MM2" t="n">
+        <v>587.8193359375</v>
+      </c>
+      <c r="MN2" t="n">
+        <v>585.9628295898438</v>
+      </c>
+      <c r="MO2" t="n">
+        <v>579.818115234375</v>
+      </c>
+      <c r="MP2" t="n">
+        <v>580.4010620117188</v>
+      </c>
+      <c r="MQ2" t="n">
+        <v>577.509033203125</v>
+      </c>
+      <c r="MR2" t="n">
+        <v>564.9332885742188</v>
+      </c>
+      <c r="MS2" t="n">
+        <v>528.5552368164062</v>
+      </c>
+      <c r="MT2" t="n">
+        <v>530.8135375976562</v>
+      </c>
+      <c r="MU2" t="n">
+        <v>564.7232055664062</v>
+      </c>
+      <c r="MV2" t="n">
+        <v>472.3092651367188</v>
+      </c>
+      <c r="MW2" t="n">
+        <v>474.4508666992188</v>
+      </c>
+      <c r="MX2" t="n">
+        <v>491.15625</v>
+      </c>
+      <c r="MY2" t="n">
+        <v>499.8702392578125</v>
+      </c>
+      <c r="MZ2" t="n">
+        <v>506.2735595703125</v>
+      </c>
+      <c r="NA2" t="n">
+        <v>512.3285522460938</v>
+      </c>
+      <c r="NB2" t="n">
+        <v>515.119873046875</v>
+      </c>
+      <c r="NC2" t="n">
+        <v>515.5751342773438</v>
+      </c>
+      <c r="ND2" t="n">
+        <v>515.8922119140625</v>
+      </c>
+      <c r="NE2" t="n">
+        <v>516.1798095703125</v>
+      </c>
+      <c r="NF2" t="n">
+        <v>515.2113647460938</v>
+      </c>
+      <c r="NG2" t="n">
+        <v>513.4901123046875</v>
+      </c>
+      <c r="NH2" t="n">
+        <v>509.7427673339844</v>
+      </c>
+      <c r="NI2" t="n">
+        <v>504.7191772460938</v>
+      </c>
+      <c r="NJ2" t="n">
+        <v>502.6763305664062</v>
+      </c>
+      <c r="NK2" t="n">
+        <v>502.6523132324219</v>
+      </c>
+      <c r="NL2" t="n">
+        <v>457.1052856445312</v>
+      </c>
+      <c r="NM2" t="n">
+        <v>469.5882873535156</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>312.2696838378906</v>
+        <v>269.9527587890625</v>
       </c>
       <c r="B3" t="n">
-        <v>299.7930908203125</v>
+        <v>263.7882690429688</v>
       </c>
       <c r="C3" t="n">
-        <v>297.2839660644531</v>
+        <v>262.9787292480469</v>
       </c>
       <c r="D3" t="n">
-        <v>292.7327270507812</v>
+        <v>261.4217834472656</v>
       </c>
       <c r="E3" t="n">
-        <v>291.3266296386719</v>
+        <v>263.3355712890625</v>
       </c>
       <c r="F3" t="n">
-        <v>291.6744995117188</v>
+        <v>263.5508422851562</v>
       </c>
       <c r="G3" t="n">
-        <v>294.7395629882812</v>
+        <v>264.5098266601562</v>
       </c>
       <c r="H3" t="n">
-        <v>300.7169799804688</v>
+        <v>266.1426391601562</v>
       </c>
       <c r="I3" t="n">
-        <v>299.4796142578125</v>
+        <v>266.3032836914062</v>
       </c>
       <c r="J3" t="n">
-        <v>307.2797546386719</v>
+        <v>266.416748046875</v>
       </c>
       <c r="K3" t="n">
-        <v>306.1272888183594</v>
+        <v>267.29052734375</v>
       </c>
       <c r="L3" t="n">
-        <v>314.1718139648438</v>
+        <v>269.2897338867188</v>
       </c>
       <c r="M3" t="n">
-        <v>311.6107177734375</v>
+        <v>277.3753051757812</v>
       </c>
       <c r="N3" t="n">
-        <v>313.7177734375</v>
+        <v>276.1599731445312</v>
       </c>
       <c r="O3" t="n">
-        <v>284.3122253417969</v>
+        <v>273.8831176757812</v>
       </c>
       <c r="P3" t="n">
-        <v>276.3391418457031</v>
+        <v>273.1056518554688</v>
       </c>
       <c r="Q3" t="n">
-        <v>274.5117492675781</v>
+        <v>272.3712768554688</v>
       </c>
       <c r="R3" t="n">
-        <v>270.5369567871094</v>
+        <v>273.6679382324219</v>
       </c>
       <c r="S3" t="n">
-        <v>257.83935546875</v>
+        <v>274.9487609863281</v>
       </c>
       <c r="T3" t="n">
-        <v>257.380615234375</v>
+        <v>275.0007934570312</v>
       </c>
       <c r="U3" t="n">
-        <v>256.6494445800781</v>
+        <v>276.4873352050781</v>
       </c>
       <c r="V3" t="n">
-        <v>256.917236328125</v>
+        <v>281.5714721679688</v>
       </c>
       <c r="W3" t="n">
-        <v>257.765625</v>
+        <v>284.7637939453125</v>
       </c>
       <c r="X3" t="n">
-        <v>259.3491516113281</v>
+        <v>286.0453796386719</v>
       </c>
       <c r="Y3" t="n">
-        <v>260.8775329589844</v>
+        <v>290.6780395507812</v>
       </c>
       <c r="Z3" t="n">
-        <v>261.571533203125</v>
+        <v>295.099609375</v>
       </c>
       <c r="AA3" t="n">
-        <v>262.6748046875</v>
+        <v>298.6329650878906</v>
       </c>
       <c r="AB3" t="n">
-        <v>263.538330078125</v>
+        <v>299.3430786132812</v>
       </c>
       <c r="AC3" t="n">
-        <v>261.6511535644531</v>
+        <v>301.0461730957031</v>
       </c>
       <c r="AD3" t="n">
-        <v>260.3241271972656</v>
+        <v>301.7925109863281</v>
       </c>
       <c r="AE3" t="n">
-        <v>258.5894165039062</v>
+        <v>300.7945556640625</v>
       </c>
       <c r="AF3" t="n">
-        <v>254.811279296875</v>
+        <v>299.8752746582031</v>
       </c>
       <c r="AG3" t="n">
-        <v>252.1314544677734</v>
+        <v>298.5435791015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>248.7100982666016</v>
+        <v>295.6712036132812</v>
       </c>
       <c r="AI3" t="n">
-        <v>247.8005828857422</v>
+        <v>291.3570251464844</v>
       </c>
       <c r="AJ3" t="n">
-        <v>248.5431823730469</v>
+        <v>287.2979125976562</v>
       </c>
       <c r="AK3" t="n">
-        <v>249.0404052734375</v>
+        <v>286.34912109375</v>
       </c>
       <c r="AL3" t="n">
-        <v>250.3966979980469</v>
+        <v>285.6312866210938</v>
       </c>
       <c r="AM3" t="n">
-        <v>252.9802551269531</v>
+        <v>285.7945556640625</v>
       </c>
       <c r="AN3" t="n">
-        <v>252.7882232666016</v>
+        <v>285.4599609375</v>
       </c>
       <c r="AO3" t="n">
-        <v>254.6028594970703</v>
+        <v>285.4336853027344</v>
       </c>
       <c r="AP3" t="n">
-        <v>256.02734375</v>
+        <v>285.6581115722656</v>
       </c>
       <c r="AQ3" t="n">
-        <v>257.4395141601562</v>
+        <v>285.5055236816406</v>
       </c>
       <c r="AR3" t="n">
-        <v>257.6835632324219</v>
+        <v>285.3233642578125</v>
       </c>
       <c r="AS3" t="n">
-        <v>258.2896423339844</v>
+        <v>285.453857421875</v>
       </c>
       <c r="AT3" t="n">
-        <v>259.1029052734375</v>
+        <v>286.0119323730469</v>
       </c>
       <c r="AU3" t="n">
-        <v>259.9868469238281</v>
+        <v>286.9838562011719</v>
       </c>
       <c r="AV3" t="n">
-        <v>258.9509582519531</v>
+        <v>289.1488952636719</v>
       </c>
       <c r="AW3" t="n">
-        <v>258.0747375488281</v>
+        <v>291.1726989746094</v>
       </c>
       <c r="AX3" t="n">
-        <v>255.9268341064453</v>
+        <v>292.568115234375</v>
       </c>
       <c r="AY3" t="n">
-        <v>253.9570922851562</v>
+        <v>293.7756042480469</v>
       </c>
       <c r="AZ3" t="n">
-        <v>251.7262725830078</v>
+        <v>289.7588806152344</v>
       </c>
       <c r="BA3" t="n">
-        <v>249.9781036376953</v>
+        <v>283.6267700195312</v>
       </c>
       <c r="BB3" t="n">
-        <v>250.2587738037109</v>
+        <v>278.0892028808594</v>
       </c>
       <c r="BC3" t="n">
-        <v>249.9194183349609</v>
+        <v>271.5374755859375</v>
       </c>
       <c r="BD3" t="n">
-        <v>252.1363677978516</v>
+        <v>264.6011962890625</v>
       </c>
       <c r="BE3" t="n">
-        <v>250.7777099609375</v>
+        <v>258.2342224121094</v>
       </c>
       <c r="BF3" t="n">
-        <v>251.3513031005859</v>
+        <v>251.5510406494141</v>
       </c>
       <c r="BG3" t="n">
-        <v>253.6214141845703</v>
+        <v>246.6498107910156</v>
       </c>
       <c r="BH3" t="n">
-        <v>256.1376647949219</v>
+        <v>239.6212463378906</v>
       </c>
       <c r="BI3" t="n">
-        <v>256.1142883300781</v>
+        <v>234.1971893310547</v>
       </c>
       <c r="BJ3" t="n">
-        <v>254.9379730224609</v>
+        <v>229.6412353515625</v>
       </c>
       <c r="BK3" t="n">
-        <v>255.4526977539062</v>
+        <v>225.2904510498047</v>
       </c>
       <c r="BL3" t="n">
-        <v>255.8051147460938</v>
+        <v>222.2557830810547</v>
       </c>
       <c r="BM3" t="n">
-        <v>254.0265960693359</v>
+        <v>220.7034301757812</v>
       </c>
       <c r="BN3" t="n">
-        <v>252.4998168945312</v>
+        <v>220.8052520751953</v>
       </c>
       <c r="BO3" t="n">
-        <v>250.8978424072266</v>
+        <v>218.7273101806641</v>
       </c>
       <c r="BP3" t="n">
-        <v>248.8858795166016</v>
+        <v>216.8531646728516</v>
       </c>
       <c r="BQ3" t="n">
-        <v>250.2526702880859</v>
+        <v>213.5425567626953</v>
       </c>
       <c r="BR3" t="n">
-        <v>248.6987609863281</v>
+        <v>212.1914520263672</v>
       </c>
       <c r="BS3" t="n">
-        <v>248.8345184326172</v>
+        <v>211.4788208007812</v>
       </c>
       <c r="BT3" t="n">
-        <v>248.9878234863281</v>
+        <v>210.8408050537109</v>
       </c>
       <c r="BU3" t="n">
-        <v>248.9917602539062</v>
+        <v>211.0734405517578</v>
       </c>
       <c r="BV3" t="n">
-        <v>248.8665924072266</v>
+        <v>210.7733764648438</v>
       </c>
       <c r="BW3" t="n">
-        <v>250.2034606933594</v>
+        <v>210.2275085449219</v>
       </c>
       <c r="BX3" t="n">
-        <v>250.6221160888672</v>
+        <v>209.3582153320312</v>
       </c>
       <c r="BY3" t="n">
-        <v>252.9667358398438</v>
+        <v>206.77685546875</v>
       </c>
       <c r="BZ3" t="n">
-        <v>255.1204223632812</v>
+        <v>204.8614196777344</v>
       </c>
       <c r="CA3" t="n">
-        <v>258.1300659179688</v>
+        <v>203.3361358642578</v>
       </c>
       <c r="CB3" t="n">
-        <v>253.8437805175781</v>
+        <v>202.2470703125</v>
       </c>
       <c r="CC3" t="n">
-        <v>252.4314575195312</v>
+        <v>202.2217102050781</v>
       </c>
       <c r="CD3" t="n">
-        <v>252.6999359130859</v>
+        <v>201.9820404052734</v>
       </c>
       <c r="CE3" t="n">
-        <v>251.7288208007812</v>
+        <v>201.3008422851562</v>
       </c>
       <c r="CF3" t="n">
-        <v>253.273193359375</v>
+        <v>201.2058563232422</v>
       </c>
       <c r="CG3" t="n">
-        <v>252.9122619628906</v>
+        <v>200.8210754394531</v>
       </c>
       <c r="CH3" t="n">
-        <v>252.8752593994141</v>
+        <v>200.920654296875</v>
       </c>
       <c r="CI3" t="n">
-        <v>249.9974975585938</v>
+        <v>200.5088195800781</v>
       </c>
       <c r="CJ3" t="n">
-        <v>255.1747436523438</v>
+        <v>200.4834747314453</v>
       </c>
       <c r="CK3" t="n">
-        <v>255.1720581054688</v>
+        <v>200.5001525878906</v>
       </c>
       <c r="CL3" t="n">
-        <v>251.5098114013672</v>
+        <v>200.8344268798828</v>
       </c>
       <c r="CM3" t="n">
-        <v>250.0944366455078</v>
+        <v>201.0465850830078</v>
       </c>
       <c r="CN3" t="n">
-        <v>254.0096893310547</v>
+        <v>204.8509979248047</v>
       </c>
       <c r="CO3" t="n">
-        <v>255.2793273925781</v>
+        <v>216.6448059082031</v>
       </c>
       <c r="CP3" t="n">
-        <v>255.8110198974609</v>
+        <v>226.31787109375</v>
       </c>
       <c r="CQ3" t="n">
-        <v>255.060302734375</v>
+        <v>235.83154296875</v>
       </c>
       <c r="CR3" t="n">
-        <v>254.9410095214844</v>
+        <v>245.6194152832031</v>
       </c>
       <c r="CS3" t="n">
-        <v>255.1922607421875</v>
+        <v>257.2826843261719</v>
       </c>
       <c r="CT3" t="n">
-        <v>255.72412109375</v>
+        <v>271.7000732421875</v>
       </c>
       <c r="CU3" t="n">
-        <v>254.1849822998047</v>
+        <v>276.42822265625</v>
       </c>
       <c r="CV3" t="n">
-        <v>252.1507415771484</v>
+        <v>281.6752319335938</v>
       </c>
       <c r="CW3" t="n">
-        <v>255.1479797363281</v>
+        <v>284.1442565917969</v>
       </c>
       <c r="CX3" t="n">
-        <v>250.9779663085938</v>
+        <v>285.980224609375</v>
       </c>
       <c r="CY3" t="n">
-        <v>248.8203277587891</v>
+        <v>286.9002075195312</v>
       </c>
       <c r="CZ3" t="n">
-        <v>255.2462158203125</v>
+        <v>286.2587890625</v>
       </c>
       <c r="DA3" t="n">
-        <v>253.5085144042969</v>
+        <v>284.6393737792969</v>
       </c>
       <c r="DB3" t="n">
-        <v>255.2987518310547</v>
+        <v>282.1464233398438</v>
       </c>
       <c r="DC3" t="n">
-        <v>253.2282562255859</v>
+        <v>280.5735473632812</v>
       </c>
       <c r="DD3" t="n">
-        <v>252.5339660644531</v>
+        <v>278.9427185058594</v>
       </c>
       <c r="DE3" t="n">
-        <v>252.1161193847656</v>
+        <v>278.00634765625</v>
       </c>
       <c r="DF3" t="n">
-        <v>245.8252105712891</v>
+        <v>278.5313720703125</v>
       </c>
       <c r="DG3" t="n">
-        <v>249.9734649658203</v>
+        <v>279.3114013671875</v>
       </c>
       <c r="DH3" t="n">
-        <v>251.9338684082031</v>
+        <v>279.195556640625</v>
       </c>
       <c r="DI3" t="n">
-        <v>255.6394653320312</v>
+        <v>278.4133911132812</v>
       </c>
       <c r="DJ3" t="n">
-        <v>252.8097991943359</v>
+        <v>277.9647216796875</v>
       </c>
       <c r="DK3" t="n">
-        <v>252.7411956787109</v>
+        <v>277.6492614746094</v>
       </c>
       <c r="DL3" t="n">
-        <v>253.4138793945312</v>
+        <v>277.9513549804688</v>
       </c>
       <c r="DM3" t="n">
-        <v>252.9521331787109</v>
+        <v>277.9027099609375</v>
       </c>
       <c r="DN3" t="n">
-        <v>250.7013092041016</v>
+        <v>277.8833923339844</v>
       </c>
       <c r="DO3" t="n">
-        <v>248.9462432861328</v>
+        <v>277.6784362792969</v>
       </c>
       <c r="DP3" t="n">
-        <v>253.9198760986328</v>
+        <v>277.0730590820312</v>
       </c>
       <c r="DQ3" t="n">
-        <v>257.0532836914062</v>
+        <v>276.7757873535156</v>
       </c>
       <c r="DR3" t="n">
-        <v>254.7933807373047</v>
+        <v>277.299072265625</v>
       </c>
       <c r="DS3" t="n">
-        <v>252.0926513671875</v>
+        <v>277.5938720703125</v>
       </c>
       <c r="DT3" t="n">
-        <v>252.0644989013672</v>
+        <v>278.0281066894531</v>
       </c>
       <c r="DU3" t="n">
-        <v>249.8410034179688</v>
+        <v>279.1054077148438</v>
       </c>
       <c r="DV3" t="n">
-        <v>248.5528869628906</v>
+        <v>279.1148071289062</v>
       </c>
       <c r="DW3" t="n">
-        <v>249.8925323486328</v>
+        <v>280.6589050292969</v>
       </c>
       <c r="DX3" t="n">
-        <v>250.6412048339844</v>
+        <v>281.8391723632812</v>
       </c>
       <c r="DY3" t="n">
-        <v>250.1858978271484</v>
+        <v>284.2630004882812</v>
       </c>
       <c r="DZ3" t="n">
-        <v>249.6461334228516</v>
+        <v>286.3294067382812</v>
       </c>
       <c r="EA3" t="n">
-        <v>250.7169036865234</v>
+        <v>286.77587890625</v>
       </c>
       <c r="EB3" t="n">
-        <v>250.7186584472656</v>
+        <v>289.8176879882812</v>
       </c>
       <c r="EC3" t="n">
-        <v>249.9044647216797</v>
+        <v>293.4788513183594</v>
       </c>
       <c r="ED3" t="n">
-        <v>250.9521331787109</v>
+        <v>295.8418884277344</v>
       </c>
       <c r="EE3" t="n">
-        <v>250.9237823486328</v>
+        <v>295.8366394042969</v>
       </c>
       <c r="EF3" t="n">
-        <v>250.9200439453125</v>
+        <v>298.5457153320312</v>
       </c>
       <c r="EG3" t="n">
-        <v>253.2872772216797</v>
+        <v>300.1025085449219</v>
       </c>
       <c r="EH3" t="n">
-        <v>254.0139770507812</v>
+        <v>300.2218017578125</v>
       </c>
       <c r="EI3" t="n">
-        <v>254.4412689208984</v>
+        <v>300.3416442871094</v>
       </c>
       <c r="EJ3" t="n">
-        <v>254.486328125</v>
+        <v>300.3740844726562</v>
       </c>
       <c r="EK3" t="n">
-        <v>255.8622894287109</v>
+        <v>298.2705688476562</v>
       </c>
       <c r="EL3" t="n">
-        <v>254.8159484863281</v>
+        <v>297.116943359375</v>
       </c>
       <c r="EM3" t="n">
-        <v>254.726806640625</v>
+        <v>294.8352355957031</v>
       </c>
       <c r="EN3" t="n">
-        <v>257.2835388183594</v>
+        <v>293.2781372070312</v>
       </c>
       <c r="EO3" t="n">
-        <v>255.0869445800781</v>
+        <v>294.9647216796875</v>
       </c>
       <c r="EP3" t="n">
-        <v>251.4185943603516</v>
+        <v>296.0996704101562</v>
       </c>
       <c r="EQ3" t="n">
-        <v>253.9610443115234</v>
+        <v>301.8235778808594</v>
       </c>
       <c r="ER3" t="n">
-        <v>254.1484680175781</v>
+        <v>301.3977966308594</v>
       </c>
       <c r="ES3" t="n">
-        <v>252.4590454101562</v>
+        <v>302.9174499511719</v>
       </c>
       <c r="ET3" t="n">
-        <v>253.7476806640625</v>
+        <v>307.1515502929688</v>
       </c>
       <c r="EU3" t="n">
-        <v>255.250732421875</v>
+        <v>309.6681518554688</v>
       </c>
       <c r="EV3" t="n">
-        <v>253.8936157226562</v>
+        <v>307.8825073242188</v>
       </c>
       <c r="EW3" t="n">
-        <v>251.8029479980469</v>
+        <v>303.5755310058594</v>
       </c>
       <c r="EX3" t="n">
-        <v>252.511962890625</v>
+        <v>303.2301940917969</v>
       </c>
       <c r="EY3" t="n">
-        <v>251.4809417724609</v>
+        <v>302.2142944335938</v>
       </c>
       <c r="EZ3" t="n">
-        <v>246.9519958496094</v>
+        <v>302.0161743164062</v>
       </c>
       <c r="FA3" t="n">
-        <v>244.458740234375</v>
+        <v>303.8165893554688</v>
       </c>
       <c r="FB3" t="n">
-        <v>243.8075408935547</v>
+        <v>306.6502380371094</v>
       </c>
       <c r="FC3" t="n">
-        <v>249.6447601318359</v>
+        <v>309.5447082519531</v>
       </c>
       <c r="FD3" t="n">
-        <v>248.1824340820312</v>
+        <v>310.8252868652344</v>
       </c>
       <c r="FE3" t="n">
-        <v>246.5507354736328</v>
+        <v>311.5129089355469</v>
       </c>
       <c r="FF3" t="n">
-        <v>249.6677093505859</v>
+        <v>312.3672790527344</v>
       </c>
       <c r="FG3" t="n">
-        <v>249.9316101074219</v>
+        <v>313.9723815917969</v>
       </c>
       <c r="FH3" t="n">
-        <v>251.9507141113281</v>
+        <v>313.3979797363281</v>
       </c>
       <c r="FI3" t="n">
-        <v>251.2979431152344</v>
+        <v>313.8965454101562</v>
       </c>
       <c r="FJ3" t="n">
-        <v>253.4806213378906</v>
+        <v>315.3420104980469</v>
       </c>
       <c r="FK3" t="n">
-        <v>253.4066162109375</v>
+        <v>314.7702331542969</v>
       </c>
       <c r="FL3" t="n">
-        <v>252.6770477294922</v>
+        <v>315.1002502441406</v>
       </c>
       <c r="FM3" t="n">
-        <v>253.5022583007812</v>
+        <v>313.2828674316406</v>
       </c>
       <c r="FN3" t="n">
-        <v>246.3904418945312</v>
+        <v>312.4306945800781</v>
       </c>
       <c r="FO3" t="n">
-        <v>246.3258666992188</v>
+        <v>312.0851440429688</v>
       </c>
       <c r="FP3" t="n">
-        <v>257.982421875</v>
+        <v>312.4791870117188</v>
       </c>
       <c r="FQ3" t="n">
-        <v>262.3119201660156</v>
+        <v>312.5477905273438</v>
       </c>
       <c r="FR3" t="n">
-        <v>260.5316772460938</v>
+        <v>312.3991394042969</v>
       </c>
       <c r="FS3" t="n">
-        <v>248.175537109375</v>
+        <v>314.9023132324219</v>
       </c>
       <c r="FT3" t="n">
-        <v>254.9697875976562</v>
+        <v>314.7505798339844</v>
       </c>
       <c r="FU3" t="n">
-        <v>251.8286437988281</v>
+        <v>315.1338195800781</v>
       </c>
       <c r="FV3" t="n">
-        <v>254.7637329101562</v>
+        <v>316.0563659667969</v>
       </c>
       <c r="FW3" t="n">
-        <v>251.7403869628906</v>
+        <v>316.4782104492188</v>
       </c>
       <c r="FX3" t="n">
-        <v>253.3136901855469</v>
+        <v>315.567138671875</v>
       </c>
       <c r="FY3" t="n">
-        <v>252.5506744384766</v>
+        <v>314.5916442871094</v>
       </c>
       <c r="FZ3" t="n">
-        <v>254.0296020507812</v>
+        <v>312.9018249511719</v>
       </c>
       <c r="GA3" t="n">
-        <v>253.5033721923828</v>
+        <v>312.1275634765625</v>
       </c>
       <c r="GB3" t="n">
-        <v>252.7361297607422</v>
+        <v>312.0002746582031</v>
       </c>
       <c r="GC3" t="n">
-        <v>252.1475372314453</v>
+        <v>312.2650146484375</v>
       </c>
       <c r="GD3" t="n">
-        <v>251.7685241699219</v>
+        <v>311.5940551757812</v>
       </c>
       <c r="GE3" t="n">
-        <v>254.3992462158203</v>
+        <v>311.7687072753906</v>
       </c>
       <c r="GF3" t="n">
-        <v>255.7027282714844</v>
+        <v>312.2066650390625</v>
       </c>
       <c r="GG3" t="n">
-        <v>255.0925903320312</v>
+        <v>313.7887878417969</v>
       </c>
       <c r="GH3" t="n">
-        <v>255.8027954101562</v>
+        <v>315.076904296875</v>
       </c>
       <c r="GI3" t="n">
-        <v>253.7483367919922</v>
+        <v>315.9735717773438</v>
       </c>
       <c r="GJ3" t="n">
-        <v>252.0632476806641</v>
+        <v>316.7816772460938</v>
       </c>
       <c r="GK3" t="n">
-        <v>250.1386413574219</v>
+        <v>315.8041381835938</v>
       </c>
       <c r="GL3" t="n">
-        <v>248.3080444335938</v>
+        <v>314.1729125976562</v>
       </c>
       <c r="GM3" t="n">
-        <v>239.4064483642578</v>
+        <v>314.7525939941406</v>
       </c>
       <c r="GN3" t="n">
-        <v>233.6515045166016</v>
+        <v>315.3013000488281</v>
       </c>
       <c r="GO3" t="n">
-        <v>225.7494812011719</v>
+        <v>315.2859191894531</v>
       </c>
       <c r="GP3" t="n">
-        <v>222.2787170410156</v>
+        <v>314.9096374511719</v>
       </c>
       <c r="GQ3" t="n">
-        <v>216.4920806884766</v>
+        <v>313.4287414550781</v>
       </c>
       <c r="GR3" t="n">
-        <v>212.5440063476562</v>
+        <v>313.25244140625</v>
       </c>
       <c r="GS3" t="n">
-        <v>209.6723480224609</v>
+        <v>310.9560241699219</v>
       </c>
       <c r="GT3" t="n">
-        <v>206.9654388427734</v>
+        <v>309.630859375</v>
       </c>
       <c r="GU3" t="n">
-        <v>202.9445190429688</v>
+        <v>306.8472595214844</v>
       </c>
       <c r="GV3" t="n">
-        <v>204.7117614746094</v>
+        <v>306.9382019042969</v>
       </c>
       <c r="GW3" t="n">
-        <v>210.7997436523438</v>
+        <v>307.0988159179688</v>
       </c>
       <c r="GX3" t="n">
-        <v>216.213623046875</v>
+        <v>305.6097412109375</v>
       </c>
       <c r="GY3" t="n">
-        <v>227.7927856445312</v>
+        <v>306.8243408203125</v>
       </c>
       <c r="GZ3" t="n">
-        <v>237.4209594726562</v>
+        <v>306.7687072753906</v>
       </c>
       <c r="HA3" t="n">
-        <v>250.5320587158203</v>
+        <v>306.21923828125</v>
       </c>
       <c r="HB3" t="n">
-        <v>257.3736267089844</v>
+        <v>305.7663269042969</v>
       </c>
       <c r="HC3" t="n">
-        <v>260.6884460449219</v>
+        <v>303.7772827148438</v>
       </c>
       <c r="HD3" t="n">
-        <v>264.9315490722656</v>
+        <v>302.4883117675781</v>
       </c>
       <c r="HE3" t="n">
-        <v>265.1077270507812</v>
+        <v>302.3639831542969</v>
       </c>
       <c r="HF3" t="n">
-        <v>265.6486206054688</v>
+        <v>300.6569213867188</v>
       </c>
       <c r="HG3" t="n">
-        <v>264.7161254882812</v>
+        <v>299.8590087890625</v>
       </c>
       <c r="HH3" t="n">
-        <v>263.0562438964844</v>
+        <v>293.3524475097656</v>
       </c>
       <c r="HI3" t="n">
-        <v>263.6678466796875</v>
+        <v>302.6947937011719</v>
       </c>
       <c r="HJ3" t="n">
-        <v>265.5286865234375</v>
+        <v>304.032958984375</v>
       </c>
       <c r="HK3" t="n">
-        <v>269.2826232910156</v>
+        <v>307.5731201171875</v>
       </c>
       <c r="HL3" t="n">
-        <v>270.8877258300781</v>
+        <v>308.3724060058594</v>
       </c>
       <c r="HM3" t="n">
-        <v>271.9500122070312</v>
+        <v>309.10595703125</v>
       </c>
       <c r="HN3" t="n">
-        <v>269.4082946777344</v>
+        <v>313.2089233398438</v>
       </c>
       <c r="HO3" t="n">
-        <v>267.2343139648438</v>
+        <v>314.2546997070312</v>
       </c>
       <c r="HP3" t="n">
-        <v>264.038330078125</v>
+        <v>314.0371704101562</v>
       </c>
       <c r="HQ3" t="n">
-        <v>256.1502685546875</v>
+        <v>315.1296081542969</v>
       </c>
       <c r="HR3" t="n">
-        <v>239.3891143798828</v>
+        <v>314.4644165039062</v>
       </c>
       <c r="HS3" t="n">
-        <v>233.9318695068359</v>
+        <v>312.7509155273438</v>
       </c>
       <c r="HT3" t="n">
-        <v>261.789306640625</v>
+        <v>311.4486083984375</v>
       </c>
       <c r="HU3" t="n">
-        <v>279.4764099121094</v>
+        <v>311.9424438476562</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>312.7353210449219</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>316.3822631835938</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>318.5802612304688</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>319.3198547363281</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>320.9653930664062</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>322.8165588378906</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>323.5420227050781</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>324.2781982421875</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>325.0102233886719</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>324.8923034667969</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>325.1642456054688</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>325.1200866699219</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>323.1382446289062</v>
+      </c>
+      <c r="II3" t="n">
+        <v>324.4952697753906</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>323.1048583984375</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>323.1898803710938</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>323.2366333007812</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>322.8891906738281</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>323.1683959960938</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>321.3790283203125</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>322.0989685058594</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>317.1518859863281</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>312.4844665527344</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>312.3529663085938</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>311.8789978027344</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>310.8742980957031</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>309.1856079101562</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>308.2682189941406</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>306.8822326660156</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>306.2015075683594</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>305.0991516113281</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>303.5456237792969</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>304.2939453125</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>307.467529296875</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>306.9580383300781</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>307.3256530761719</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>306.45458984375</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>308.8792419433594</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>310.9032592773438</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>308.582763671875</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>310.0756530761719</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>310.0613403320312</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>312.3813781738281</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>308.5134582519531</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>310.2042236328125</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>310.8979187011719</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>311.2787170410156</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>311.1238403320312</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>311.8999328613281</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>312.8438110351562</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>313.3467712402344</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>313.7537536621094</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>314.1313171386719</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>314.546875</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>315.3162231445312</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>315.913818359375</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>315.9541625976562</v>
+      </c>
+      <c r="KA3" t="n">
+        <v>315.7778625488281</v>
+      </c>
+      <c r="KB3" t="n">
+        <v>314.7837219238281</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>310.2760620117188</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>299.8387145996094</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>290.3612670898438</v>
+      </c>
+      <c r="KF3" t="n">
+        <v>276.3154907226562</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>265.5121765136719</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>263.1500854492188</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>263.0142517089844</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>264.1618957519531</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>271.2735290527344</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>280.0792541503906</v>
+      </c>
+      <c r="KM3" t="n">
+        <v>288.3692932128906</v>
+      </c>
+      <c r="KN3" t="n">
+        <v>294.1077575683594</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>300.2370300292969</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>303.9486083984375</v>
+      </c>
+      <c r="KQ3" t="n">
+        <v>311.5322265625</v>
+      </c>
+      <c r="KR3" t="n">
+        <v>314.0859680175781</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>314.0874328613281</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>314.4857482910156</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>314.3206176757812</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>314.3835144042969</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>314.3493957519531</v>
+      </c>
+      <c r="KX3" t="n">
+        <v>313.8021850585938</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>313.9681091308594</v>
+      </c>
+      <c r="KZ3" t="n">
+        <v>314.0894165039062</v>
+      </c>
+      <c r="LA3" t="n">
+        <v>314.7960815429688</v>
+      </c>
+      <c r="LB3" t="n">
+        <v>315.3361206054688</v>
+      </c>
+      <c r="LC3" t="n">
+        <v>315.942626953125</v>
+      </c>
+      <c r="LD3" t="n">
+        <v>316.7078552246094</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>314.7838745117188</v>
+      </c>
+      <c r="LF3" t="n">
+        <v>314.1814575195312</v>
+      </c>
+      <c r="LG3" t="n">
+        <v>315.3937377929688</v>
+      </c>
+      <c r="LH3" t="n">
+        <v>314.1033020019531</v>
+      </c>
+      <c r="LI3" t="n">
+        <v>311.9150695800781</v>
+      </c>
+      <c r="LJ3" t="n">
+        <v>308.7544860839844</v>
+      </c>
+      <c r="LK3" t="n">
+        <v>306.9436950683594</v>
+      </c>
+      <c r="LL3" t="n">
+        <v>305.950927734375</v>
+      </c>
+      <c r="LM3" t="n">
+        <v>304.8941345214844</v>
+      </c>
+      <c r="LN3" t="n">
+        <v>299.2137451171875</v>
+      </c>
+      <c r="LO3" t="n">
+        <v>297.3307495117188</v>
+      </c>
+      <c r="LP3" t="n">
+        <v>294.2982482910156</v>
+      </c>
+      <c r="LQ3" t="n">
+        <v>295.0143432617188</v>
+      </c>
+      <c r="LR3" t="n">
+        <v>299.4959716796875</v>
+      </c>
+      <c r="LS3" t="n">
+        <v>299.9327392578125</v>
+      </c>
+      <c r="LT3" t="n">
+        <v>295.5752563476562</v>
+      </c>
+      <c r="LU3" t="n">
+        <v>290.1446838378906</v>
+      </c>
+      <c r="LV3" t="n">
+        <v>284.206298828125</v>
+      </c>
+      <c r="LW3" t="n">
+        <v>278.7158813476562</v>
+      </c>
+      <c r="LX3" t="n">
+        <v>281.1766967773438</v>
+      </c>
+      <c r="LY3" t="n">
+        <v>273.6406860351562</v>
+      </c>
+      <c r="LZ3" t="n">
+        <v>267.3413696289062</v>
+      </c>
+      <c r="MA3" t="n">
+        <v>273.8978881835938</v>
+      </c>
+      <c r="MB3" t="n">
+        <v>282.3944396972656</v>
+      </c>
+      <c r="MC3" t="n">
+        <v>290.9241943359375</v>
+      </c>
+      <c r="MD3" t="n">
+        <v>286.982421875</v>
+      </c>
+      <c r="ME3" t="n">
+        <v>280.0130310058594</v>
+      </c>
+      <c r="MF3" t="n">
+        <v>280.8670959472656</v>
+      </c>
+      <c r="MG3" t="n">
+        <v>300.0113525390625</v>
+      </c>
+      <c r="MH3" t="n">
+        <v>314.81591796875</v>
+      </c>
+      <c r="MI3" t="n">
+        <v>317.6114196777344</v>
+      </c>
+      <c r="MJ3" t="n">
+        <v>336.459228515625</v>
+      </c>
+      <c r="MK3" t="n">
+        <v>339.1284790039062</v>
+      </c>
+      <c r="ML3" t="n">
+        <v>338.3134155273438</v>
+      </c>
+      <c r="MM3" t="n">
+        <v>379.6156616210938</v>
+      </c>
+      <c r="MN3" t="n">
+        <v>379.48046875</v>
+      </c>
+      <c r="MO3" t="n">
+        <v>390.7955017089844</v>
+      </c>
+      <c r="MP3" t="n">
+        <v>403.9146118164062</v>
+      </c>
+      <c r="MQ3" t="n">
+        <v>424.4465637207031</v>
+      </c>
+      <c r="MR3" t="n">
+        <v>475.5723876953125</v>
+      </c>
+      <c r="MS3" t="n">
+        <v>415.0562133789062</v>
+      </c>
+      <c r="MT3" t="n">
+        <v>516.8109741210938</v>
+      </c>
+      <c r="MU3" t="n">
+        <v>561.5728759765625</v>
+      </c>
+      <c r="MV3" t="n">
+        <v>306.9485778808594</v>
+      </c>
+      <c r="MW3" t="n">
+        <v>379.3585205078125</v>
+      </c>
+      <c r="MX3" t="n">
+        <v>437.6826782226562</v>
+      </c>
+      <c r="MY3" t="n">
+        <v>439.6321716308594</v>
+      </c>
+      <c r="MZ3" t="n">
+        <v>445.7740173339844</v>
+      </c>
+      <c r="NA3" t="n">
+        <v>449.917236328125</v>
+      </c>
+      <c r="NB3" t="n">
+        <v>446.9945983886719</v>
+      </c>
+      <c r="NC3" t="n">
+        <v>440.84423828125</v>
+      </c>
+      <c r="ND3" t="n">
+        <v>436.42529296875</v>
+      </c>
+      <c r="NE3" t="n">
+        <v>433.1005859375</v>
+      </c>
+      <c r="NF3" t="n">
+        <v>434.8519287109375</v>
+      </c>
+      <c r="NG3" t="n">
+        <v>431.09814453125</v>
+      </c>
+      <c r="NH3" t="n">
+        <v>431.5439758300781</v>
+      </c>
+      <c r="NI3" t="n">
+        <v>424.1782836914062</v>
+      </c>
+      <c r="NJ3" t="n">
+        <v>421.8358154296875</v>
+      </c>
+      <c r="NK3" t="n">
+        <v>424.4909973144531</v>
+      </c>
+      <c r="NL3" t="n">
+        <v>348.2270812988281</v>
+      </c>
+      <c r="NM3" t="n">
+        <v>355.62158203125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>954.2735595703125</v>
+        <v>1128.807983398438</v>
       </c>
       <c r="B4" t="n">
-        <v>969.1890258789062</v>
+        <v>1140.637817382812</v>
       </c>
       <c r="C4" t="n">
-        <v>985.8704223632812</v>
+        <v>1154.69970703125</v>
       </c>
       <c r="D4" t="n">
-        <v>1010.965881347656</v>
+        <v>1158.02783203125</v>
       </c>
       <c r="E4" t="n">
-        <v>1021.399963378906</v>
+        <v>1155.580810546875</v>
       </c>
       <c r="F4" t="n">
-        <v>1054.7529296875</v>
+        <v>1151.085327148438</v>
       </c>
       <c r="G4" t="n">
-        <v>1063.512573242188</v>
+        <v>1153.016967773438</v>
       </c>
       <c r="H4" t="n">
-        <v>1099.898315429688</v>
+        <v>1155.133056640625</v>
       </c>
       <c r="I4" t="n">
-        <v>1124.745361328125</v>
+        <v>1155.205078125</v>
       </c>
       <c r="J4" t="n">
-        <v>1164.328369140625</v>
+        <v>1149.07958984375</v>
       </c>
       <c r="K4" t="n">
-        <v>1178.4052734375</v>
+        <v>1127.621459960938</v>
       </c>
       <c r="L4" t="n">
-        <v>1224.52001953125</v>
+        <v>1113.99462890625</v>
       </c>
       <c r="M4" t="n">
-        <v>1236.489868164062</v>
+        <v>1171.882446289062</v>
       </c>
       <c r="N4" t="n">
-        <v>1292.8525390625</v>
+        <v>1182.545043945312</v>
       </c>
       <c r="O4" t="n">
-        <v>1333.629638671875</v>
+        <v>1216.685302734375</v>
       </c>
       <c r="P4" t="n">
-        <v>1367.5087890625</v>
+        <v>1229.715576171875</v>
       </c>
       <c r="Q4" t="n">
-        <v>1407.606201171875</v>
+        <v>1241.720947265625</v>
       </c>
       <c r="R4" t="n">
-        <v>1443.559814453125</v>
+        <v>1245.699829101562</v>
       </c>
       <c r="S4" t="n">
-        <v>1567.939453125</v>
+        <v>1251.306518554688</v>
       </c>
       <c r="T4" t="n">
-        <v>1596.278564453125</v>
+        <v>1261.064453125</v>
       </c>
       <c r="U4" t="n">
-        <v>1639.31787109375</v>
+        <v>1272.323120117188</v>
       </c>
       <c r="V4" t="n">
-        <v>1685.993041992188</v>
+        <v>1274.1259765625</v>
       </c>
       <c r="W4" t="n">
-        <v>1727.038696289062</v>
+        <v>1275.15234375</v>
       </c>
       <c r="X4" t="n">
-        <v>1765.596801757812</v>
+        <v>1278.8330078125</v>
       </c>
       <c r="Y4" t="n">
-        <v>1804.205078125</v>
+        <v>1281.128662109375</v>
       </c>
       <c r="Z4" t="n">
-        <v>1851.668334960938</v>
+        <v>1284.935546875</v>
       </c>
       <c r="AA4" t="n">
-        <v>1889.41552734375</v>
+        <v>1286.544921875</v>
       </c>
       <c r="AB4" t="n">
-        <v>1933.955810546875</v>
+        <v>1296.571166992188</v>
       </c>
       <c r="AC4" t="n">
-        <v>1982.525756835938</v>
+        <v>1312.252685546875</v>
       </c>
       <c r="AD4" t="n">
-        <v>2021.86376953125</v>
+        <v>1333.263427734375</v>
       </c>
       <c r="AE4" t="n">
-        <v>2060.72802734375</v>
+        <v>1361.810913085938</v>
       </c>
       <c r="AF4" t="n">
-        <v>2093.399169921875</v>
+        <v>1385.8740234375</v>
       </c>
       <c r="AG4" t="n">
-        <v>2110.842041015625</v>
+        <v>1399.535034179688</v>
       </c>
       <c r="AH4" t="n">
-        <v>2151.87646484375</v>
+        <v>1428.08447265625</v>
       </c>
       <c r="AI4" t="n">
-        <v>2172.30810546875</v>
+        <v>1453.73974609375</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2190.716796875</v>
+        <v>1467.559448242188</v>
       </c>
       <c r="AK4" t="n">
-        <v>2215.6201171875</v>
+        <v>1472.615966796875</v>
       </c>
       <c r="AL4" t="n">
-        <v>2243.344970703125</v>
+        <v>1478.087646484375</v>
       </c>
       <c r="AM4" t="n">
-        <v>2260.89990234375</v>
+        <v>1476.971069335938</v>
       </c>
       <c r="AN4" t="n">
-        <v>2305.873779296875</v>
+        <v>1476.937744140625</v>
       </c>
       <c r="AO4" t="n">
-        <v>2357.295654296875</v>
+        <v>1477.251098632812</v>
       </c>
       <c r="AP4" t="n">
-        <v>2397.047119140625</v>
+        <v>1477.51708984375</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2424.91748046875</v>
+        <v>1477.390747070312</v>
       </c>
       <c r="AR4" t="n">
-        <v>2457.823974609375</v>
+        <v>1477.056518554688</v>
       </c>
       <c r="AS4" t="n">
-        <v>2488.909912109375</v>
+        <v>1475.964599609375</v>
       </c>
       <c r="AT4" t="n">
-        <v>2517.02783203125</v>
+        <v>1470.075073242188</v>
       </c>
       <c r="AU4" t="n">
-        <v>2544.7802734375</v>
+        <v>1451.930908203125</v>
       </c>
       <c r="AV4" t="n">
-        <v>2620.18115234375</v>
+        <v>1420.275146484375</v>
       </c>
       <c r="AW4" t="n">
-        <v>2654.150634765625</v>
+        <v>1396.666015625</v>
       </c>
       <c r="AX4" t="n">
-        <v>2705.653076171875</v>
+        <v>1386.310913085938</v>
       </c>
       <c r="AY4" t="n">
-        <v>2723.0380859375</v>
+        <v>1363.02099609375</v>
       </c>
       <c r="AZ4" t="n">
-        <v>2781.565185546875</v>
+        <v>1344.675537109375</v>
       </c>
       <c r="BA4" t="n">
-        <v>2847.009765625</v>
+        <v>1323.4453125</v>
       </c>
       <c r="BB4" t="n">
-        <v>2866.25830078125</v>
+        <v>1311.281005859375</v>
       </c>
       <c r="BC4" t="n">
-        <v>2914.07470703125</v>
+        <v>1292.61572265625</v>
       </c>
       <c r="BD4" t="n">
-        <v>2934.158203125</v>
+        <v>1280.707763671875</v>
       </c>
       <c r="BE4" t="n">
-        <v>2993.50732421875</v>
+        <v>1268.109130859375</v>
       </c>
       <c r="BF4" t="n">
-        <v>3025.390625</v>
+        <v>1263.27587890625</v>
       </c>
       <c r="BG4" t="n">
-        <v>3054.119384765625</v>
+        <v>1252.048461914062</v>
       </c>
       <c r="BH4" t="n">
-        <v>3065.133544921875</v>
+        <v>1240.333129882812</v>
       </c>
       <c r="BI4" t="n">
-        <v>3116.908935546875</v>
+        <v>1234.47314453125</v>
       </c>
       <c r="BJ4" t="n">
-        <v>3150.736572265625</v>
+        <v>1231.572998046875</v>
       </c>
       <c r="BK4" t="n">
-        <v>3157.173828125</v>
+        <v>1229.0859375</v>
       </c>
       <c r="BL4" t="n">
-        <v>3170.868896484375</v>
+        <v>1231.4716796875</v>
       </c>
       <c r="BM4" t="n">
-        <v>3230.552490234375</v>
+        <v>1235.129516601562</v>
       </c>
       <c r="BN4" t="n">
-        <v>3264.175048828125</v>
+        <v>1232.532958984375</v>
       </c>
       <c r="BO4" t="n">
-        <v>3289.005859375</v>
+        <v>1225.724975585938</v>
       </c>
       <c r="BP4" t="n">
-        <v>3300.056640625</v>
+        <v>1223.023315429688</v>
       </c>
       <c r="BQ4" t="n">
-        <v>3298.47119140625</v>
+        <v>1223.076782226562</v>
       </c>
       <c r="BR4" t="n">
-        <v>3321.653076171875</v>
+        <v>1223.340942382812</v>
       </c>
       <c r="BS4" t="n">
-        <v>3333.314208984375</v>
+        <v>1223.360717773438</v>
       </c>
       <c r="BT4" t="n">
-        <v>3341.041259765625</v>
+        <v>1223.062377929688</v>
       </c>
       <c r="BU4" t="n">
-        <v>3349.785888671875</v>
+        <v>1222.228515625</v>
       </c>
       <c r="BV4" t="n">
-        <v>3385.504638671875</v>
+        <v>1222.3369140625</v>
       </c>
       <c r="BW4" t="n">
-        <v>3376.66162109375</v>
+        <v>1223.940795898438</v>
       </c>
       <c r="BX4" t="n">
-        <v>3404.00048828125</v>
+        <v>1225.009521484375</v>
       </c>
       <c r="BY4" t="n">
-        <v>3381.195068359375</v>
+        <v>1226.786987304688</v>
       </c>
       <c r="BZ4" t="n">
-        <v>3410.15673828125</v>
+        <v>1228.084838867188</v>
       </c>
       <c r="CA4" t="n">
-        <v>3434.43505859375</v>
+        <v>1228.089965820312</v>
       </c>
       <c r="CB4" t="n">
-        <v>3514.141357421875</v>
+        <v>1226.845336914062</v>
       </c>
       <c r="CC4" t="n">
-        <v>3553.78271484375</v>
+        <v>1223.871337890625</v>
       </c>
       <c r="CD4" t="n">
-        <v>3510.548828125</v>
+        <v>1217.2138671875</v>
       </c>
       <c r="CE4" t="n">
-        <v>3602.009765625</v>
+        <v>1199.329711914062</v>
       </c>
       <c r="CF4" t="n">
-        <v>3589.380615234375</v>
+        <v>1195.852172851562</v>
       </c>
       <c r="CG4" t="n">
-        <v>3619.109619140625</v>
+        <v>1193.546508789062</v>
       </c>
       <c r="CH4" t="n">
-        <v>3602.368896484375</v>
+        <v>1193.424682617188</v>
       </c>
       <c r="CI4" t="n">
-        <v>3703.91259765625</v>
+        <v>1193.256469726562</v>
       </c>
       <c r="CJ4" t="n">
-        <v>3548.529296875</v>
+        <v>1192.600830078125</v>
       </c>
       <c r="CK4" t="n">
-        <v>3569.911376953125</v>
+        <v>1191.958251953125</v>
       </c>
       <c r="CL4" t="n">
-        <v>3709.487060546875</v>
+        <v>1190.01611328125</v>
       </c>
       <c r="CM4" t="n">
-        <v>3753.681396484375</v>
+        <v>1185.289794921875</v>
       </c>
       <c r="CN4" t="n">
-        <v>3639.2255859375</v>
+        <v>1157.94091796875</v>
       </c>
       <c r="CO4" t="n">
-        <v>3637.701904296875</v>
+        <v>1151.879638671875</v>
       </c>
       <c r="CP4" t="n">
-        <v>3640.732177734375</v>
+        <v>1145.842895507812</v>
       </c>
       <c r="CQ4" t="n">
-        <v>3671.3310546875</v>
+        <v>1140.734008789062</v>
       </c>
       <c r="CR4" t="n">
-        <v>3675.56201171875</v>
+        <v>1137.843383789062</v>
       </c>
       <c r="CS4" t="n">
-        <v>3682.769287109375</v>
+        <v>1130.244995117188</v>
       </c>
       <c r="CT4" t="n">
-        <v>3713.80908203125</v>
+        <v>1129.781860351562</v>
       </c>
       <c r="CU4" t="n">
-        <v>3759.731689453125</v>
+        <v>1134.915771484375</v>
       </c>
       <c r="CV4" t="n">
-        <v>3795.861328125</v>
+        <v>1141.481811523438</v>
       </c>
       <c r="CW4" t="n">
-        <v>3767.96630859375</v>
+        <v>1151.739013671875</v>
       </c>
       <c r="CX4" t="n">
-        <v>3788.073974609375</v>
+        <v>1181.671875</v>
       </c>
       <c r="CY4" t="n">
-        <v>3807.329345703125</v>
+        <v>1188.458862304688</v>
       </c>
       <c r="CZ4" t="n">
-        <v>3719.103759765625</v>
+        <v>1221.31640625</v>
       </c>
       <c r="DA4" t="n">
-        <v>3690.65478515625</v>
+        <v>1230.522338867188</v>
       </c>
       <c r="DB4" t="n">
-        <v>3680.5185546875</v>
+        <v>1239.153442382812</v>
       </c>
       <c r="DC4" t="n">
-        <v>3723.16552734375</v>
+        <v>1243.53515625</v>
       </c>
       <c r="DD4" t="n">
-        <v>3757.925537109375</v>
+        <v>1247.332763671875</v>
       </c>
       <c r="DE4" t="n">
-        <v>3744.18603515625</v>
+        <v>1256.68212890625</v>
       </c>
       <c r="DF4" t="n">
-        <v>3586.942626953125</v>
+        <v>1256.693725585938</v>
       </c>
       <c r="DG4" t="n">
-        <v>3593.0361328125</v>
+        <v>1257.11181640625</v>
       </c>
       <c r="DH4" t="n">
-        <v>3604.568115234375</v>
+        <v>1256.66455078125</v>
       </c>
       <c r="DI4" t="n">
-        <v>3615.795654296875</v>
+        <v>1255.655395507812</v>
       </c>
       <c r="DJ4" t="n">
-        <v>3738.09912109375</v>
+        <v>1251.824829101562</v>
       </c>
       <c r="DK4" t="n">
-        <v>3593.857666015625</v>
+        <v>1246.3427734375</v>
       </c>
       <c r="DL4" t="n">
-        <v>3666.29638671875</v>
+        <v>1244.947631835938</v>
       </c>
       <c r="DM4" t="n">
-        <v>3656.252685546875</v>
+        <v>1245.348510742188</v>
       </c>
       <c r="DN4" t="n">
-        <v>3569.9921875</v>
+        <v>1245.789794921875</v>
       </c>
       <c r="DO4" t="n">
-        <v>3766.504150390625</v>
+        <v>1245.77392578125</v>
       </c>
       <c r="DP4" t="n">
-        <v>3522.669677734375</v>
+        <v>1245.787963867188</v>
       </c>
       <c r="DQ4" t="n">
-        <v>3580.9765625</v>
+        <v>1245.792236328125</v>
       </c>
       <c r="DR4" t="n">
-        <v>3650.48681640625</v>
+        <v>1245.729736328125</v>
       </c>
       <c r="DS4" t="n">
-        <v>3652.22314453125</v>
+        <v>1245.63623046875</v>
       </c>
       <c r="DT4" t="n">
-        <v>3575.105224609375</v>
+        <v>1245.277099609375</v>
       </c>
       <c r="DU4" t="n">
-        <v>3611.77587890625</v>
+        <v>1244.660400390625</v>
       </c>
       <c r="DV4" t="n">
-        <v>3473.64404296875</v>
+        <v>1244.398193359375</v>
       </c>
       <c r="DW4" t="n">
-        <v>3612.3642578125</v>
+        <v>1243.398071289062</v>
       </c>
       <c r="DX4" t="n">
-        <v>3591.871337890625</v>
+        <v>1242.624389648438</v>
       </c>
       <c r="DY4" t="n">
-        <v>3567.74609375</v>
+        <v>1241.520629882812</v>
       </c>
       <c r="DZ4" t="n">
-        <v>3582.298828125</v>
+        <v>1240.124877929688</v>
       </c>
       <c r="EA4" t="n">
-        <v>3578.726318359375</v>
+        <v>1242.754272460938</v>
       </c>
       <c r="EB4" t="n">
-        <v>3583.63623046875</v>
+        <v>1248.2392578125</v>
       </c>
       <c r="EC4" t="n">
-        <v>3612.195556640625</v>
+        <v>1252.011596679688</v>
       </c>
       <c r="ED4" t="n">
-        <v>3556.580078125</v>
+        <v>1261.992431640625</v>
       </c>
       <c r="EE4" t="n">
-        <v>3577.3564453125</v>
+        <v>1292.28857421875</v>
       </c>
       <c r="EF4" t="n">
-        <v>3531.02490234375</v>
+        <v>1293.858032226562</v>
       </c>
       <c r="EG4" t="n">
-        <v>3501.8017578125</v>
+        <v>1313.965087890625</v>
       </c>
       <c r="EH4" t="n">
-        <v>3486.0439453125</v>
+        <v>1327.340454101562</v>
       </c>
       <c r="EI4" t="n">
-        <v>3478.343505859375</v>
+        <v>1353.049194335938</v>
       </c>
       <c r="EJ4" t="n">
-        <v>3373.8291015625</v>
+        <v>1362.329345703125</v>
       </c>
       <c r="EK4" t="n">
-        <v>3432.47509765625</v>
+        <v>1376.608642578125</v>
       </c>
       <c r="EL4" t="n">
-        <v>3481.835693359375</v>
+        <v>1388.722045898438</v>
       </c>
       <c r="EM4" t="n">
-        <v>3494.1171875</v>
+        <v>1405.452758789062</v>
       </c>
       <c r="EN4" t="n">
-        <v>3442.78759765625</v>
+        <v>1411.309936523438</v>
       </c>
       <c r="EO4" t="n">
-        <v>3357.807861328125</v>
+        <v>1443.933959960938</v>
       </c>
       <c r="EP4" t="n">
-        <v>3340.8857421875</v>
+        <v>1461.4404296875</v>
       </c>
       <c r="EQ4" t="n">
-        <v>3399.97265625</v>
+        <v>1508.76025390625</v>
       </c>
       <c r="ER4" t="n">
-        <v>3414.7802734375</v>
+        <v>1536.328979492188</v>
       </c>
       <c r="ES4" t="n">
-        <v>3403.2861328125</v>
+        <v>1579.865478515625</v>
       </c>
       <c r="ET4" t="n">
-        <v>3365.92236328125</v>
+        <v>1606.032470703125</v>
       </c>
       <c r="EU4" t="n">
-        <v>3385.7265625</v>
+        <v>1618.625610351562</v>
       </c>
       <c r="EV4" t="n">
-        <v>3443.7080078125</v>
+        <v>1662.267700195312</v>
       </c>
       <c r="EW4" t="n">
-        <v>3477.13671875</v>
+        <v>1722.775146484375</v>
       </c>
       <c r="EX4" t="n">
-        <v>3446.053955078125</v>
+        <v>1770.751586914062</v>
       </c>
       <c r="EY4" t="n">
-        <v>3427.4638671875</v>
+        <v>1797.697631835938</v>
       </c>
       <c r="EZ4" t="n">
-        <v>3289.648681640625</v>
+        <v>1819.26171875</v>
       </c>
       <c r="FA4" t="n">
-        <v>3238.83447265625</v>
+        <v>1850.620727539062</v>
       </c>
       <c r="FB4" t="n">
-        <v>3301.96533203125</v>
+        <v>1862.600219726562</v>
       </c>
       <c r="FC4" t="n">
-        <v>3368.02294921875</v>
+        <v>1879.200927734375</v>
       </c>
       <c r="FD4" t="n">
-        <v>3326.041748046875</v>
+        <v>1897.434692382812</v>
       </c>
       <c r="FE4" t="n">
-        <v>3310.93310546875</v>
+        <v>1907.581420898438</v>
       </c>
       <c r="FF4" t="n">
-        <v>3515.224609375</v>
+        <v>1938.7109375</v>
       </c>
       <c r="FG4" t="n">
-        <v>3530.48095703125</v>
+        <v>1977.539794921875</v>
       </c>
       <c r="FH4" t="n">
-        <v>3475.696044921875</v>
+        <v>1991.938842773438</v>
       </c>
       <c r="FI4" t="n">
-        <v>3406.478271484375</v>
+        <v>2016.60888671875</v>
       </c>
       <c r="FJ4" t="n">
-        <v>3434.005615234375</v>
+        <v>2026.06884765625</v>
       </c>
       <c r="FK4" t="n">
-        <v>3489.150634765625</v>
+        <v>2055.025634765625</v>
       </c>
       <c r="FL4" t="n">
-        <v>3532.8662109375</v>
+        <v>2078.946533203125</v>
       </c>
       <c r="FM4" t="n">
-        <v>3410.04638671875</v>
+        <v>2158.125244140625</v>
       </c>
       <c r="FN4" t="n">
-        <v>3293.810546875</v>
+        <v>2178.450927734375</v>
       </c>
       <c r="FO4" t="n">
-        <v>3277.64404296875</v>
+        <v>2173.9755859375</v>
       </c>
       <c r="FP4" t="n">
-        <v>3472.98974609375</v>
+        <v>2209.203369140625</v>
       </c>
       <c r="FQ4" t="n">
-        <v>3499.74072265625</v>
+        <v>2230.11767578125</v>
       </c>
       <c r="FR4" t="n">
-        <v>3422.205810546875</v>
+        <v>2256.530517578125</v>
       </c>
       <c r="FS4" t="n">
-        <v>3328.0712890625</v>
+        <v>2251.12109375</v>
       </c>
       <c r="FT4" t="n">
-        <v>3473.6748046875</v>
+        <v>2259.448974609375</v>
       </c>
       <c r="FU4" t="n">
-        <v>3531.77294921875</v>
+        <v>2260.400634765625</v>
       </c>
       <c r="FV4" t="n">
-        <v>3497.101318359375</v>
+        <v>2277.78955078125</v>
       </c>
       <c r="FW4" t="n">
-        <v>3493.65380859375</v>
+        <v>2279.447998046875</v>
       </c>
       <c r="FX4" t="n">
-        <v>3465.07421875</v>
+        <v>2276.485595703125</v>
       </c>
       <c r="FY4" t="n">
-        <v>3446.2373046875</v>
+        <v>2274.6572265625</v>
       </c>
       <c r="FZ4" t="n">
-        <v>3428.6171875</v>
+        <v>2280.867919921875</v>
       </c>
       <c r="GA4" t="n">
-        <v>3381.614501953125</v>
+        <v>2298.500244140625</v>
       </c>
       <c r="GB4" t="n">
-        <v>3328.41845703125</v>
+        <v>2280.620361328125</v>
       </c>
       <c r="GC4" t="n">
-        <v>3293.30615234375</v>
+        <v>2286.432861328125</v>
       </c>
       <c r="GD4" t="n">
-        <v>3318.52880859375</v>
+        <v>2278.765380859375</v>
       </c>
       <c r="GE4" t="n">
-        <v>3232.94091796875</v>
+        <v>2283.19677734375</v>
       </c>
       <c r="GF4" t="n">
-        <v>3249.063232421875</v>
+        <v>2288.05126953125</v>
       </c>
       <c r="GG4" t="n">
-        <v>3243.951171875</v>
+        <v>2283.27001953125</v>
       </c>
       <c r="GH4" t="n">
-        <v>3209.94677734375</v>
+        <v>2312.650390625</v>
       </c>
       <c r="GI4" t="n">
-        <v>3058.2666015625</v>
+        <v>2334.61474609375</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2996.934326171875</v>
+        <v>2313.24658203125</v>
       </c>
       <c r="GK4" t="n">
-        <v>2925.94677734375</v>
+        <v>2329.30859375</v>
       </c>
       <c r="GL4" t="n">
-        <v>2820.738525390625</v>
+        <v>2341.14892578125</v>
       </c>
       <c r="GM4" t="n">
-        <v>2780.031982421875</v>
+        <v>2344.66552734375</v>
       </c>
       <c r="GN4" t="n">
-        <v>2807.5693359375</v>
+        <v>2343.09375</v>
       </c>
       <c r="GO4" t="n">
-        <v>2727.76171875</v>
+        <v>2339.95458984375</v>
       </c>
       <c r="GP4" t="n">
-        <v>2689.010009765625</v>
+        <v>2336.49658203125</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2664.56201171875</v>
+        <v>2339.613037109375</v>
       </c>
       <c r="GR4" t="n">
-        <v>2624.96630859375</v>
+        <v>2340.221923828125</v>
       </c>
       <c r="GS4" t="n">
-        <v>2520.010986328125</v>
+        <v>2342.048583984375</v>
       </c>
       <c r="GT4" t="n">
-        <v>2500.46875</v>
+        <v>2343.1240234375</v>
       </c>
       <c r="GU4" t="n">
-        <v>2449.44091796875</v>
+        <v>2366.7626953125</v>
       </c>
       <c r="GV4" t="n">
-        <v>2415.521484375</v>
+        <v>2345.612060546875</v>
       </c>
       <c r="GW4" t="n">
-        <v>2348.285888671875</v>
+        <v>2341.705322265625</v>
       </c>
       <c r="GX4" t="n">
-        <v>2251.681640625</v>
+        <v>2353.56640625</v>
       </c>
       <c r="GY4" t="n">
-        <v>2225.34033203125</v>
+        <v>2337.051513671875</v>
       </c>
       <c r="GZ4" t="n">
-        <v>2160.4697265625</v>
+        <v>2338.89306640625</v>
       </c>
       <c r="HA4" t="n">
-        <v>2073.78955078125</v>
+        <v>2340.814697265625</v>
       </c>
       <c r="HB4" t="n">
-        <v>2014.1962890625</v>
+        <v>2342.62841796875</v>
       </c>
       <c r="HC4" t="n">
-        <v>1956.04296875</v>
+        <v>2370.420654296875</v>
       </c>
       <c r="HD4" t="n">
-        <v>1851.905029296875</v>
+        <v>2392.1455078125</v>
       </c>
       <c r="HE4" t="n">
-        <v>1820.33740234375</v>
+        <v>2390.41455078125</v>
       </c>
       <c r="HF4" t="n">
-        <v>1670.880859375</v>
+        <v>2410.0439453125</v>
       </c>
       <c r="HG4" t="n">
-        <v>1594.388671875</v>
+        <v>2403.80712890625</v>
       </c>
       <c r="HH4" t="n">
-        <v>1515.249633789062</v>
+        <v>2513.7138671875</v>
       </c>
       <c r="HI4" t="n">
-        <v>1472.736206054688</v>
+        <v>2381.4248046875</v>
       </c>
       <c r="HJ4" t="n">
-        <v>1411.056030273438</v>
+        <v>2358.708251953125</v>
       </c>
       <c r="HK4" t="n">
-        <v>1340.176879882812</v>
+        <v>2327.4794921875</v>
       </c>
       <c r="HL4" t="n">
-        <v>1270.875366210938</v>
+        <v>2304.6298828125</v>
       </c>
       <c r="HM4" t="n">
-        <v>1204.068969726562</v>
+        <v>2280.158935546875</v>
       </c>
       <c r="HN4" t="n">
-        <v>1089.400268554688</v>
+        <v>2214.189453125</v>
       </c>
       <c r="HO4" t="n">
-        <v>1012.334838867188</v>
+        <v>2214.162353515625</v>
       </c>
       <c r="HP4" t="n">
-        <v>935.1838989257812</v>
+        <v>2206.03759765625</v>
       </c>
       <c r="HQ4" t="n">
-        <v>832.339111328125</v>
+        <v>2181.43359375</v>
       </c>
       <c r="HR4" t="n">
-        <v>736.5048828125</v>
+        <v>2172.216552734375</v>
       </c>
       <c r="HS4" t="n">
-        <v>670.5840454101562</v>
+        <v>2172.583984375</v>
       </c>
       <c r="HT4" t="n">
-        <v>658.5958251953125</v>
+        <v>2164.603271484375</v>
       </c>
       <c r="HU4" t="n">
-        <v>633.94677734375</v>
+        <v>2152.81591796875</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>2170.4697265625</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>2182.50390625</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>2194.762939453125</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>2202.21826171875</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>2197.04736328125</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>2213.436767578125</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>2213.2529296875</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>2211.82958984375</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>2209.794189453125</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>2207.7109375</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>2207.42919921875</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>2207.74658203125</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>2209.972900390625</v>
+      </c>
+      <c r="II4" t="n">
+        <v>2209.323974609375</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>2210.486328125</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>2218.22119140625</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>2239.471923828125</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>2240.366455078125</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>2242.580322265625</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>2281.17431640625</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>2272.65869140625</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>2276.521484375</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>2285.457763671875</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>2281.09814453125</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>2273.506103515625</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>2242.2421875</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>2231.621826171875</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>2229.15576171875</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>2227.3876953125</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>2234.37939453125</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>2238.228759765625</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>2227.579345703125</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>2226.172607421875</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>2213.4384765625</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>2206.3203125</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>2208.8154296875</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>2209.801513671875</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>2189.070068359375</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>2172.893798828125</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>2190.01611328125</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>2181.177734375</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>2176.11181640625</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>2185.72412109375</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>2166.10302734375</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>2162.51220703125</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>2164.41552734375</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>2165.028076171875</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>2160.6083984375</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>2151.35791015625</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>2153.1884765625</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>2154.552001953125</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>2151.91162109375</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>2148.698974609375</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>2139.357666015625</v>
+      </c>
+      <c r="JX4" t="n">
+        <v>2133.554931640625</v>
+      </c>
+      <c r="JY4" t="n">
+        <v>2130.670166015625</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>2125.302001953125</v>
+      </c>
+      <c r="KA4" t="n">
+        <v>2122.7216796875</v>
+      </c>
+      <c r="KB4" t="n">
+        <v>2123.54638671875</v>
+      </c>
+      <c r="KC4" t="n">
+        <v>2123.912353515625</v>
+      </c>
+      <c r="KD4" t="n">
+        <v>2103.733642578125</v>
+      </c>
+      <c r="KE4" t="n">
+        <v>2079.1962890625</v>
+      </c>
+      <c r="KF4" t="n">
+        <v>2073.818115234375</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>2106.1845703125</v>
+      </c>
+      <c r="KH4" t="n">
+        <v>2094.451171875</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>2097.746337890625</v>
+      </c>
+      <c r="KJ4" t="n">
+        <v>2098.215576171875</v>
+      </c>
+      <c r="KK4" t="n">
+        <v>2096.091552734375</v>
+      </c>
+      <c r="KL4" t="n">
+        <v>2090.21826171875</v>
+      </c>
+      <c r="KM4" t="n">
+        <v>2088.15380859375</v>
+      </c>
+      <c r="KN4" t="n">
+        <v>2090.87451171875</v>
+      </c>
+      <c r="KO4" t="n">
+        <v>2106.108154296875</v>
+      </c>
+      <c r="KP4" t="n">
+        <v>2128.460205078125</v>
+      </c>
+      <c r="KQ4" t="n">
+        <v>2137.171630859375</v>
+      </c>
+      <c r="KR4" t="n">
+        <v>2168.73681640625</v>
+      </c>
+      <c r="KS4" t="n">
+        <v>2196.39306640625</v>
+      </c>
+      <c r="KT4" t="n">
+        <v>2190.17041015625</v>
+      </c>
+      <c r="KU4" t="n">
+        <v>2194.4482421875</v>
+      </c>
+      <c r="KV4" t="n">
+        <v>2196.85595703125</v>
+      </c>
+      <c r="KW4" t="n">
+        <v>2194.395751953125</v>
+      </c>
+      <c r="KX4" t="n">
+        <v>2189.632568359375</v>
+      </c>
+      <c r="KY4" t="n">
+        <v>2172.109130859375</v>
+      </c>
+      <c r="KZ4" t="n">
+        <v>2161.90576171875</v>
+      </c>
+      <c r="LA4" t="n">
+        <v>2161.365478515625</v>
+      </c>
+      <c r="LB4" t="n">
+        <v>2167.420654296875</v>
+      </c>
+      <c r="LC4" t="n">
+        <v>2165.510009765625</v>
+      </c>
+      <c r="LD4" t="n">
+        <v>2165.14404296875</v>
+      </c>
+      <c r="LE4" t="n">
+        <v>2162.534423828125</v>
+      </c>
+      <c r="LF4" t="n">
+        <v>2120.4482421875</v>
+      </c>
+      <c r="LG4" t="n">
+        <v>2078.625732421875</v>
+      </c>
+      <c r="LH4" t="n">
+        <v>2037.645874023438</v>
+      </c>
+      <c r="LI4" t="n">
+        <v>1970.448852539062</v>
+      </c>
+      <c r="LJ4" t="n">
+        <v>1847.315673828125</v>
+      </c>
+      <c r="LK4" t="n">
+        <v>1766.687866210938</v>
+      </c>
+      <c r="LL4" t="n">
+        <v>1694.753540039062</v>
+      </c>
+      <c r="LM4" t="n">
+        <v>1625.447021484375</v>
+      </c>
+      <c r="LN4" t="n">
+        <v>1518.8642578125</v>
+      </c>
+      <c r="LO4" t="n">
+        <v>1455.970825195312</v>
+      </c>
+      <c r="LP4" t="n">
+        <v>1343.674438476562</v>
+      </c>
+      <c r="LQ4" t="n">
+        <v>1232.377807617188</v>
+      </c>
+      <c r="LR4" t="n">
+        <v>1144.838256835938</v>
+      </c>
+      <c r="LS4" t="n">
+        <v>1055.669189453125</v>
+      </c>
+      <c r="LT4" t="n">
+        <v>913.8819580078125</v>
+      </c>
+      <c r="LU4" t="n">
+        <v>841.5460815429688</v>
+      </c>
+      <c r="LV4" t="n">
+        <v>797.5917358398438</v>
+      </c>
+      <c r="LW4" t="n">
+        <v>786.9114990234375</v>
+      </c>
+      <c r="LX4" t="n">
+        <v>711.3959350585938</v>
+      </c>
+      <c r="LY4" t="n">
+        <v>659.388916015625</v>
+      </c>
+      <c r="LZ4" t="n">
+        <v>648.04736328125</v>
+      </c>
+      <c r="MA4" t="n">
+        <v>684.8704833984375</v>
+      </c>
+      <c r="MB4" t="n">
+        <v>715.6014404296875</v>
+      </c>
+      <c r="MC4" t="n">
+        <v>743.494140625</v>
+      </c>
+      <c r="MD4" t="n">
+        <v>766.1006469726562</v>
+      </c>
+      <c r="ME4" t="n">
+        <v>768.201904296875</v>
+      </c>
+      <c r="MF4" t="n">
+        <v>771.5360107421875</v>
+      </c>
+      <c r="MG4" t="n">
+        <v>776.6299438476562</v>
+      </c>
+      <c r="MH4" t="n">
+        <v>785.7818603515625</v>
+      </c>
+      <c r="MI4" t="n">
+        <v>792.38037109375</v>
+      </c>
+      <c r="MJ4" t="n">
+        <v>803.5137329101562</v>
+      </c>
+      <c r="MK4" t="n">
+        <v>810.204833984375</v>
+      </c>
+      <c r="ML4" t="n">
+        <v>822.3618774414062</v>
+      </c>
+      <c r="MM4" t="n">
+        <v>854.5390014648438</v>
+      </c>
+      <c r="MN4" t="n">
+        <v>902.0344848632812</v>
+      </c>
+      <c r="MO4" t="n">
+        <v>921.8307495117188</v>
+      </c>
+      <c r="MP4" t="n">
+        <v>921.4609375</v>
+      </c>
+      <c r="MQ4" t="n">
+        <v>893.8524169921875</v>
+      </c>
+      <c r="MR4" t="n">
+        <v>726.38427734375</v>
+      </c>
+      <c r="MS4" t="n">
+        <v>571.1869506835938</v>
+      </c>
+      <c r="MT4" t="n">
+        <v>586.6493530273438</v>
+      </c>
+      <c r="MU4" t="n">
+        <v>448.9462890625</v>
+      </c>
+      <c r="MV4" t="n">
+        <v>1044.955078125</v>
+      </c>
+      <c r="MW4" t="n">
+        <v>599.2828979492188</v>
+      </c>
+      <c r="MX4" t="n">
+        <v>464.9249267578125</v>
+      </c>
+      <c r="MY4" t="n">
+        <v>461.1354370117188</v>
+      </c>
+      <c r="MZ4" t="n">
+        <v>458.569580078125</v>
+      </c>
+      <c r="NA4" t="n">
+        <v>458.8240356445312</v>
+      </c>
+      <c r="NB4" t="n">
+        <v>462.8529052734375</v>
+      </c>
+      <c r="NC4" t="n">
+        <v>466.5319213867188</v>
+      </c>
+      <c r="ND4" t="n">
+        <v>464.1936645507812</v>
+      </c>
+      <c r="NE4" t="n">
+        <v>459.5529174804688</v>
+      </c>
+      <c r="NF4" t="n">
+        <v>457.1287841796875</v>
+      </c>
+      <c r="NG4" t="n">
+        <v>461.659912109375</v>
+      </c>
+      <c r="NH4" t="n">
+        <v>470.5675659179688</v>
+      </c>
+      <c r="NI4" t="n">
+        <v>485.0287170410156</v>
+      </c>
+      <c r="NJ4" t="n">
+        <v>491.4935607910156</v>
+      </c>
+      <c r="NK4" t="n">
+        <v>492.99072265625</v>
+      </c>
+      <c r="NL4" t="n">
+        <v>480.5936889648438</v>
+      </c>
+      <c r="NM4" t="n">
+        <v>472.5816955566406</v>
       </c>
     </row>
   </sheetData>

--- a/left_elbow_Data_Variable.xlsx
+++ b/left_elbow_Data_Variable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:NM4"/>
+  <dimension ref="A1:IX4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1208,3761 +1208,2333 @@
       <c r="IX1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ME1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ML1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ND1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NM1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>411.87890625</v>
+        <v>350.1669616699219</v>
       </c>
       <c r="B2" t="n">
-        <v>416.9285278320312</v>
+        <v>361.3308410644531</v>
       </c>
       <c r="C2" t="n">
-        <v>426.2093811035156</v>
+        <v>368.1513977050781</v>
       </c>
       <c r="D2" t="n">
-        <v>435.7850341796875</v>
+        <v>369.6753540039062</v>
       </c>
       <c r="E2" t="n">
-        <v>444.7848815917969</v>
+        <v>369.5160522460938</v>
       </c>
       <c r="F2" t="n">
-        <v>458.8458251953125</v>
+        <v>369.8468627929688</v>
       </c>
       <c r="G2" t="n">
-        <v>473.796630859375</v>
+        <v>371.6360168457031</v>
       </c>
       <c r="H2" t="n">
-        <v>484.4341735839844</v>
+        <v>375.8678588867188</v>
       </c>
       <c r="I2" t="n">
-        <v>494.2593383789062</v>
+        <v>385.3254699707031</v>
       </c>
       <c r="J2" t="n">
-        <v>504.49951171875</v>
+        <v>392.7401733398438</v>
       </c>
       <c r="K2" t="n">
-        <v>517.46484375</v>
+        <v>399.1241760253906</v>
       </c>
       <c r="L2" t="n">
-        <v>527.5499267578125</v>
+        <v>403.4457397460938</v>
       </c>
       <c r="M2" t="n">
-        <v>555.5518188476562</v>
+        <v>405.0593872070312</v>
       </c>
       <c r="N2" t="n">
-        <v>554.1918334960938</v>
+        <v>410.3232421875</v>
       </c>
       <c r="O2" t="n">
-        <v>543.3361206054688</v>
+        <v>425.3421630859375</v>
       </c>
       <c r="P2" t="n">
-        <v>538.9967041015625</v>
+        <v>423.8093566894531</v>
       </c>
       <c r="Q2" t="n">
-        <v>535.6837768554688</v>
+        <v>422.3279418945312</v>
       </c>
       <c r="R2" t="n">
-        <v>533.0614624023438</v>
+        <v>421.527587890625</v>
       </c>
       <c r="S2" t="n">
-        <v>532.2052612304688</v>
+        <v>420.7608642578125</v>
       </c>
       <c r="T2" t="n">
-        <v>529.8272705078125</v>
+        <v>419.6094360351562</v>
       </c>
       <c r="U2" t="n">
-        <v>523.297119140625</v>
+        <v>417.9002075195312</v>
       </c>
       <c r="V2" t="n">
-        <v>514.3935546875</v>
+        <v>415.9256591796875</v>
       </c>
       <c r="W2" t="n">
-        <v>503.1445007324219</v>
+        <v>413.4093627929688</v>
       </c>
       <c r="X2" t="n">
-        <v>499.549560546875</v>
+        <v>411.1944885253906</v>
       </c>
       <c r="Y2" t="n">
-        <v>497.0831604003906</v>
+        <v>408.4168090820312</v>
       </c>
       <c r="Z2" t="n">
-        <v>491.9068908691406</v>
+        <v>404.5906982421875</v>
       </c>
       <c r="AA2" t="n">
-        <v>479.8855285644531</v>
+        <v>401.1702880859375</v>
       </c>
       <c r="AB2" t="n">
-        <v>470.4515075683594</v>
+        <v>398.3776245117188</v>
       </c>
       <c r="AC2" t="n">
-        <v>463.0080871582031</v>
+        <v>397.64208984375</v>
       </c>
       <c r="AD2" t="n">
-        <v>463.2094116210938</v>
+        <v>397.2512512207031</v>
       </c>
       <c r="AE2" t="n">
-        <v>461.435546875</v>
+        <v>396.3963012695312</v>
       </c>
       <c r="AF2" t="n">
-        <v>458.4378051757812</v>
+        <v>394.6767883300781</v>
       </c>
       <c r="AG2" t="n">
-        <v>456.5995788574219</v>
+        <v>393.2306518554688</v>
       </c>
       <c r="AH2" t="n">
-        <v>454.39990234375</v>
+        <v>391.3367309570312</v>
       </c>
       <c r="AI2" t="n">
-        <v>453.2673950195312</v>
+        <v>389.931884765625</v>
       </c>
       <c r="AJ2" t="n">
-        <v>451.5002136230469</v>
+        <v>389.3090515136719</v>
       </c>
       <c r="AK2" t="n">
-        <v>449.832763671875</v>
+        <v>388.3865966796875</v>
       </c>
       <c r="AL2" t="n">
-        <v>448.7587280273438</v>
+        <v>388.4610290527344</v>
       </c>
       <c r="AM2" t="n">
-        <v>448.2337036132812</v>
+        <v>388.3448486328125</v>
       </c>
       <c r="AN2" t="n">
-        <v>447.9888610839844</v>
+        <v>388.175537109375</v>
       </c>
       <c r="AO2" t="n">
-        <v>448.0868530273438</v>
+        <v>387.74658203125</v>
       </c>
       <c r="AP2" t="n">
-        <v>448.348876953125</v>
+        <v>387.0186157226562</v>
       </c>
       <c r="AQ2" t="n">
-        <v>448.556640625</v>
+        <v>386.7339782714844</v>
       </c>
       <c r="AR2" t="n">
-        <v>448.7359619140625</v>
+        <v>386.5524597167969</v>
       </c>
       <c r="AS2" t="n">
-        <v>449.17626953125</v>
+        <v>386.3632507324219</v>
       </c>
       <c r="AT2" t="n">
-        <v>449.5012817382812</v>
+        <v>386.1898498535156</v>
       </c>
       <c r="AU2" t="n">
-        <v>450.9029541015625</v>
+        <v>385.9711303710938</v>
       </c>
       <c r="AV2" t="n">
-        <v>453.0911865234375</v>
+        <v>385.9098815917969</v>
       </c>
       <c r="AW2" t="n">
-        <v>453.2544250488281</v>
+        <v>386.0086059570312</v>
       </c>
       <c r="AX2" t="n">
-        <v>451.4041748046875</v>
+        <v>386.5865478515625</v>
       </c>
       <c r="AY2" t="n">
-        <v>451.4446411132812</v>
+        <v>387.3342590332031</v>
       </c>
       <c r="AZ2" t="n">
-        <v>462.0491943359375</v>
+        <v>390.3131713867188</v>
       </c>
       <c r="BA2" t="n">
-        <v>472.8178405761719</v>
+        <v>397.7225341796875</v>
       </c>
       <c r="BB2" t="n">
-        <v>479.5772094726562</v>
+        <v>406.9132995605469</v>
       </c>
       <c r="BC2" t="n">
-        <v>486.5049743652344</v>
+        <v>413.96142578125</v>
       </c>
       <c r="BD2" t="n">
-        <v>491.69775390625</v>
+        <v>418.0887451171875</v>
       </c>
       <c r="BE2" t="n">
-        <v>495.8847351074219</v>
+        <v>422.4332275390625</v>
       </c>
       <c r="BF2" t="n">
-        <v>499.3394775390625</v>
+        <v>426.6734619140625</v>
       </c>
       <c r="BG2" t="n">
-        <v>501.4387817382812</v>
+        <v>429.1792602539062</v>
       </c>
       <c r="BH2" t="n">
-        <v>503.2202453613281</v>
+        <v>430.9329833984375</v>
       </c>
       <c r="BI2" t="n">
-        <v>502.4720458984375</v>
+        <v>431.7799377441406</v>
       </c>
       <c r="BJ2" t="n">
-        <v>500.7920532226562</v>
+        <v>432.0599365234375</v>
       </c>
       <c r="BK2" t="n">
-        <v>497.8118591308594</v>
+        <v>432.149169921875</v>
       </c>
       <c r="BL2" t="n">
-        <v>494.7637939453125</v>
+        <v>432.3405151367188</v>
       </c>
       <c r="BM2" t="n">
-        <v>489.6277160644531</v>
+        <v>432.2281494140625</v>
       </c>
       <c r="BN2" t="n">
-        <v>486.5898132324219</v>
+        <v>432.1272583007812</v>
       </c>
       <c r="BO2" t="n">
-        <v>480.8776245117188</v>
+        <v>432.1426696777344</v>
       </c>
       <c r="BP2" t="n">
-        <v>477.85888671875</v>
+        <v>432.1409912109375</v>
       </c>
       <c r="BQ2" t="n">
-        <v>475.5667419433594</v>
+        <v>432.243408203125</v>
       </c>
       <c r="BR2" t="n">
-        <v>472.7889709472656</v>
+        <v>432.3660888671875</v>
       </c>
       <c r="BS2" t="n">
-        <v>470.739990234375</v>
+        <v>432.3820190429688</v>
       </c>
       <c r="BT2" t="n">
-        <v>468.938232421875</v>
+        <v>432.4335021972656</v>
       </c>
       <c r="BU2" t="n">
-        <v>467.7200317382812</v>
+        <v>432.5013732910156</v>
       </c>
       <c r="BV2" t="n">
-        <v>466.5816955566406</v>
+        <v>432.4457397460938</v>
       </c>
       <c r="BW2" t="n">
-        <v>466.1839294433594</v>
+        <v>432.3521423339844</v>
       </c>
       <c r="BX2" t="n">
-        <v>466.1391906738281</v>
+        <v>431.9129028320312</v>
       </c>
       <c r="BY2" t="n">
-        <v>466.9781494140625</v>
+        <v>431.5850219726562</v>
       </c>
       <c r="BZ2" t="n">
-        <v>467.5395202636719</v>
+        <v>431.2609558105469</v>
       </c>
       <c r="CA2" t="n">
-        <v>469.2223510742188</v>
+        <v>431.1430358886719</v>
       </c>
       <c r="CB2" t="n">
-        <v>471.7039184570312</v>
+        <v>431.2589721679688</v>
       </c>
       <c r="CC2" t="n">
-        <v>476.3505249023438</v>
+        <v>431.4630126953125</v>
       </c>
       <c r="CD2" t="n">
-        <v>480.3541870117188</v>
+        <v>431.61279296875</v>
       </c>
       <c r="CE2" t="n">
-        <v>489.3719177246094</v>
+        <v>431.6964111328125</v>
       </c>
       <c r="CF2" t="n">
-        <v>493.4201049804688</v>
+        <v>431.6011962890625</v>
       </c>
       <c r="CG2" t="n">
-        <v>496.9437255859375</v>
+        <v>431.5283203125</v>
       </c>
       <c r="CH2" t="n">
-        <v>502.9535522460938</v>
+        <v>431.3549194335938</v>
       </c>
       <c r="CI2" t="n">
-        <v>507.8353881835938</v>
+        <v>431.3983764648438</v>
       </c>
       <c r="CJ2" t="n">
-        <v>512.4421997070312</v>
+        <v>431.7159423828125</v>
       </c>
       <c r="CK2" t="n">
-        <v>515.553466796875</v>
+        <v>431.8052673339844</v>
       </c>
       <c r="CL2" t="n">
-        <v>518.7399291992188</v>
+        <v>431.8662109375</v>
       </c>
       <c r="CM2" t="n">
-        <v>522.5992431640625</v>
+        <v>431.9031982421875</v>
       </c>
       <c r="CN2" t="n">
-        <v>529.8475952148438</v>
+        <v>431.9247131347656</v>
       </c>
       <c r="CO2" t="n">
-        <v>529.758544921875</v>
+        <v>431.9206237792969</v>
       </c>
       <c r="CP2" t="n">
-        <v>528.69384765625</v>
+        <v>431.8905029296875</v>
       </c>
       <c r="CQ2" t="n">
-        <v>526.1765747070312</v>
+        <v>431.8323974609375</v>
       </c>
       <c r="CR2" t="n">
-        <v>521.5196533203125</v>
+        <v>431.7914123535156</v>
       </c>
       <c r="CS2" t="n">
-        <v>511.1111145019531</v>
+        <v>431.7477722167969</v>
       </c>
       <c r="CT2" t="n">
-        <v>490.5657958984375</v>
+        <v>431.6612548828125</v>
       </c>
       <c r="CU2" t="n">
-        <v>481.517822265625</v>
+        <v>431.5125122070312</v>
       </c>
       <c r="CV2" t="n">
-        <v>470.7328796386719</v>
+        <v>431.2726440429688</v>
       </c>
       <c r="CW2" t="n">
-        <v>460.7330932617188</v>
+        <v>430.6185913085938</v>
       </c>
       <c r="CX2" t="n">
-        <v>448.0416259765625</v>
+        <v>429.4894714355469</v>
       </c>
       <c r="CY2" t="n">
-        <v>442.4649658203125</v>
+        <v>425.6178283691406</v>
       </c>
       <c r="CZ2" t="n">
-        <v>434.6826782226562</v>
+        <v>423.2550659179688</v>
       </c>
       <c r="DA2" t="n">
-        <v>430.749755859375</v>
+        <v>422.35791015625</v>
       </c>
       <c r="DB2" t="n">
-        <v>429.46875</v>
+        <v>421.4405517578125</v>
       </c>
       <c r="DC2" t="n">
-        <v>425.6961059570312</v>
+        <v>420.1914978027344</v>
       </c>
       <c r="DD2" t="n">
-        <v>421.8603515625</v>
+        <v>419.3601989746094</v>
       </c>
       <c r="DE2" t="n">
-        <v>413.9368286132812</v>
+        <v>417.335693359375</v>
       </c>
       <c r="DF2" t="n">
-        <v>406.6784362792969</v>
+        <v>414.9403686523438</v>
       </c>
       <c r="DG2" t="n">
-        <v>402.7343139648438</v>
+        <v>413.0316162109375</v>
       </c>
       <c r="DH2" t="n">
-        <v>397.8795776367188</v>
+        <v>409.8589477539062</v>
       </c>
       <c r="DI2" t="n">
-        <v>397.2245788574219</v>
+        <v>406.5213317871094</v>
       </c>
       <c r="DJ2" t="n">
-        <v>397.6665649414062</v>
+        <v>401.548828125</v>
       </c>
       <c r="DK2" t="n">
-        <v>398.1600341796875</v>
+        <v>398.2498168945312</v>
       </c>
       <c r="DL2" t="n">
-        <v>398.3373718261719</v>
+        <v>397.6309814453125</v>
       </c>
       <c r="DM2" t="n">
-        <v>398.3057861328125</v>
+        <v>395.5548400878906</v>
       </c>
       <c r="DN2" t="n">
-        <v>398.1952514648438</v>
+        <v>388.3447875976562</v>
       </c>
       <c r="DO2" t="n">
-        <v>397.9425048828125</v>
+        <v>387.5433959960938</v>
       </c>
       <c r="DP2" t="n">
-        <v>397.4273681640625</v>
+        <v>386.83935546875</v>
       </c>
       <c r="DQ2" t="n">
-        <v>395.9806518554688</v>
+        <v>385.2501220703125</v>
       </c>
       <c r="DR2" t="n">
-        <v>395.581298828125</v>
+        <v>385.2874450683594</v>
       </c>
       <c r="DS2" t="n">
-        <v>395.885986328125</v>
+        <v>385.6854858398438</v>
       </c>
       <c r="DT2" t="n">
-        <v>396.6052551269531</v>
+        <v>387.2649841308594</v>
       </c>
       <c r="DU2" t="n">
-        <v>398.4889221191406</v>
+        <v>387.5290222167969</v>
       </c>
       <c r="DV2" t="n">
-        <v>399.9725952148438</v>
+        <v>387.3486022949219</v>
       </c>
       <c r="DW2" t="n">
-        <v>405.7770385742188</v>
+        <v>387.208251953125</v>
       </c>
       <c r="DX2" t="n">
-        <v>410.9136352539062</v>
+        <v>387.0704650878906</v>
       </c>
       <c r="DY2" t="n">
-        <v>409.7969970703125</v>
+        <v>386.7797241210938</v>
       </c>
       <c r="DZ2" t="n">
-        <v>415.0985107421875</v>
+        <v>386.0432434082031</v>
       </c>
       <c r="EA2" t="n">
-        <v>418.857666015625</v>
+        <v>386.3173828125</v>
       </c>
       <c r="EB2" t="n">
-        <v>425.3093872070312</v>
+        <v>389.5875549316406</v>
       </c>
       <c r="EC2" t="n">
-        <v>432.9864807128906</v>
+        <v>391.5936279296875</v>
       </c>
       <c r="ED2" t="n">
-        <v>438.542236328125</v>
+        <v>392.6345825195312</v>
       </c>
       <c r="EE2" t="n">
-        <v>451.1347961425781</v>
+        <v>392.8927612304688</v>
       </c>
       <c r="EF2" t="n">
-        <v>467.5556640625</v>
+        <v>398.7529907226562</v>
       </c>
       <c r="EG2" t="n">
-        <v>482.1629028320312</v>
+        <v>403.7097473144531</v>
       </c>
       <c r="EH2" t="n">
-        <v>488.9931640625</v>
+        <v>407.4600830078125</v>
       </c>
       <c r="EI2" t="n">
-        <v>500.8678588867188</v>
+        <v>408.1230163574219</v>
       </c>
       <c r="EJ2" t="n">
-        <v>502.7813110351562</v>
+        <v>409.9925537109375</v>
       </c>
       <c r="EK2" t="n">
-        <v>508.7582397460938</v>
+        <v>412.2037048339844</v>
       </c>
       <c r="EL2" t="n">
-        <v>509.7184448242188</v>
+        <v>410.6348266601562</v>
       </c>
       <c r="EM2" t="n">
-        <v>513.6141357421875</v>
+        <v>408.9783935546875</v>
       </c>
       <c r="EN2" t="n">
-        <v>517.1498413085938</v>
+        <v>406.2752685546875</v>
       </c>
       <c r="EO2" t="n">
-        <v>517.338623046875</v>
+        <v>395.340576171875</v>
       </c>
       <c r="EP2" t="n">
-        <v>518.4097290039062</v>
+        <v>392.2968139648438</v>
       </c>
       <c r="EQ2" t="n">
-        <v>518.9197387695312</v>
+        <v>386.4664306640625</v>
       </c>
       <c r="ER2" t="n">
-        <v>519.4299926757812</v>
+        <v>383.6646728515625</v>
       </c>
       <c r="ES2" t="n">
-        <v>517.6015625</v>
+        <v>383.8399658203125</v>
       </c>
       <c r="ET2" t="n">
-        <v>517.162841796875</v>
+        <v>384.0463562011719</v>
       </c>
       <c r="EU2" t="n">
-        <v>515.5531005859375</v>
+        <v>383.4850463867188</v>
       </c>
       <c r="EV2" t="n">
-        <v>512.6953125</v>
+        <v>383.1002197265625</v>
       </c>
       <c r="EW2" t="n">
-        <v>508.9864807128906</v>
+        <v>383.1116027832031</v>
       </c>
       <c r="EX2" t="n">
-        <v>510.8600463867188</v>
+        <v>383.7505493164062</v>
       </c>
       <c r="EY2" t="n">
-        <v>509.1007690429688</v>
+        <v>384.4595947265625</v>
       </c>
       <c r="EZ2" t="n">
-        <v>509.6249084472656</v>
+        <v>387.4327392578125</v>
       </c>
       <c r="FA2" t="n">
-        <v>509.7103881835938</v>
+        <v>388.6180419921875</v>
       </c>
       <c r="FB2" t="n">
-        <v>508.7268676757812</v>
+        <v>389.9496765136719</v>
       </c>
       <c r="FC2" t="n">
-        <v>508.1173400878906</v>
+        <v>391.5616455078125</v>
       </c>
       <c r="FD2" t="n">
-        <v>506.5001831054688</v>
+        <v>393.4628601074219</v>
       </c>
       <c r="FE2" t="n">
-        <v>505.8291015625</v>
+        <v>394.4017333984375</v>
       </c>
       <c r="FF2" t="n">
-        <v>504.0185852050781</v>
+        <v>398.391845703125</v>
       </c>
       <c r="FG2" t="n">
-        <v>503.9672241210938</v>
+        <v>399.7057495117188</v>
       </c>
       <c r="FH2" t="n">
-        <v>506.5460815429688</v>
+        <v>402.3028259277344</v>
       </c>
       <c r="FI2" t="n">
-        <v>507.0014038085938</v>
+        <v>403.9141540527344</v>
       </c>
       <c r="FJ2" t="n">
-        <v>507.7576293945312</v>
+        <v>407.9500732421875</v>
       </c>
       <c r="FK2" t="n">
-        <v>509.6976013183594</v>
+        <v>412.5378112792969</v>
       </c>
       <c r="FL2" t="n">
-        <v>509.0443725585938</v>
+        <v>414.5501403808594</v>
       </c>
       <c r="FM2" t="n">
-        <v>504.44384765625</v>
+        <v>416.3248291015625</v>
       </c>
       <c r="FN2" t="n">
-        <v>502.1017456054688</v>
+        <v>416.7810363769531</v>
       </c>
       <c r="FO2" t="n">
-        <v>500.8890380859375</v>
+        <v>416.6341552734375</v>
       </c>
       <c r="FP2" t="n">
-        <v>491.1541442871094</v>
+        <v>417.0963134765625</v>
       </c>
       <c r="FQ2" t="n">
-        <v>483.5135498046875</v>
+        <v>418.13916015625</v>
       </c>
       <c r="FR2" t="n">
-        <v>479.6498107910156</v>
+        <v>429.6788024902344</v>
       </c>
       <c r="FS2" t="n">
-        <v>471.5152587890625</v>
+        <v>435.7093505859375</v>
       </c>
       <c r="FT2" t="n">
-        <v>466.4097900390625</v>
+        <v>445.2523193359375</v>
       </c>
       <c r="FU2" t="n">
-        <v>462.7396240234375</v>
+        <v>453.9268798828125</v>
       </c>
       <c r="FV2" t="n">
-        <v>454.8179931640625</v>
+        <v>456.3224792480469</v>
       </c>
       <c r="FW2" t="n">
-        <v>450.9018249511719</v>
+        <v>456.75537109375</v>
       </c>
       <c r="FX2" t="n">
-        <v>447.9900512695312</v>
+        <v>455.97412109375</v>
       </c>
       <c r="FY2" t="n">
-        <v>446.9985656738281</v>
+        <v>456.2245178222656</v>
       </c>
       <c r="FZ2" t="n">
-        <v>446.0351867675781</v>
+        <v>455.5807189941406</v>
       </c>
       <c r="GA2" t="n">
-        <v>444.9348449707031</v>
+        <v>451.252197265625</v>
       </c>
       <c r="GB2" t="n">
-        <v>443.4979553222656</v>
+        <v>448.4393920898438</v>
       </c>
       <c r="GC2" t="n">
-        <v>440.2560119628906</v>
+        <v>440.7974853515625</v>
       </c>
       <c r="GD2" t="n">
-        <v>438.433349609375</v>
+        <v>436.330322265625</v>
       </c>
       <c r="GE2" t="n">
-        <v>438.0623168945312</v>
+        <v>423.376708984375</v>
       </c>
       <c r="GF2" t="n">
-        <v>438.0181274414062</v>
+        <v>415.3262329101562</v>
       </c>
       <c r="GG2" t="n">
-        <v>438.8609619140625</v>
+        <v>414.49560546875</v>
       </c>
       <c r="GH2" t="n">
-        <v>437.6636352539062</v>
+        <v>415.0416259765625</v>
       </c>
       <c r="GI2" t="n">
-        <v>435.16650390625</v>
+        <v>418.0585327148438</v>
       </c>
       <c r="GJ2" t="n">
-        <v>431.7821655273438</v>
+        <v>420.9331665039062</v>
       </c>
       <c r="GK2" t="n">
-        <v>431.5328369140625</v>
+        <v>424.3399658203125</v>
       </c>
       <c r="GL2" t="n">
-        <v>429.4153137207031</v>
+        <v>425.9329833984375</v>
       </c>
       <c r="GM2" t="n">
-        <v>423.78759765625</v>
+        <v>418.2560424804688</v>
       </c>
       <c r="GN2" t="n">
-        <v>419.2190246582031</v>
+        <v>414.9202270507812</v>
       </c>
       <c r="GO2" t="n">
-        <v>412.5342407226562</v>
+        <v>407.05810546875</v>
       </c>
       <c r="GP2" t="n">
-        <v>408.6614379882812</v>
+        <v>401.2462768554688</v>
       </c>
       <c r="GQ2" t="n">
-        <v>398.939697265625</v>
+        <v>399.5552062988281</v>
       </c>
       <c r="GR2" t="n">
-        <v>391.0433654785156</v>
+        <v>400.4075317382812</v>
       </c>
       <c r="GS2" t="n">
-        <v>384.3301696777344</v>
+        <v>401.0340576171875</v>
       </c>
       <c r="GT2" t="n">
-        <v>383.5234375</v>
+        <v>401.1929626464844</v>
       </c>
       <c r="GU2" t="n">
-        <v>381.7418823242188</v>
+        <v>399.37890625</v>
       </c>
       <c r="GV2" t="n">
-        <v>377.115478515625</v>
+        <v>390.363037109375</v>
       </c>
       <c r="GW2" t="n">
-        <v>375.215576171875</v>
+        <v>378.4880981445312</v>
       </c>
       <c r="GX2" t="n">
-        <v>372.01513671875</v>
+        <v>367.4486083984375</v>
       </c>
       <c r="GY2" t="n">
-        <v>371.4979858398438</v>
+        <v>350.5234375</v>
       </c>
       <c r="GZ2" t="n">
-        <v>370.1659545898438</v>
+        <v>333.133056640625</v>
       </c>
       <c r="HA2" t="n">
-        <v>370.082763671875</v>
+        <v>303.9408874511719</v>
       </c>
       <c r="HB2" t="n">
-        <v>370.5095825195312</v>
+        <v>294.8975219726562</v>
       </c>
       <c r="HC2" t="n">
-        <v>369.9743041992188</v>
+        <v>275.6827392578125</v>
       </c>
       <c r="HD2" t="n">
-        <v>369.5150756835938</v>
+        <v>257.9395751953125</v>
       </c>
       <c r="HE2" t="n">
-        <v>369.5670166015625</v>
+        <v>237.9877624511719</v>
       </c>
       <c r="HF2" t="n">
-        <v>373.0565185546875</v>
+        <v>225.3265991210938</v>
       </c>
       <c r="HG2" t="n">
-        <v>381.693603515625</v>
+        <v>219.6542205810547</v>
       </c>
       <c r="HH2" t="n">
-        <v>361.0751037597656</v>
+        <v>214.5296630859375</v>
       </c>
       <c r="HI2" t="n">
-        <v>381.4149475097656</v>
+        <v>213.6746826171875</v>
       </c>
       <c r="HJ2" t="n">
-        <v>385.78466796875</v>
+        <v>223.6849060058594</v>
       </c>
       <c r="HK2" t="n">
-        <v>389.9977111816406</v>
+        <v>240.3591613769531</v>
       </c>
       <c r="HL2" t="n">
-        <v>399.3158264160156</v>
+        <v>242.99169921875</v>
       </c>
       <c r="HM2" t="n">
-        <v>407.7101135253906</v>
+        <v>249.2980346679688</v>
       </c>
       <c r="HN2" t="n">
-        <v>420.0869140625</v>
+        <v>267.2271118164062</v>
       </c>
       <c r="HO2" t="n">
-        <v>433.9398498535156</v>
+        <v>291.0512084960938</v>
       </c>
       <c r="HP2" t="n">
-        <v>443.5516357421875</v>
+        <v>314.6073303222656</v>
       </c>
       <c r="HQ2" t="n">
-        <v>448.4865112304688</v>
+        <v>329.5060424804688</v>
       </c>
       <c r="HR2" t="n">
-        <v>461.0408020019531</v>
+        <v>338.8931579589844</v>
       </c>
       <c r="HS2" t="n">
-        <v>468.762451171875</v>
+        <v>347.5241394042969</v>
       </c>
       <c r="HT2" t="n">
-        <v>474.6002197265625</v>
+        <v>358.6132507324219</v>
       </c>
       <c r="HU2" t="n">
-        <v>476.7947692871094</v>
+        <v>366.4681396484375</v>
       </c>
       <c r="HV2" t="n">
-        <v>477.5607604980469</v>
+        <v>381.5197143554688</v>
       </c>
       <c r="HW2" t="n">
-        <v>479.4848022460938</v>
+        <v>398.564453125</v>
       </c>
       <c r="HX2" t="n">
-        <v>478.7639770507812</v>
+        <v>412.6112670898438</v>
       </c>
       <c r="HY2" t="n">
-        <v>478.2540283203125</v>
+        <v>466.3035278320312</v>
       </c>
       <c r="HZ2" t="n">
-        <v>478.5568542480469</v>
+        <v>445.4649353027344</v>
       </c>
       <c r="IA2" t="n">
-        <v>477.5700073242188</v>
+        <v>460.9582214355469</v>
       </c>
       <c r="IB2" t="n">
-        <v>477.5053405761719</v>
+        <v>477.1744995117188</v>
       </c>
       <c r="IC2" t="n">
-        <v>476.5536193847656</v>
+        <v>490.620361328125</v>
       </c>
       <c r="ID2" t="n">
-        <v>470.9542541503906</v>
+        <v>495.7818603515625</v>
       </c>
       <c r="IE2" t="n">
-        <v>470.6915283203125</v>
+        <v>495.4266967773438</v>
       </c>
       <c r="IF2" t="n">
-        <v>468.974365234375</v>
+        <v>491.8014526367188</v>
       </c>
       <c r="IG2" t="n">
-        <v>464.3475646972656</v>
+        <v>488.686279296875</v>
       </c>
       <c r="IH2" t="n">
-        <v>460.1821899414062</v>
+        <v>484.5919189453125</v>
       </c>
       <c r="II2" t="n">
-        <v>452.0211181640625</v>
+        <v>488.2433471679688</v>
       </c>
       <c r="IJ2" t="n">
-        <v>448.1893920898438</v>
+        <v>494.943603515625</v>
       </c>
       <c r="IK2" t="n">
-        <v>433.8158569335938</v>
+        <v>506.8422241210938</v>
       </c>
       <c r="IL2" t="n">
-        <v>430.2180480957031</v>
+        <v>509.4183959960938</v>
       </c>
       <c r="IM2" t="n">
-        <v>419.5350646972656</v>
+        <v>513.6421508789062</v>
       </c>
       <c r="IN2" t="n">
-        <v>406.7645874023438</v>
+        <v>460.7388305664062</v>
       </c>
       <c r="IO2" t="n">
-        <v>398.0972900390625</v>
+        <v>483.1152954101562</v>
       </c>
       <c r="IP2" t="n">
-        <v>394.1424865722656</v>
+        <v>504.0032348632812</v>
       </c>
       <c r="IQ2" t="n">
-        <v>385.191162109375</v>
+        <v>498.8025207519531</v>
       </c>
       <c r="IR2" t="n">
-        <v>383.9588012695312</v>
+        <v>492.08349609375</v>
       </c>
       <c r="IS2" t="n">
-        <v>381.1004028320312</v>
+        <v>504.1283874511719</v>
       </c>
       <c r="IT2" t="n">
-        <v>377.7940673828125</v>
+        <v>500.0233764648438</v>
       </c>
       <c r="IU2" t="n">
-        <v>376.2326049804688</v>
+        <v>503.9519958496094</v>
       </c>
       <c r="IV2" t="n">
-        <v>376.5005493164062</v>
+        <v>505.0061340332031</v>
       </c>
       <c r="IW2" t="n">
-        <v>376.6170654296875</v>
+        <v>486.8877563476562</v>
       </c>
       <c r="IX2" t="n">
-        <v>376.1141357421875</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>376.9454345703125</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>378.296875</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>379.8643493652344</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>382.9523315429688</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>386.4754638671875</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>390.9060363769531</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>398.48388671875</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>405.3166198730469</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>414.5677185058594</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>421.4124145507812</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>428.7750244140625</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>430.7776184082031</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>437.8749084472656</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>420.7580261230469</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>449.2320556640625</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>450.8667602539062</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>454.7225341796875</v>
-      </c>
-      <c r="JP2" t="n">
-        <v>456.6082153320312</v>
-      </c>
-      <c r="JQ2" t="n">
-        <v>456.6436157226562</v>
-      </c>
-      <c r="JR2" t="n">
-        <v>457.6788940429688</v>
-      </c>
-      <c r="JS2" t="n">
-        <v>458.5736389160156</v>
-      </c>
-      <c r="JT2" t="n">
-        <v>460.7720642089844</v>
-      </c>
-      <c r="JU2" t="n">
-        <v>462.760009765625</v>
-      </c>
-      <c r="JV2" t="n">
-        <v>463.2967529296875</v>
-      </c>
-      <c r="JW2" t="n">
-        <v>463.9457397460938</v>
-      </c>
-      <c r="JX2" t="n">
-        <v>465.01416015625</v>
-      </c>
-      <c r="JY2" t="n">
-        <v>465.3494262695312</v>
-      </c>
-      <c r="JZ2" t="n">
-        <v>465.9520874023438</v>
-      </c>
-      <c r="KA2" t="n">
-        <v>466.8968200683594</v>
-      </c>
-      <c r="KB2" t="n">
-        <v>470.1471557617188</v>
-      </c>
-      <c r="KC2" t="n">
-        <v>480.5863037109375</v>
-      </c>
-      <c r="KD2" t="n">
-        <v>494.2474670410156</v>
-      </c>
-      <c r="KE2" t="n">
-        <v>501.3800659179688</v>
-      </c>
-      <c r="KF2" t="n">
-        <v>506.2963256835938</v>
-      </c>
-      <c r="KG2" t="n">
-        <v>506.5684509277344</v>
-      </c>
-      <c r="KH2" t="n">
-        <v>506.2136535644531</v>
-      </c>
-      <c r="KI2" t="n">
-        <v>505.2322387695312</v>
-      </c>
-      <c r="KJ2" t="n">
-        <v>504.000732421875</v>
-      </c>
-      <c r="KK2" t="n">
-        <v>502.55224609375</v>
-      </c>
-      <c r="KL2" t="n">
-        <v>499.583251953125</v>
-      </c>
-      <c r="KM2" t="n">
-        <v>495.7623596191406</v>
-      </c>
-      <c r="KN2" t="n">
-        <v>492.1469421386719</v>
-      </c>
-      <c r="KO2" t="n">
-        <v>486.5813903808594</v>
-      </c>
-      <c r="KP2" t="n">
-        <v>481.9798278808594</v>
-      </c>
-      <c r="KQ2" t="n">
-        <v>470.0634155273438</v>
-      </c>
-      <c r="KR2" t="n">
-        <v>462.0184020996094</v>
-      </c>
-      <c r="KS2" t="n">
-        <v>459.8980102539062</v>
-      </c>
-      <c r="KT2" t="n">
-        <v>460.5539245605469</v>
-      </c>
-      <c r="KU2" t="n">
-        <v>460.7159423828125</v>
-      </c>
-      <c r="KV2" t="n">
-        <v>460.35791015625</v>
-      </c>
-      <c r="KW2" t="n">
-        <v>460.9150695800781</v>
-      </c>
-      <c r="KX2" t="n">
-        <v>463.5531616210938</v>
-      </c>
-      <c r="KY2" t="n">
-        <v>465.7498779296875</v>
-      </c>
-      <c r="KZ2" t="n">
-        <v>469.1730346679688</v>
-      </c>
-      <c r="LA2" t="n">
-        <v>470.6779479980469</v>
-      </c>
-      <c r="LB2" t="n">
-        <v>470.5643005371094</v>
-      </c>
-      <c r="LC2" t="n">
-        <v>470.190185546875</v>
-      </c>
-      <c r="LD2" t="n">
-        <v>468.162353515625</v>
-      </c>
-      <c r="LE2" t="n">
-        <v>465.7082824707031</v>
-      </c>
-      <c r="LF2" t="n">
-        <v>466.2478942871094</v>
-      </c>
-      <c r="LG2" t="n">
-        <v>469.7366638183594</v>
-      </c>
-      <c r="LH2" t="n">
-        <v>473.4466247558594</v>
-      </c>
-      <c r="LI2" t="n">
-        <v>478.9876098632812</v>
-      </c>
-      <c r="LJ2" t="n">
-        <v>487.5088195800781</v>
-      </c>
-      <c r="LK2" t="n">
-        <v>493.8215942382812</v>
-      </c>
-      <c r="LL2" t="n">
-        <v>501.842041015625</v>
-      </c>
-      <c r="LM2" t="n">
-        <v>511.1221618652344</v>
-      </c>
-      <c r="LN2" t="n">
-        <v>526.8062133789062</v>
-      </c>
-      <c r="LO2" t="n">
-        <v>535.9716186523438</v>
-      </c>
-      <c r="LP2" t="n">
-        <v>554.6427001953125</v>
-      </c>
-      <c r="LQ2" t="n">
-        <v>572.2106323242188</v>
-      </c>
-      <c r="LR2" t="n">
-        <v>581.8096313476562</v>
-      </c>
-      <c r="LS2" t="n">
-        <v>596.3870239257812</v>
-      </c>
-      <c r="LT2" t="n">
-        <v>621.1539306640625</v>
-      </c>
-      <c r="LU2" t="n">
-        <v>629.1943969726562</v>
-      </c>
-      <c r="LV2" t="n">
-        <v>554.3619995117188</v>
-      </c>
-      <c r="LW2" t="n">
-        <v>534.9041748046875</v>
-      </c>
-      <c r="LX2" t="n">
-        <v>573.6762084960938</v>
-      </c>
-      <c r="LY2" t="n">
-        <v>574.9212036132812</v>
-      </c>
-      <c r="LZ2" t="n">
-        <v>608.2568969726562</v>
-      </c>
-      <c r="MA2" t="n">
-        <v>581.8477172851562</v>
-      </c>
-      <c r="MB2" t="n">
-        <v>551.730712890625</v>
-      </c>
-      <c r="MC2" t="n">
-        <v>522.258056640625</v>
-      </c>
-      <c r="MD2" t="n">
-        <v>487.8415222167969</v>
-      </c>
-      <c r="ME2" t="n">
-        <v>474.9053649902344</v>
-      </c>
-      <c r="MF2" t="n">
-        <v>470.5325927734375</v>
-      </c>
-      <c r="MG2" t="n">
-        <v>468.5624389648438</v>
-      </c>
-      <c r="MH2" t="n">
-        <v>479.0611267089844</v>
-      </c>
-      <c r="MI2" t="n">
-        <v>502.4408264160156</v>
-      </c>
-      <c r="MJ2" t="n">
-        <v>544.7620239257812</v>
-      </c>
-      <c r="MK2" t="n">
-        <v>577.992919921875</v>
-      </c>
-      <c r="ML2" t="n">
-        <v>585.876953125</v>
-      </c>
-      <c r="MM2" t="n">
-        <v>587.8193359375</v>
-      </c>
-      <c r="MN2" t="n">
-        <v>585.9628295898438</v>
-      </c>
-      <c r="MO2" t="n">
-        <v>579.818115234375</v>
-      </c>
-      <c r="MP2" t="n">
-        <v>580.4010620117188</v>
-      </c>
-      <c r="MQ2" t="n">
-        <v>577.509033203125</v>
-      </c>
-      <c r="MR2" t="n">
-        <v>564.9332885742188</v>
-      </c>
-      <c r="MS2" t="n">
-        <v>528.5552368164062</v>
-      </c>
-      <c r="MT2" t="n">
-        <v>530.8135375976562</v>
-      </c>
-      <c r="MU2" t="n">
-        <v>564.7232055664062</v>
-      </c>
-      <c r="MV2" t="n">
-        <v>472.3092651367188</v>
-      </c>
-      <c r="MW2" t="n">
-        <v>474.4508666992188</v>
-      </c>
-      <c r="MX2" t="n">
-        <v>491.15625</v>
-      </c>
-      <c r="MY2" t="n">
-        <v>499.8702392578125</v>
-      </c>
-      <c r="MZ2" t="n">
-        <v>506.2735595703125</v>
-      </c>
-      <c r="NA2" t="n">
-        <v>512.3285522460938</v>
-      </c>
-      <c r="NB2" t="n">
-        <v>515.119873046875</v>
-      </c>
-      <c r="NC2" t="n">
-        <v>515.5751342773438</v>
-      </c>
-      <c r="ND2" t="n">
-        <v>515.8922119140625</v>
-      </c>
-      <c r="NE2" t="n">
-        <v>516.1798095703125</v>
-      </c>
-      <c r="NF2" t="n">
-        <v>515.2113647460938</v>
-      </c>
-      <c r="NG2" t="n">
-        <v>513.4901123046875</v>
-      </c>
-      <c r="NH2" t="n">
-        <v>509.7427673339844</v>
-      </c>
-      <c r="NI2" t="n">
-        <v>504.7191772460938</v>
-      </c>
-      <c r="NJ2" t="n">
-        <v>502.6763305664062</v>
-      </c>
-      <c r="NK2" t="n">
-        <v>502.6523132324219</v>
-      </c>
-      <c r="NL2" t="n">
-        <v>457.1052856445312</v>
-      </c>
-      <c r="NM2" t="n">
-        <v>469.5882873535156</v>
+        <v>478.35302734375</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>269.9527587890625</v>
+        <v>302.4874572753906</v>
       </c>
       <c r="B3" t="n">
-        <v>263.7882690429688</v>
+        <v>290.15478515625</v>
       </c>
       <c r="C3" t="n">
-        <v>262.9787292480469</v>
+        <v>281.2705688476562</v>
       </c>
       <c r="D3" t="n">
-        <v>261.4217834472656</v>
+        <v>280.1475830078125</v>
       </c>
       <c r="E3" t="n">
-        <v>263.3355712890625</v>
+        <v>285.630859375</v>
       </c>
       <c r="F3" t="n">
-        <v>263.5508422851562</v>
+        <v>287.3889465332031</v>
       </c>
       <c r="G3" t="n">
-        <v>264.5098266601562</v>
+        <v>292.5350036621094</v>
       </c>
       <c r="H3" t="n">
-        <v>266.1426391601562</v>
+        <v>292.4375915527344</v>
       </c>
       <c r="I3" t="n">
-        <v>266.3032836914062</v>
+        <v>296.255859375</v>
       </c>
       <c r="J3" t="n">
-        <v>266.416748046875</v>
+        <v>295.5838012695312</v>
       </c>
       <c r="K3" t="n">
-        <v>267.29052734375</v>
+        <v>299.2884216308594</v>
       </c>
       <c r="L3" t="n">
-        <v>269.2897338867188</v>
+        <v>302.6312561035156</v>
       </c>
       <c r="M3" t="n">
-        <v>277.3753051757812</v>
+        <v>305.8155212402344</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1599731445312</v>
+        <v>307.1883544921875</v>
       </c>
       <c r="O3" t="n">
-        <v>273.8831176757812</v>
+        <v>324.0874328613281</v>
       </c>
       <c r="P3" t="n">
-        <v>273.1056518554688</v>
+        <v>323.5302429199219</v>
       </c>
       <c r="Q3" t="n">
-        <v>272.3712768554688</v>
+        <v>322.7693481445312</v>
       </c>
       <c r="R3" t="n">
-        <v>273.6679382324219</v>
+        <v>324.2901611328125</v>
       </c>
       <c r="S3" t="n">
-        <v>274.9487609863281</v>
+        <v>324.0919189453125</v>
       </c>
       <c r="T3" t="n">
-        <v>275.0007934570312</v>
+        <v>326.0831604003906</v>
       </c>
       <c r="U3" t="n">
-        <v>276.4873352050781</v>
+        <v>325.4263000488281</v>
       </c>
       <c r="V3" t="n">
-        <v>281.5714721679688</v>
+        <v>325.5756530761719</v>
       </c>
       <c r="W3" t="n">
-        <v>284.7637939453125</v>
+        <v>325.8941650390625</v>
       </c>
       <c r="X3" t="n">
-        <v>286.0453796386719</v>
+        <v>325.6860961914062</v>
       </c>
       <c r="Y3" t="n">
-        <v>290.6780395507812</v>
+        <v>325.6412658691406</v>
       </c>
       <c r="Z3" t="n">
-        <v>295.099609375</v>
+        <v>325.1315002441406</v>
       </c>
       <c r="AA3" t="n">
-        <v>298.6329650878906</v>
+        <v>324.9371032714844</v>
       </c>
       <c r="AB3" t="n">
-        <v>299.3430786132812</v>
+        <v>324.937744140625</v>
       </c>
       <c r="AC3" t="n">
-        <v>301.0461730957031</v>
+        <v>325.3778991699219</v>
       </c>
       <c r="AD3" t="n">
-        <v>301.7925109863281</v>
+        <v>327.7545471191406</v>
       </c>
       <c r="AE3" t="n">
-        <v>300.7945556640625</v>
+        <v>328.7713317871094</v>
       </c>
       <c r="AF3" t="n">
-        <v>299.8752746582031</v>
+        <v>328.6640014648438</v>
       </c>
       <c r="AG3" t="n">
-        <v>298.5435791015625</v>
+        <v>328.8465576171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>295.6712036132812</v>
+        <v>327.4613952636719</v>
       </c>
       <c r="AI3" t="n">
-        <v>291.3570251464844</v>
+        <v>327.5009155273438</v>
       </c>
       <c r="AJ3" t="n">
-        <v>287.2979125976562</v>
+        <v>327.0220336914062</v>
       </c>
       <c r="AK3" t="n">
-        <v>286.34912109375</v>
+        <v>326.2178955078125</v>
       </c>
       <c r="AL3" t="n">
-        <v>285.6312866210938</v>
+        <v>326.6121826171875</v>
       </c>
       <c r="AM3" t="n">
-        <v>285.7945556640625</v>
+        <v>327.1601867675781</v>
       </c>
       <c r="AN3" t="n">
-        <v>285.4599609375</v>
+        <v>327.9667663574219</v>
       </c>
       <c r="AO3" t="n">
-        <v>285.4336853027344</v>
+        <v>327.8168029785156</v>
       </c>
       <c r="AP3" t="n">
-        <v>285.6581115722656</v>
+        <v>327.5771179199219</v>
       </c>
       <c r="AQ3" t="n">
-        <v>285.5055236816406</v>
+        <v>326.9007873535156</v>
       </c>
       <c r="AR3" t="n">
-        <v>285.3233642578125</v>
+        <v>325.9067687988281</v>
       </c>
       <c r="AS3" t="n">
-        <v>285.453857421875</v>
+        <v>325.2720031738281</v>
       </c>
       <c r="AT3" t="n">
-        <v>286.0119323730469</v>
+        <v>324.7762451171875</v>
       </c>
       <c r="AU3" t="n">
-        <v>286.9838562011719</v>
+        <v>324.3947143554688</v>
       </c>
       <c r="AV3" t="n">
-        <v>289.1488952636719</v>
+        <v>324.2348937988281</v>
       </c>
       <c r="AW3" t="n">
-        <v>291.1726989746094</v>
+        <v>324.3958740234375</v>
       </c>
       <c r="AX3" t="n">
-        <v>292.568115234375</v>
+        <v>325.8670349121094</v>
       </c>
       <c r="AY3" t="n">
-        <v>293.7756042480469</v>
+        <v>326.9849853515625</v>
       </c>
       <c r="AZ3" t="n">
-        <v>289.7588806152344</v>
+        <v>326.5726318359375</v>
       </c>
       <c r="BA3" t="n">
-        <v>283.6267700195312</v>
+        <v>323.4639892578125</v>
       </c>
       <c r="BB3" t="n">
-        <v>278.0892028808594</v>
+        <v>316.5363159179688</v>
       </c>
       <c r="BC3" t="n">
-        <v>271.5374755859375</v>
+        <v>308.3052062988281</v>
       </c>
       <c r="BD3" t="n">
-        <v>264.6011962890625</v>
+        <v>301.5087280273438</v>
       </c>
       <c r="BE3" t="n">
-        <v>258.2342224121094</v>
+        <v>294.0520629882812</v>
       </c>
       <c r="BF3" t="n">
-        <v>251.5510406494141</v>
+        <v>285.1817016601562</v>
       </c>
       <c r="BG3" t="n">
-        <v>246.6498107910156</v>
+        <v>279.5073547363281</v>
       </c>
       <c r="BH3" t="n">
-        <v>239.6212463378906</v>
+        <v>275.0166625976562</v>
       </c>
       <c r="BI3" t="n">
-        <v>234.1971893310547</v>
+        <v>273.2455749511719</v>
       </c>
       <c r="BJ3" t="n">
-        <v>229.6412353515625</v>
+        <v>271.9941101074219</v>
       </c>
       <c r="BK3" t="n">
-        <v>225.2904510498047</v>
+        <v>270.0693359375</v>
       </c>
       <c r="BL3" t="n">
-        <v>222.2557830810547</v>
+        <v>268.5986328125</v>
       </c>
       <c r="BM3" t="n">
-        <v>220.7034301757812</v>
+        <v>268.5108032226562</v>
       </c>
       <c r="BN3" t="n">
-        <v>220.8052520751953</v>
+        <v>268.4939575195312</v>
       </c>
       <c r="BO3" t="n">
-        <v>218.7273101806641</v>
+        <v>268.6442260742188</v>
       </c>
       <c r="BP3" t="n">
-        <v>216.8531646728516</v>
+        <v>268.8863220214844</v>
       </c>
       <c r="BQ3" t="n">
-        <v>213.5425567626953</v>
+        <v>269.3661499023438</v>
       </c>
       <c r="BR3" t="n">
-        <v>212.1914520263672</v>
+        <v>270.3331298828125</v>
       </c>
       <c r="BS3" t="n">
-        <v>211.4788208007812</v>
+        <v>271.5007934570312</v>
       </c>
       <c r="BT3" t="n">
-        <v>210.8408050537109</v>
+        <v>272.334716796875</v>
       </c>
       <c r="BU3" t="n">
-        <v>211.0734405517578</v>
+        <v>272.1289978027344</v>
       </c>
       <c r="BV3" t="n">
-        <v>210.7733764648438</v>
+        <v>271.9708862304688</v>
       </c>
       <c r="BW3" t="n">
-        <v>210.2275085449219</v>
+        <v>272.0747985839844</v>
       </c>
       <c r="BX3" t="n">
-        <v>209.3582153320312</v>
+        <v>272.3599243164062</v>
       </c>
       <c r="BY3" t="n">
-        <v>206.77685546875</v>
+        <v>273.01953125</v>
       </c>
       <c r="BZ3" t="n">
-        <v>204.8614196777344</v>
+        <v>274.4184265136719</v>
       </c>
       <c r="CA3" t="n">
-        <v>203.3361358642578</v>
+        <v>275.4363098144531</v>
       </c>
       <c r="CB3" t="n">
-        <v>202.2470703125</v>
+        <v>276.0188903808594</v>
       </c>
       <c r="CC3" t="n">
-        <v>202.2217102050781</v>
+        <v>276.3007202148438</v>
       </c>
       <c r="CD3" t="n">
-        <v>201.9820404052734</v>
+        <v>276.9815063476562</v>
       </c>
       <c r="CE3" t="n">
-        <v>201.3008422851562</v>
+        <v>277.8115539550781</v>
       </c>
       <c r="CF3" t="n">
-        <v>201.2058563232422</v>
+        <v>278.4818420410156</v>
       </c>
       <c r="CG3" t="n">
-        <v>200.8210754394531</v>
+        <v>278.9155578613281</v>
       </c>
       <c r="CH3" t="n">
-        <v>200.920654296875</v>
+        <v>279.6487731933594</v>
       </c>
       <c r="CI3" t="n">
-        <v>200.5088195800781</v>
+        <v>279.8583984375</v>
       </c>
       <c r="CJ3" t="n">
-        <v>200.4834747314453</v>
+        <v>279.7809753417969</v>
       </c>
       <c r="CK3" t="n">
-        <v>200.5001525878906</v>
+        <v>279.6239013671875</v>
       </c>
       <c r="CL3" t="n">
-        <v>200.8344268798828</v>
+        <v>279.4698181152344</v>
       </c>
       <c r="CM3" t="n">
-        <v>201.0465850830078</v>
+        <v>279.4244079589844</v>
       </c>
       <c r="CN3" t="n">
-        <v>204.8509979248047</v>
+        <v>279.433837890625</v>
       </c>
       <c r="CO3" t="n">
-        <v>216.6448059082031</v>
+        <v>279.5161437988281</v>
       </c>
       <c r="CP3" t="n">
-        <v>226.31787109375</v>
+        <v>279.6662902832031</v>
       </c>
       <c r="CQ3" t="n">
-        <v>235.83154296875</v>
+        <v>279.8110656738281</v>
       </c>
       <c r="CR3" t="n">
-        <v>245.6194152832031</v>
+        <v>280.0031127929688</v>
       </c>
       <c r="CS3" t="n">
-        <v>257.2826843261719</v>
+        <v>280.3531188964844</v>
       </c>
       <c r="CT3" t="n">
-        <v>271.7000732421875</v>
+        <v>280.8347778320312</v>
       </c>
       <c r="CU3" t="n">
-        <v>276.42822265625</v>
+        <v>281.6359252929688</v>
       </c>
       <c r="CV3" t="n">
-        <v>281.6752319335938</v>
+        <v>282.8202819824219</v>
       </c>
       <c r="CW3" t="n">
-        <v>284.1442565917969</v>
+        <v>285.4885559082031</v>
       </c>
       <c r="CX3" t="n">
-        <v>285.980224609375</v>
+        <v>289.0820617675781</v>
       </c>
       <c r="CY3" t="n">
-        <v>286.9002075195312</v>
+        <v>294.6714172363281</v>
       </c>
       <c r="CZ3" t="n">
-        <v>286.2587890625</v>
+        <v>296.6727294921875</v>
       </c>
       <c r="DA3" t="n">
-        <v>284.6393737792969</v>
+        <v>298.7139892578125</v>
       </c>
       <c r="DB3" t="n">
-        <v>282.1464233398438</v>
+        <v>300.7443542480469</v>
       </c>
       <c r="DC3" t="n">
-        <v>280.5735473632812</v>
+        <v>303.5007019042969</v>
       </c>
       <c r="DD3" t="n">
-        <v>278.9427185058594</v>
+        <v>306.5645751953125</v>
       </c>
       <c r="DE3" t="n">
-        <v>278.00634765625</v>
+        <v>309.8038330078125</v>
       </c>
       <c r="DF3" t="n">
-        <v>278.5313720703125</v>
+        <v>312.1994934082031</v>
       </c>
       <c r="DG3" t="n">
-        <v>279.3114013671875</v>
+        <v>313.9877014160156</v>
       </c>
       <c r="DH3" t="n">
-        <v>279.195556640625</v>
+        <v>316.9007263183594</v>
       </c>
       <c r="DI3" t="n">
-        <v>278.4133911132812</v>
+        <v>320.0496215820312</v>
       </c>
       <c r="DJ3" t="n">
-        <v>277.9647216796875</v>
+        <v>324.2882080078125</v>
       </c>
       <c r="DK3" t="n">
-        <v>277.6492614746094</v>
+        <v>327.3941040039062</v>
       </c>
       <c r="DL3" t="n">
-        <v>277.9513549804688</v>
+        <v>328.0141296386719</v>
       </c>
       <c r="DM3" t="n">
-        <v>277.9027099609375</v>
+        <v>328.9480285644531</v>
       </c>
       <c r="DN3" t="n">
-        <v>277.8833923339844</v>
+        <v>330.6275329589844</v>
       </c>
       <c r="DO3" t="n">
-        <v>277.6784362792969</v>
+        <v>330.0066833496094</v>
       </c>
       <c r="DP3" t="n">
-        <v>277.0730590820312</v>
+        <v>329.8890075683594</v>
       </c>
       <c r="DQ3" t="n">
-        <v>276.7757873535156</v>
+        <v>330.0299682617188</v>
       </c>
       <c r="DR3" t="n">
-        <v>277.299072265625</v>
+        <v>329.8032836914062</v>
       </c>
       <c r="DS3" t="n">
-        <v>277.5938720703125</v>
+        <v>328.7416381835938</v>
       </c>
       <c r="DT3" t="n">
-        <v>278.0281066894531</v>
+        <v>327.3315734863281</v>
       </c>
       <c r="DU3" t="n">
-        <v>279.1054077148438</v>
+        <v>327.2228088378906</v>
       </c>
       <c r="DV3" t="n">
-        <v>279.1148071289062</v>
+        <v>326.960693359375</v>
       </c>
       <c r="DW3" t="n">
-        <v>280.6589050292969</v>
+        <v>326.8947448730469</v>
       </c>
       <c r="DX3" t="n">
-        <v>281.8391723632812</v>
+        <v>326.8149108886719</v>
       </c>
       <c r="DY3" t="n">
-        <v>284.2630004882812</v>
+        <v>327.1226196289062</v>
       </c>
       <c r="DZ3" t="n">
-        <v>286.3294067382812</v>
+        <v>329.0590515136719</v>
       </c>
       <c r="EA3" t="n">
-        <v>286.77587890625</v>
+        <v>329.4116821289062</v>
       </c>
       <c r="EB3" t="n">
-        <v>289.8176879882812</v>
+        <v>328.954833984375</v>
       </c>
       <c r="EC3" t="n">
-        <v>293.4788513183594</v>
+        <v>328.3036193847656</v>
       </c>
       <c r="ED3" t="n">
-        <v>295.8418884277344</v>
+        <v>327.7322387695312</v>
       </c>
       <c r="EE3" t="n">
-        <v>295.8366394042969</v>
+        <v>326.6114501953125</v>
       </c>
       <c r="EF3" t="n">
-        <v>298.5457153320312</v>
+        <v>321.5173950195312</v>
       </c>
       <c r="EG3" t="n">
-        <v>300.1025085449219</v>
+        <v>316.5870666503906</v>
       </c>
       <c r="EH3" t="n">
-        <v>300.2218017578125</v>
+        <v>310.9317626953125</v>
       </c>
       <c r="EI3" t="n">
-        <v>300.3416442871094</v>
+        <v>309.9026184082031</v>
       </c>
       <c r="EJ3" t="n">
-        <v>300.3740844726562</v>
+        <v>309.1335144042969</v>
       </c>
       <c r="EK3" t="n">
-        <v>298.2705688476562</v>
+        <v>308.96044921875</v>
       </c>
       <c r="EL3" t="n">
-        <v>297.116943359375</v>
+        <v>309.8264770507812</v>
       </c>
       <c r="EM3" t="n">
-        <v>294.8352355957031</v>
+        <v>311.2982788085938</v>
       </c>
       <c r="EN3" t="n">
-        <v>293.2781372070312</v>
+        <v>313.2979125976562</v>
       </c>
       <c r="EO3" t="n">
-        <v>294.9647216796875</v>
+        <v>320.5924682617188</v>
       </c>
       <c r="EP3" t="n">
-        <v>296.0996704101562</v>
+        <v>321.9432678222656</v>
       </c>
       <c r="EQ3" t="n">
-        <v>301.8235778808594</v>
+        <v>326.5942993164062</v>
       </c>
       <c r="ER3" t="n">
-        <v>301.3977966308594</v>
+        <v>328.4512329101562</v>
       </c>
       <c r="ES3" t="n">
-        <v>302.9174499511719</v>
+        <v>328.78076171875</v>
       </c>
       <c r="ET3" t="n">
-        <v>307.1515502929688</v>
+        <v>328.9779663085938</v>
       </c>
       <c r="EU3" t="n">
-        <v>309.6681518554688</v>
+        <v>326.9927062988281</v>
       </c>
       <c r="EV3" t="n">
-        <v>307.8825073242188</v>
+        <v>325.0092163085938</v>
       </c>
       <c r="EW3" t="n">
-        <v>303.5755310058594</v>
+        <v>324.4743957519531</v>
       </c>
       <c r="EX3" t="n">
-        <v>303.2301940917969</v>
+        <v>323.1658630371094</v>
       </c>
       <c r="EY3" t="n">
-        <v>302.2142944335938</v>
+        <v>323.0256652832031</v>
       </c>
       <c r="EZ3" t="n">
-        <v>302.0161743164062</v>
+        <v>324.0679626464844</v>
       </c>
       <c r="FA3" t="n">
-        <v>303.8165893554688</v>
+        <v>324.957275390625</v>
       </c>
       <c r="FB3" t="n">
-        <v>306.6502380371094</v>
+        <v>325.9454040527344</v>
       </c>
       <c r="FC3" t="n">
-        <v>309.5447082519531</v>
+        <v>327.9145812988281</v>
       </c>
       <c r="FD3" t="n">
-        <v>310.8252868652344</v>
+        <v>329.0414733886719</v>
       </c>
       <c r="FE3" t="n">
-        <v>311.5129089355469</v>
+        <v>328.6148681640625</v>
       </c>
       <c r="FF3" t="n">
-        <v>312.3672790527344</v>
+        <v>328.5262451171875</v>
       </c>
       <c r="FG3" t="n">
-        <v>313.9723815917969</v>
+        <v>327.328125</v>
       </c>
       <c r="FH3" t="n">
-        <v>313.3979797363281</v>
+        <v>327.6230163574219</v>
       </c>
       <c r="FI3" t="n">
-        <v>313.8965454101562</v>
+        <v>327.2962951660156</v>
       </c>
       <c r="FJ3" t="n">
-        <v>315.3420104980469</v>
+        <v>326.0473327636719</v>
       </c>
       <c r="FK3" t="n">
-        <v>314.7702331542969</v>
+        <v>326.4472045898438</v>
       </c>
       <c r="FL3" t="n">
-        <v>315.1002502441406</v>
+        <v>326.7311401367188</v>
       </c>
       <c r="FM3" t="n">
-        <v>313.2828674316406</v>
+        <v>326.8221130371094</v>
       </c>
       <c r="FN3" t="n">
-        <v>312.4306945800781</v>
+        <v>325.5697326660156</v>
       </c>
       <c r="FO3" t="n">
-        <v>312.0851440429688</v>
+        <v>323.82958984375</v>
       </c>
       <c r="FP3" t="n">
-        <v>312.4791870117188</v>
+        <v>322.4021301269531</v>
       </c>
       <c r="FQ3" t="n">
-        <v>312.5477905273438</v>
+        <v>321.4396057128906</v>
       </c>
       <c r="FR3" t="n">
-        <v>312.3991394042969</v>
+        <v>317.2171936035156</v>
       </c>
       <c r="FS3" t="n">
-        <v>314.9023132324219</v>
+        <v>315.3441162109375</v>
       </c>
       <c r="FT3" t="n">
-        <v>314.7505798339844</v>
+        <v>312.0878295898438</v>
       </c>
       <c r="FU3" t="n">
-        <v>315.1338195800781</v>
+        <v>305.6225280761719</v>
       </c>
       <c r="FV3" t="n">
-        <v>316.0563659667969</v>
+        <v>299.6486511230469</v>
       </c>
       <c r="FW3" t="n">
-        <v>316.4782104492188</v>
+        <v>290.95458984375</v>
       </c>
       <c r="FX3" t="n">
-        <v>315.567138671875</v>
+        <v>289.0493469238281</v>
       </c>
       <c r="FY3" t="n">
-        <v>314.5916442871094</v>
+        <v>285.9691162109375</v>
       </c>
       <c r="FZ3" t="n">
-        <v>312.9018249511719</v>
+        <v>285.1619567871094</v>
       </c>
       <c r="GA3" t="n">
-        <v>312.1275634765625</v>
+        <v>286.6043701171875</v>
       </c>
       <c r="GB3" t="n">
-        <v>312.0002746582031</v>
+        <v>288.2860107421875</v>
       </c>
       <c r="GC3" t="n">
-        <v>312.2650146484375</v>
+        <v>293.8559265136719</v>
       </c>
       <c r="GD3" t="n">
-        <v>311.5940551757812</v>
+        <v>297.0787963867188</v>
       </c>
       <c r="GE3" t="n">
-        <v>311.7687072753906</v>
+        <v>303.7055053710938</v>
       </c>
       <c r="GF3" t="n">
-        <v>312.2066650390625</v>
+        <v>308.3111267089844</v>
       </c>
       <c r="GG3" t="n">
-        <v>313.7887878417969</v>
+        <v>308.5165100097656</v>
       </c>
       <c r="GH3" t="n">
-        <v>315.076904296875</v>
+        <v>309.38427734375</v>
       </c>
       <c r="GI3" t="n">
-        <v>315.9735717773438</v>
+        <v>308.5801696777344</v>
       </c>
       <c r="GJ3" t="n">
-        <v>316.7816772460938</v>
+        <v>308.35986328125</v>
       </c>
       <c r="GK3" t="n">
-        <v>315.8041381835938</v>
+        <v>308.3503112792969</v>
       </c>
       <c r="GL3" t="n">
-        <v>314.1729125976562</v>
+        <v>311.0477905273438</v>
       </c>
       <c r="GM3" t="n">
-        <v>314.7525939941406</v>
+        <v>317.4315490722656</v>
       </c>
       <c r="GN3" t="n">
-        <v>315.3013000488281</v>
+        <v>319.5899658203125</v>
       </c>
       <c r="GO3" t="n">
-        <v>315.2859191894531</v>
+        <v>317.6877136230469</v>
       </c>
       <c r="GP3" t="n">
-        <v>314.9096374511719</v>
+        <v>318.0710144042969</v>
       </c>
       <c r="GQ3" t="n">
-        <v>313.4287414550781</v>
+        <v>317.11181640625</v>
       </c>
       <c r="GR3" t="n">
-        <v>313.25244140625</v>
+        <v>315.8768615722656</v>
       </c>
       <c r="GS3" t="n">
-        <v>310.9560241699219</v>
+        <v>319.1629028320312</v>
       </c>
       <c r="GT3" t="n">
-        <v>309.630859375</v>
+        <v>321.1398315429688</v>
       </c>
       <c r="GU3" t="n">
-        <v>306.8472595214844</v>
+        <v>322.5487060546875</v>
       </c>
       <c r="GV3" t="n">
-        <v>306.9382019042969</v>
+        <v>322.3711242675781</v>
       </c>
       <c r="GW3" t="n">
-        <v>307.0988159179688</v>
+        <v>321.7326354980469</v>
       </c>
       <c r="GX3" t="n">
-        <v>305.6097412109375</v>
+        <v>317.7808532714844</v>
       </c>
       <c r="GY3" t="n">
-        <v>306.8243408203125</v>
+        <v>315.3921813964844</v>
       </c>
       <c r="GZ3" t="n">
-        <v>306.7687072753906</v>
+        <v>313.1528015136719</v>
       </c>
       <c r="HA3" t="n">
-        <v>306.21923828125</v>
+        <v>320.6405944824219</v>
       </c>
       <c r="HB3" t="n">
-        <v>305.7663269042969</v>
+        <v>325.4272766113281</v>
       </c>
       <c r="HC3" t="n">
-        <v>303.7772827148438</v>
+        <v>328.31689453125</v>
       </c>
       <c r="HD3" t="n">
-        <v>302.4883117675781</v>
+        <v>340.1609191894531</v>
       </c>
       <c r="HE3" t="n">
-        <v>302.3639831542969</v>
+        <v>323.9270935058594</v>
       </c>
       <c r="HF3" t="n">
-        <v>300.6569213867188</v>
+        <v>321.6367492675781</v>
       </c>
       <c r="HG3" t="n">
-        <v>299.8590087890625</v>
+        <v>330.7660217285156</v>
       </c>
       <c r="HH3" t="n">
-        <v>293.3524475097656</v>
+        <v>341.4873962402344</v>
       </c>
       <c r="HI3" t="n">
-        <v>302.6947937011719</v>
+        <v>359.0952453613281</v>
       </c>
       <c r="HJ3" t="n">
-        <v>304.032958984375</v>
+        <v>365.0090637207031</v>
       </c>
       <c r="HK3" t="n">
-        <v>307.5731201171875</v>
+        <v>365.6004028320312</v>
       </c>
       <c r="HL3" t="n">
-        <v>308.3724060058594</v>
+        <v>365.4747924804688</v>
       </c>
       <c r="HM3" t="n">
-        <v>309.10595703125</v>
+        <v>358.0949096679688</v>
       </c>
       <c r="HN3" t="n">
-        <v>313.2089233398438</v>
+        <v>351.5845947265625</v>
       </c>
       <c r="HO3" t="n">
-        <v>314.2546997070312</v>
+        <v>354.4353942871094</v>
       </c>
       <c r="HP3" t="n">
-        <v>314.0371704101562</v>
+        <v>358.7088623046875</v>
       </c>
       <c r="HQ3" t="n">
-        <v>315.1296081542969</v>
+        <v>355.0973510742188</v>
       </c>
       <c r="HR3" t="n">
-        <v>314.4644165039062</v>
+        <v>351.7743835449219</v>
       </c>
       <c r="HS3" t="n">
-        <v>312.7509155273438</v>
+        <v>362.2540283203125</v>
       </c>
       <c r="HT3" t="n">
-        <v>311.4486083984375</v>
+        <v>368.5595703125</v>
       </c>
       <c r="HU3" t="n">
-        <v>311.9424438476562</v>
+        <v>371.907958984375</v>
       </c>
       <c r="HV3" t="n">
-        <v>312.7353210449219</v>
+        <v>382.2451782226562</v>
       </c>
       <c r="HW3" t="n">
-        <v>316.3822631835938</v>
+        <v>403.4879455566406</v>
       </c>
       <c r="HX3" t="n">
-        <v>318.5802612304688</v>
+        <v>420.8524780273438</v>
       </c>
       <c r="HY3" t="n">
-        <v>319.3198547363281</v>
+        <v>385.1274719238281</v>
       </c>
       <c r="HZ3" t="n">
-        <v>320.9653930664062</v>
+        <v>437.2763366699219</v>
       </c>
       <c r="IA3" t="n">
-        <v>322.8165588378906</v>
+        <v>437.6902465820312</v>
       </c>
       <c r="IB3" t="n">
-        <v>323.5420227050781</v>
+        <v>446.8959655761719</v>
       </c>
       <c r="IC3" t="n">
-        <v>324.2781982421875</v>
+        <v>456.6758728027344</v>
       </c>
       <c r="ID3" t="n">
-        <v>325.0102233886719</v>
+        <v>466.0076904296875</v>
       </c>
       <c r="IE3" t="n">
-        <v>324.8923034667969</v>
+        <v>469.4332275390625</v>
       </c>
       <c r="IF3" t="n">
-        <v>325.1642456054688</v>
+        <v>472.1948547363281</v>
       </c>
       <c r="IG3" t="n">
-        <v>325.1200866699219</v>
+        <v>475.1506042480469</v>
       </c>
       <c r="IH3" t="n">
-        <v>323.1382446289062</v>
+        <v>476.0338134765625</v>
       </c>
       <c r="II3" t="n">
-        <v>324.4952697753906</v>
+        <v>478.2713928222656</v>
       </c>
       <c r="IJ3" t="n">
-        <v>323.1048583984375</v>
+        <v>478.2497863769531</v>
       </c>
       <c r="IK3" t="n">
-        <v>323.1898803710938</v>
+        <v>483.2458190917969</v>
       </c>
       <c r="IL3" t="n">
-        <v>323.2366333007812</v>
+        <v>487.682373046875</v>
       </c>
       <c r="IM3" t="n">
-        <v>322.8891906738281</v>
+        <v>495.6432189941406</v>
       </c>
       <c r="IN3" t="n">
-        <v>323.1683959960938</v>
+        <v>522.2764282226562</v>
       </c>
       <c r="IO3" t="n">
-        <v>321.3790283203125</v>
+        <v>522.8834228515625</v>
       </c>
       <c r="IP3" t="n">
-        <v>322.0989685058594</v>
+        <v>521.5626831054688</v>
       </c>
       <c r="IQ3" t="n">
-        <v>317.1518859863281</v>
+        <v>545.05126953125</v>
       </c>
       <c r="IR3" t="n">
-        <v>312.4844665527344</v>
+        <v>547.8865966796875</v>
       </c>
       <c r="IS3" t="n">
-        <v>312.3529663085938</v>
+        <v>536.0703125</v>
       </c>
       <c r="IT3" t="n">
-        <v>311.8789978027344</v>
+        <v>525.2601318359375</v>
       </c>
       <c r="IU3" t="n">
-        <v>310.8742980957031</v>
+        <v>513.7564697265625</v>
       </c>
       <c r="IV3" t="n">
-        <v>309.1856079101562</v>
+        <v>499.8099060058594</v>
       </c>
       <c r="IW3" t="n">
-        <v>308.2682189941406</v>
+        <v>497.1639099121094</v>
       </c>
       <c r="IX3" t="n">
-        <v>306.8822326660156</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>306.2015075683594</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>305.0991516113281</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>303.5456237792969</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>304.2939453125</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>307.467529296875</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>306.9580383300781</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>307.3256530761719</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>306.45458984375</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>308.8792419433594</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>310.9032592773438</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>308.582763671875</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>310.0756530761719</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>310.0613403320312</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>312.3813781738281</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>308.5134582519531</v>
-      </c>
-      <c r="JN3" t="n">
-        <v>310.2042236328125</v>
-      </c>
-      <c r="JO3" t="n">
-        <v>310.8979187011719</v>
-      </c>
-      <c r="JP3" t="n">
-        <v>311.2787170410156</v>
-      </c>
-      <c r="JQ3" t="n">
-        <v>311.1238403320312</v>
-      </c>
-      <c r="JR3" t="n">
-        <v>311.8999328613281</v>
-      </c>
-      <c r="JS3" t="n">
-        <v>312.8438110351562</v>
-      </c>
-      <c r="JT3" t="n">
-        <v>313.3467712402344</v>
-      </c>
-      <c r="JU3" t="n">
-        <v>313.7537536621094</v>
-      </c>
-      <c r="JV3" t="n">
-        <v>314.1313171386719</v>
-      </c>
-      <c r="JW3" t="n">
-        <v>314.546875</v>
-      </c>
-      <c r="JX3" t="n">
-        <v>315.3162231445312</v>
-      </c>
-      <c r="JY3" t="n">
-        <v>315.913818359375</v>
-      </c>
-      <c r="JZ3" t="n">
-        <v>315.9541625976562</v>
-      </c>
-      <c r="KA3" t="n">
-        <v>315.7778625488281</v>
-      </c>
-      <c r="KB3" t="n">
-        <v>314.7837219238281</v>
-      </c>
-      <c r="KC3" t="n">
-        <v>310.2760620117188</v>
-      </c>
-      <c r="KD3" t="n">
-        <v>299.8387145996094</v>
-      </c>
-      <c r="KE3" t="n">
-        <v>290.3612670898438</v>
-      </c>
-      <c r="KF3" t="n">
-        <v>276.3154907226562</v>
-      </c>
-      <c r="KG3" t="n">
-        <v>265.5121765136719</v>
-      </c>
-      <c r="KH3" t="n">
-        <v>263.1500854492188</v>
-      </c>
-      <c r="KI3" t="n">
-        <v>263.0142517089844</v>
-      </c>
-      <c r="KJ3" t="n">
-        <v>264.1618957519531</v>
-      </c>
-      <c r="KK3" t="n">
-        <v>271.2735290527344</v>
-      </c>
-      <c r="KL3" t="n">
-        <v>280.0792541503906</v>
-      </c>
-      <c r="KM3" t="n">
-        <v>288.3692932128906</v>
-      </c>
-      <c r="KN3" t="n">
-        <v>294.1077575683594</v>
-      </c>
-      <c r="KO3" t="n">
-        <v>300.2370300292969</v>
-      </c>
-      <c r="KP3" t="n">
-        <v>303.9486083984375</v>
-      </c>
-      <c r="KQ3" t="n">
-        <v>311.5322265625</v>
-      </c>
-      <c r="KR3" t="n">
-        <v>314.0859680175781</v>
-      </c>
-      <c r="KS3" t="n">
-        <v>314.0874328613281</v>
-      </c>
-      <c r="KT3" t="n">
-        <v>314.4857482910156</v>
-      </c>
-      <c r="KU3" t="n">
-        <v>314.3206176757812</v>
-      </c>
-      <c r="KV3" t="n">
-        <v>314.3835144042969</v>
-      </c>
-      <c r="KW3" t="n">
-        <v>314.3493957519531</v>
-      </c>
-      <c r="KX3" t="n">
-        <v>313.8021850585938</v>
-      </c>
-      <c r="KY3" t="n">
-        <v>313.9681091308594</v>
-      </c>
-      <c r="KZ3" t="n">
-        <v>314.0894165039062</v>
-      </c>
-      <c r="LA3" t="n">
-        <v>314.7960815429688</v>
-      </c>
-      <c r="LB3" t="n">
-        <v>315.3361206054688</v>
-      </c>
-      <c r="LC3" t="n">
-        <v>315.942626953125</v>
-      </c>
-      <c r="LD3" t="n">
-        <v>316.7078552246094</v>
-      </c>
-      <c r="LE3" t="n">
-        <v>314.7838745117188</v>
-      </c>
-      <c r="LF3" t="n">
-        <v>314.1814575195312</v>
-      </c>
-      <c r="LG3" t="n">
-        <v>315.3937377929688</v>
-      </c>
-      <c r="LH3" t="n">
-        <v>314.1033020019531</v>
-      </c>
-      <c r="LI3" t="n">
-        <v>311.9150695800781</v>
-      </c>
-      <c r="LJ3" t="n">
-        <v>308.7544860839844</v>
-      </c>
-      <c r="LK3" t="n">
-        <v>306.9436950683594</v>
-      </c>
-      <c r="LL3" t="n">
-        <v>305.950927734375</v>
-      </c>
-      <c r="LM3" t="n">
-        <v>304.8941345214844</v>
-      </c>
-      <c r="LN3" t="n">
-        <v>299.2137451171875</v>
-      </c>
-      <c r="LO3" t="n">
-        <v>297.3307495117188</v>
-      </c>
-      <c r="LP3" t="n">
-        <v>294.2982482910156</v>
-      </c>
-      <c r="LQ3" t="n">
-        <v>295.0143432617188</v>
-      </c>
-      <c r="LR3" t="n">
-        <v>299.4959716796875</v>
-      </c>
-      <c r="LS3" t="n">
-        <v>299.9327392578125</v>
-      </c>
-      <c r="LT3" t="n">
-        <v>295.5752563476562</v>
-      </c>
-      <c r="LU3" t="n">
-        <v>290.1446838378906</v>
-      </c>
-      <c r="LV3" t="n">
-        <v>284.206298828125</v>
-      </c>
-      <c r="LW3" t="n">
-        <v>278.7158813476562</v>
-      </c>
-      <c r="LX3" t="n">
-        <v>281.1766967773438</v>
-      </c>
-      <c r="LY3" t="n">
-        <v>273.6406860351562</v>
-      </c>
-      <c r="LZ3" t="n">
-        <v>267.3413696289062</v>
-      </c>
-      <c r="MA3" t="n">
-        <v>273.8978881835938</v>
-      </c>
-      <c r="MB3" t="n">
-        <v>282.3944396972656</v>
-      </c>
-      <c r="MC3" t="n">
-        <v>290.9241943359375</v>
-      </c>
-      <c r="MD3" t="n">
-        <v>286.982421875</v>
-      </c>
-      <c r="ME3" t="n">
-        <v>280.0130310058594</v>
-      </c>
-      <c r="MF3" t="n">
-        <v>280.8670959472656</v>
-      </c>
-      <c r="MG3" t="n">
-        <v>300.0113525390625</v>
-      </c>
-      <c r="MH3" t="n">
-        <v>314.81591796875</v>
-      </c>
-      <c r="MI3" t="n">
-        <v>317.6114196777344</v>
-      </c>
-      <c r="MJ3" t="n">
-        <v>336.459228515625</v>
-      </c>
-      <c r="MK3" t="n">
-        <v>339.1284790039062</v>
-      </c>
-      <c r="ML3" t="n">
-        <v>338.3134155273438</v>
-      </c>
-      <c r="MM3" t="n">
-        <v>379.6156616210938</v>
-      </c>
-      <c r="MN3" t="n">
-        <v>379.48046875</v>
-      </c>
-      <c r="MO3" t="n">
-        <v>390.7955017089844</v>
-      </c>
-      <c r="MP3" t="n">
-        <v>403.9146118164062</v>
-      </c>
-      <c r="MQ3" t="n">
-        <v>424.4465637207031</v>
-      </c>
-      <c r="MR3" t="n">
-        <v>475.5723876953125</v>
-      </c>
-      <c r="MS3" t="n">
-        <v>415.0562133789062</v>
-      </c>
-      <c r="MT3" t="n">
-        <v>516.8109741210938</v>
-      </c>
-      <c r="MU3" t="n">
-        <v>561.5728759765625</v>
-      </c>
-      <c r="MV3" t="n">
-        <v>306.9485778808594</v>
-      </c>
-      <c r="MW3" t="n">
-        <v>379.3585205078125</v>
-      </c>
-      <c r="MX3" t="n">
-        <v>437.6826782226562</v>
-      </c>
-      <c r="MY3" t="n">
-        <v>439.6321716308594</v>
-      </c>
-      <c r="MZ3" t="n">
-        <v>445.7740173339844</v>
-      </c>
-      <c r="NA3" t="n">
-        <v>449.917236328125</v>
-      </c>
-      <c r="NB3" t="n">
-        <v>446.9945983886719</v>
-      </c>
-      <c r="NC3" t="n">
-        <v>440.84423828125</v>
-      </c>
-      <c r="ND3" t="n">
-        <v>436.42529296875</v>
-      </c>
-      <c r="NE3" t="n">
-        <v>433.1005859375</v>
-      </c>
-      <c r="NF3" t="n">
-        <v>434.8519287109375</v>
-      </c>
-      <c r="NG3" t="n">
-        <v>431.09814453125</v>
-      </c>
-      <c r="NH3" t="n">
-        <v>431.5439758300781</v>
-      </c>
-      <c r="NI3" t="n">
-        <v>424.1782836914062</v>
-      </c>
-      <c r="NJ3" t="n">
-        <v>421.8358154296875</v>
-      </c>
-      <c r="NK3" t="n">
-        <v>424.4909973144531</v>
-      </c>
-      <c r="NL3" t="n">
-        <v>348.2270812988281</v>
-      </c>
-      <c r="NM3" t="n">
-        <v>355.62158203125</v>
+        <v>491.5452575683594</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1128.807983398438</v>
+        <v>1025.729858398438</v>
       </c>
       <c r="B4" t="n">
-        <v>1140.637817382812</v>
+        <v>1079.3583984375</v>
       </c>
       <c r="C4" t="n">
-        <v>1154.69970703125</v>
+        <v>1131.148071289062</v>
       </c>
       <c r="D4" t="n">
-        <v>1158.02783203125</v>
+        <v>1141.757690429688</v>
       </c>
       <c r="E4" t="n">
-        <v>1155.580810546875</v>
+        <v>1122.581420898438</v>
       </c>
       <c r="F4" t="n">
-        <v>1151.085327148438</v>
+        <v>1130.904052734375</v>
       </c>
       <c r="G4" t="n">
-        <v>1153.016967773438</v>
+        <v>1138.974365234375</v>
       </c>
       <c r="H4" t="n">
-        <v>1155.133056640625</v>
+        <v>1157.951538085938</v>
       </c>
       <c r="I4" t="n">
-        <v>1155.205078125</v>
+        <v>1174.6005859375</v>
       </c>
       <c r="J4" t="n">
-        <v>1149.07958984375</v>
+        <v>1194.921630859375</v>
       </c>
       <c r="K4" t="n">
-        <v>1127.621459960938</v>
+        <v>1216.638793945312</v>
       </c>
       <c r="L4" t="n">
-        <v>1113.99462890625</v>
+        <v>1231.347045898438</v>
       </c>
       <c r="M4" t="n">
-        <v>1171.882446289062</v>
+        <v>1248.986328125</v>
       </c>
       <c r="N4" t="n">
-        <v>1182.545043945312</v>
+        <v>1268.198120117188</v>
       </c>
       <c r="O4" t="n">
-        <v>1216.685302734375</v>
+        <v>1495.31494140625</v>
       </c>
       <c r="P4" t="n">
-        <v>1229.715576171875</v>
+        <v>1514.342895507812</v>
       </c>
       <c r="Q4" t="n">
-        <v>1241.720947265625</v>
+        <v>1545.920532226562</v>
       </c>
       <c r="R4" t="n">
-        <v>1245.699829101562</v>
+        <v>1572.980346679688</v>
       </c>
       <c r="S4" t="n">
-        <v>1251.306518554688</v>
+        <v>1590.064819335938</v>
       </c>
       <c r="T4" t="n">
-        <v>1261.064453125</v>
+        <v>1602.13525390625</v>
       </c>
       <c r="U4" t="n">
-        <v>1272.323120117188</v>
+        <v>1622.78466796875</v>
       </c>
       <c r="V4" t="n">
-        <v>1274.1259765625</v>
+        <v>1652.360961914062</v>
       </c>
       <c r="W4" t="n">
-        <v>1275.15234375</v>
+        <v>1671.337646484375</v>
       </c>
       <c r="X4" t="n">
-        <v>1278.8330078125</v>
+        <v>1693.689331054688</v>
       </c>
       <c r="Y4" t="n">
-        <v>1281.128662109375</v>
+        <v>1716.85888671875</v>
       </c>
       <c r="Z4" t="n">
-        <v>1284.935546875</v>
+        <v>1732.077392578125</v>
       </c>
       <c r="AA4" t="n">
-        <v>1286.544921875</v>
+        <v>1757.215576171875</v>
       </c>
       <c r="AB4" t="n">
-        <v>1296.571166992188</v>
+        <v>1782.241577148438</v>
       </c>
       <c r="AC4" t="n">
-        <v>1312.252685546875</v>
+        <v>1801.026489257812</v>
       </c>
       <c r="AD4" t="n">
-        <v>1333.263427734375</v>
+        <v>1823.479614257812</v>
       </c>
       <c r="AE4" t="n">
-        <v>1361.810913085938</v>
+        <v>1833.754272460938</v>
       </c>
       <c r="AF4" t="n">
-        <v>1385.8740234375</v>
+        <v>1852.174072265625</v>
       </c>
       <c r="AG4" t="n">
-        <v>1399.535034179688</v>
+        <v>1874.475219726562</v>
       </c>
       <c r="AH4" t="n">
-        <v>1428.08447265625</v>
+        <v>1895.61865234375</v>
       </c>
       <c r="AI4" t="n">
-        <v>1453.73974609375</v>
+        <v>1910.544921875</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1467.559448242188</v>
+        <v>1926.422607421875</v>
       </c>
       <c r="AK4" t="n">
-        <v>1472.615966796875</v>
+        <v>1959.783325195312</v>
       </c>
       <c r="AL4" t="n">
-        <v>1478.087646484375</v>
+        <v>1956.455200195312</v>
       </c>
       <c r="AM4" t="n">
-        <v>1476.971069335938</v>
+        <v>1957.19384765625</v>
       </c>
       <c r="AN4" t="n">
-        <v>1476.937744140625</v>
+        <v>1960.0732421875</v>
       </c>
       <c r="AO4" t="n">
-        <v>1477.251098632812</v>
+        <v>1965.023071289062</v>
       </c>
       <c r="AP4" t="n">
-        <v>1477.51708984375</v>
+        <v>1972.750610351562</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1477.390747070312</v>
+        <v>1979.408813476562</v>
       </c>
       <c r="AR4" t="n">
-        <v>1477.056518554688</v>
+        <v>1982.944580078125</v>
       </c>
       <c r="AS4" t="n">
-        <v>1475.964599609375</v>
+        <v>1982.621459960938</v>
       </c>
       <c r="AT4" t="n">
-        <v>1470.075073242188</v>
+        <v>1983.720703125</v>
       </c>
       <c r="AU4" t="n">
-        <v>1451.930908203125</v>
+        <v>1984.956298828125</v>
       </c>
       <c r="AV4" t="n">
-        <v>1420.275146484375</v>
+        <v>1986.34814453125</v>
       </c>
       <c r="AW4" t="n">
-        <v>1396.666015625</v>
+        <v>1987.570190429688</v>
       </c>
       <c r="AX4" t="n">
-        <v>1386.310913085938</v>
+        <v>1988.2919921875</v>
       </c>
       <c r="AY4" t="n">
-        <v>1363.02099609375</v>
+        <v>1989.27880859375</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1344.675537109375</v>
+        <v>1994.18994140625</v>
       </c>
       <c r="BA4" t="n">
-        <v>1323.4453125</v>
+        <v>2002.572875976562</v>
       </c>
       <c r="BB4" t="n">
-        <v>1311.281005859375</v>
+        <v>2023.183349609375</v>
       </c>
       <c r="BC4" t="n">
-        <v>1292.61572265625</v>
+        <v>2025.712280273438</v>
       </c>
       <c r="BD4" t="n">
-        <v>1280.707763671875</v>
+        <v>2032.928955078125</v>
       </c>
       <c r="BE4" t="n">
-        <v>1268.109130859375</v>
+        <v>2030.622680664062</v>
       </c>
       <c r="BF4" t="n">
-        <v>1263.27587890625</v>
+        <v>2030.933471679688</v>
       </c>
       <c r="BG4" t="n">
-        <v>1252.048461914062</v>
+        <v>2031.101806640625</v>
       </c>
       <c r="BH4" t="n">
-        <v>1240.333129882812</v>
+        <v>2031.16064453125</v>
       </c>
       <c r="BI4" t="n">
-        <v>1234.47314453125</v>
+        <v>2030.93408203125</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1231.572998046875</v>
+        <v>2032.618774414062</v>
       </c>
       <c r="BK4" t="n">
-        <v>1229.0859375</v>
+        <v>2035.343627929688</v>
       </c>
       <c r="BL4" t="n">
-        <v>1231.4716796875</v>
+        <v>2039.811767578125</v>
       </c>
       <c r="BM4" t="n">
-        <v>1235.129516601562</v>
+        <v>2046.538452148438</v>
       </c>
       <c r="BN4" t="n">
-        <v>1232.532958984375</v>
+        <v>2049.251953125</v>
       </c>
       <c r="BO4" t="n">
-        <v>1225.724975585938</v>
+        <v>2049.89697265625</v>
       </c>
       <c r="BP4" t="n">
-        <v>1223.023315429688</v>
+        <v>2050.961669921875</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1223.076782226562</v>
+        <v>2051.056884765625</v>
       </c>
       <c r="BR4" t="n">
-        <v>1223.340942382812</v>
+        <v>2051.13134765625</v>
       </c>
       <c r="BS4" t="n">
-        <v>1223.360717773438</v>
+        <v>2051.372802734375</v>
       </c>
       <c r="BT4" t="n">
-        <v>1223.062377929688</v>
+        <v>2052.015625</v>
       </c>
       <c r="BU4" t="n">
-        <v>1222.228515625</v>
+        <v>2052.772216796875</v>
       </c>
       <c r="BV4" t="n">
-        <v>1222.3369140625</v>
+        <v>2052.989013671875</v>
       </c>
       <c r="BW4" t="n">
-        <v>1223.940795898438</v>
+        <v>2053.5751953125</v>
       </c>
       <c r="BX4" t="n">
-        <v>1225.009521484375</v>
+        <v>2052.839599609375</v>
       </c>
       <c r="BY4" t="n">
-        <v>1226.786987304688</v>
+        <v>2050.17724609375</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1228.084838867188</v>
+        <v>2046.434936523438</v>
       </c>
       <c r="CA4" t="n">
-        <v>1228.089965820312</v>
+        <v>2037.876953125</v>
       </c>
       <c r="CB4" t="n">
-        <v>1226.845336914062</v>
+        <v>2027.917236328125</v>
       </c>
       <c r="CC4" t="n">
-        <v>1223.871337890625</v>
+        <v>2024.230834960938</v>
       </c>
       <c r="CD4" t="n">
-        <v>1217.2138671875</v>
+        <v>2021.377563476562</v>
       </c>
       <c r="CE4" t="n">
-        <v>1199.329711914062</v>
+        <v>2020.997924804688</v>
       </c>
       <c r="CF4" t="n">
-        <v>1195.852172851562</v>
+        <v>2020.42138671875</v>
       </c>
       <c r="CG4" t="n">
-        <v>1193.546508789062</v>
+        <v>2018.794921875</v>
       </c>
       <c r="CH4" t="n">
-        <v>1193.424682617188</v>
+        <v>2015.829956054688</v>
       </c>
       <c r="CI4" t="n">
-        <v>1193.256469726562</v>
+        <v>2015.2744140625</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1192.600830078125</v>
+        <v>2014.654418945312</v>
       </c>
       <c r="CK4" t="n">
-        <v>1191.958251953125</v>
+        <v>2014.463012695312</v>
       </c>
       <c r="CL4" t="n">
-        <v>1190.01611328125</v>
+        <v>2014.281616210938</v>
       </c>
       <c r="CM4" t="n">
-        <v>1185.289794921875</v>
+        <v>2013.960693359375</v>
       </c>
       <c r="CN4" t="n">
-        <v>1157.94091796875</v>
+        <v>2013.171264648438</v>
       </c>
       <c r="CO4" t="n">
-        <v>1151.879638671875</v>
+        <v>2011.3642578125</v>
       </c>
       <c r="CP4" t="n">
-        <v>1145.842895507812</v>
+        <v>2009.311767578125</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1140.734008789062</v>
+        <v>2006.765014648438</v>
       </c>
       <c r="CR4" t="n">
-        <v>1137.843383789062</v>
+        <v>2003.735595703125</v>
       </c>
       <c r="CS4" t="n">
-        <v>1130.244995117188</v>
+        <v>2003.657592773438</v>
       </c>
       <c r="CT4" t="n">
-        <v>1129.781860351562</v>
+        <v>2003.757934570312</v>
       </c>
       <c r="CU4" t="n">
-        <v>1134.915771484375</v>
+        <v>2004.339477539062</v>
       </c>
       <c r="CV4" t="n">
-        <v>1141.481811523438</v>
+        <v>2004.458984375</v>
       </c>
       <c r="CW4" t="n">
-        <v>1151.739013671875</v>
+        <v>2004.995239257812</v>
       </c>
       <c r="CX4" t="n">
-        <v>1181.671875</v>
+        <v>2006.25</v>
       </c>
       <c r="CY4" t="n">
-        <v>1188.458862304688</v>
+        <v>2002.763305664062</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1221.31640625</v>
+        <v>2004.875122070312</v>
       </c>
       <c r="DA4" t="n">
-        <v>1230.522338867188</v>
+        <v>2015.798095703125</v>
       </c>
       <c r="DB4" t="n">
-        <v>1239.153442382812</v>
+        <v>2015.588623046875</v>
       </c>
       <c r="DC4" t="n">
-        <v>1243.53515625</v>
+        <v>2014.978881835938</v>
       </c>
       <c r="DD4" t="n">
-        <v>1247.332763671875</v>
+        <v>2016.59765625</v>
       </c>
       <c r="DE4" t="n">
-        <v>1256.68212890625</v>
+        <v>2017.961791992188</v>
       </c>
       <c r="DF4" t="n">
-        <v>1256.693725585938</v>
+        <v>2019.4287109375</v>
       </c>
       <c r="DG4" t="n">
-        <v>1257.11181640625</v>
+        <v>2017.213989257812</v>
       </c>
       <c r="DH4" t="n">
-        <v>1256.66455078125</v>
+        <v>2011.615234375</v>
       </c>
       <c r="DI4" t="n">
-        <v>1255.655395507812</v>
+        <v>2001.9267578125</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1251.824829101562</v>
+        <v>2003.1552734375</v>
       </c>
       <c r="DK4" t="n">
-        <v>1246.3427734375</v>
+        <v>2003.952026367188</v>
       </c>
       <c r="DL4" t="n">
-        <v>1244.947631835938</v>
+        <v>2002.529174804688</v>
       </c>
       <c r="DM4" t="n">
-        <v>1245.348510742188</v>
+        <v>2001.595703125</v>
       </c>
       <c r="DN4" t="n">
-        <v>1245.789794921875</v>
+        <v>1999.721435546875</v>
       </c>
       <c r="DO4" t="n">
-        <v>1245.77392578125</v>
+        <v>1999.214477539062</v>
       </c>
       <c r="DP4" t="n">
-        <v>1245.787963867188</v>
+        <v>1994.075561523438</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1245.792236328125</v>
+        <v>1970.868408203125</v>
       </c>
       <c r="DR4" t="n">
-        <v>1245.729736328125</v>
+        <v>1983.6611328125</v>
       </c>
       <c r="DS4" t="n">
-        <v>1245.63623046875</v>
+        <v>1992.654296875</v>
       </c>
       <c r="DT4" t="n">
-        <v>1245.277099609375</v>
+        <v>1990.474731445312</v>
       </c>
       <c r="DU4" t="n">
-        <v>1244.660400390625</v>
+        <v>1988.036499023438</v>
       </c>
       <c r="DV4" t="n">
-        <v>1244.398193359375</v>
+        <v>1989.433349609375</v>
       </c>
       <c r="DW4" t="n">
-        <v>1243.398071289062</v>
+        <v>1990.49072265625</v>
       </c>
       <c r="DX4" t="n">
-        <v>1242.624389648438</v>
+        <v>1990.915649414062</v>
       </c>
       <c r="DY4" t="n">
-        <v>1241.520629882812</v>
+        <v>1991.231323242188</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1240.124877929688</v>
+        <v>1991.49755859375</v>
       </c>
       <c r="EA4" t="n">
-        <v>1242.754272460938</v>
+        <v>1988.5068359375</v>
       </c>
       <c r="EB4" t="n">
-        <v>1248.2392578125</v>
+        <v>1994.84521484375</v>
       </c>
       <c r="EC4" t="n">
-        <v>1252.011596679688</v>
+        <v>2007.223876953125</v>
       </c>
       <c r="ED4" t="n">
-        <v>1261.992431640625</v>
+        <v>2040.3525390625</v>
       </c>
       <c r="EE4" t="n">
-        <v>1292.28857421875</v>
+        <v>2053.729736328125</v>
       </c>
       <c r="EF4" t="n">
-        <v>1293.858032226562</v>
+        <v>2059.5341796875</v>
       </c>
       <c r="EG4" t="n">
-        <v>1313.965087890625</v>
+        <v>2068.684814453125</v>
       </c>
       <c r="EH4" t="n">
-        <v>1327.340454101562</v>
+        <v>2082.406005859375</v>
       </c>
       <c r="EI4" t="n">
-        <v>1353.049194335938</v>
+        <v>2079.59326171875</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1362.329345703125</v>
+        <v>2080.92578125</v>
       </c>
       <c r="EK4" t="n">
-        <v>1376.608642578125</v>
+        <v>2078.6484375</v>
       </c>
       <c r="EL4" t="n">
-        <v>1388.722045898438</v>
+        <v>2054.97998046875</v>
       </c>
       <c r="EM4" t="n">
-        <v>1405.452758789062</v>
+        <v>2049.1142578125</v>
       </c>
       <c r="EN4" t="n">
-        <v>1411.309936523438</v>
+        <v>2048.55712890625</v>
       </c>
       <c r="EO4" t="n">
-        <v>1443.933959960938</v>
+        <v>2033.168701171875</v>
       </c>
       <c r="EP4" t="n">
-        <v>1461.4404296875</v>
+        <v>2031.802001953125</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1508.76025390625</v>
+        <v>2021.327392578125</v>
       </c>
       <c r="ER4" t="n">
-        <v>1536.328979492188</v>
+        <v>2012.003051757812</v>
       </c>
       <c r="ES4" t="n">
-        <v>1579.865478515625</v>
+        <v>2008.645874023438</v>
       </c>
       <c r="ET4" t="n">
-        <v>1606.032470703125</v>
+        <v>2005.313720703125</v>
       </c>
       <c r="EU4" t="n">
-        <v>1618.625610351562</v>
+        <v>2009.796997070312</v>
       </c>
       <c r="EV4" t="n">
-        <v>1662.267700195312</v>
+        <v>2009.986083984375</v>
       </c>
       <c r="EW4" t="n">
-        <v>1722.775146484375</v>
+        <v>2010.062622070312</v>
       </c>
       <c r="EX4" t="n">
-        <v>1770.751586914062</v>
+        <v>2007.835327148438</v>
       </c>
       <c r="EY4" t="n">
-        <v>1797.697631835938</v>
+        <v>2005.190063476562</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1819.26171875</v>
+        <v>1960.150390625</v>
       </c>
       <c r="FA4" t="n">
-        <v>1850.620727539062</v>
+        <v>1935.281616210938</v>
       </c>
       <c r="FB4" t="n">
-        <v>1862.600219726562</v>
+        <v>1916.56787109375</v>
       </c>
       <c r="FC4" t="n">
-        <v>1879.200927734375</v>
+        <v>1871.395141601562</v>
       </c>
       <c r="FD4" t="n">
-        <v>1897.434692382812</v>
+        <v>1826.720703125</v>
       </c>
       <c r="FE4" t="n">
-        <v>1907.581420898438</v>
+        <v>1805.39697265625</v>
       </c>
       <c r="FF4" t="n">
-        <v>1938.7109375</v>
+        <v>1738.816772460938</v>
       </c>
       <c r="FG4" t="n">
-        <v>1977.539794921875</v>
+        <v>1719.131103515625</v>
       </c>
       <c r="FH4" t="n">
-        <v>1991.938842773438</v>
+        <v>1684.745239257812</v>
       </c>
       <c r="FI4" t="n">
-        <v>2016.60888671875</v>
+        <v>1666.998413085938</v>
       </c>
       <c r="FJ4" t="n">
-        <v>2026.06884765625</v>
+        <v>1637.631713867188</v>
       </c>
       <c r="FK4" t="n">
-        <v>2055.025634765625</v>
+        <v>1602.5849609375</v>
       </c>
       <c r="FL4" t="n">
-        <v>2078.946533203125</v>
+        <v>1585.616088867188</v>
       </c>
       <c r="FM4" t="n">
-        <v>2158.125244140625</v>
+        <v>1567.131225585938</v>
       </c>
       <c r="FN4" t="n">
-        <v>2178.450927734375</v>
+        <v>1559.344116210938</v>
       </c>
       <c r="FO4" t="n">
-        <v>2173.9755859375</v>
+        <v>1557.030029296875</v>
       </c>
       <c r="FP4" t="n">
-        <v>2209.203369140625</v>
+        <v>1552.531982421875</v>
       </c>
       <c r="FQ4" t="n">
-        <v>2230.11767578125</v>
+        <v>1546.42333984375</v>
       </c>
       <c r="FR4" t="n">
-        <v>2256.530517578125</v>
+        <v>1514.491821289062</v>
       </c>
       <c r="FS4" t="n">
-        <v>2251.12109375</v>
+        <v>1499.856567382812</v>
       </c>
       <c r="FT4" t="n">
-        <v>2259.448974609375</v>
+        <v>1463.33056640625</v>
       </c>
       <c r="FU4" t="n">
-        <v>2260.400634765625</v>
+        <v>1434.264892578125</v>
       </c>
       <c r="FV4" t="n">
-        <v>2277.78955078125</v>
+        <v>1396.917358398438</v>
       </c>
       <c r="FW4" t="n">
-        <v>2279.447998046875</v>
+        <v>1341.156982421875</v>
       </c>
       <c r="FX4" t="n">
-        <v>2276.485595703125</v>
+        <v>1329.576782226562</v>
       </c>
       <c r="FY4" t="n">
-        <v>2274.6572265625</v>
+        <v>1291.660400390625</v>
       </c>
       <c r="FZ4" t="n">
-        <v>2280.867919921875</v>
+        <v>1278.521728515625</v>
       </c>
       <c r="GA4" t="n">
-        <v>2298.500244140625</v>
+        <v>1248.581420898438</v>
       </c>
       <c r="GB4" t="n">
-        <v>2280.620361328125</v>
+        <v>1234.30224609375</v>
       </c>
       <c r="GC4" t="n">
-        <v>2286.432861328125</v>
+        <v>1206.498168945312</v>
       </c>
       <c r="GD4" t="n">
-        <v>2278.765380859375</v>
+        <v>1195.932861328125</v>
       </c>
       <c r="GE4" t="n">
-        <v>2283.19677734375</v>
+        <v>1177.453002929688</v>
       </c>
       <c r="GF4" t="n">
-        <v>2288.05126953125</v>
+        <v>1145.310302734375</v>
       </c>
       <c r="GG4" t="n">
-        <v>2283.27001953125</v>
+        <v>1129.603515625</v>
       </c>
       <c r="GH4" t="n">
-        <v>2312.650390625</v>
+        <v>1098.565673828125</v>
       </c>
       <c r="GI4" t="n">
-        <v>2334.61474609375</v>
+        <v>1070.289428710938</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2313.24658203125</v>
+        <v>1051.176147460938</v>
       </c>
       <c r="GK4" t="n">
-        <v>2329.30859375</v>
+        <v>1012.554443359375</v>
       </c>
       <c r="GL4" t="n">
-        <v>2341.14892578125</v>
+        <v>974.2639770507812</v>
       </c>
       <c r="GM4" t="n">
-        <v>2344.66552734375</v>
+        <v>931.2427978515625</v>
       </c>
       <c r="GN4" t="n">
-        <v>2343.09375</v>
+        <v>908.7242431640625</v>
       </c>
       <c r="GO4" t="n">
-        <v>2339.95458984375</v>
+        <v>885.668701171875</v>
       </c>
       <c r="GP4" t="n">
-        <v>2336.49658203125</v>
+        <v>869.4454345703125</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2339.613037109375</v>
+        <v>864.1634521484375</v>
       </c>
       <c r="GR4" t="n">
-        <v>2340.221923828125</v>
+        <v>853.638916015625</v>
       </c>
       <c r="GS4" t="n">
-        <v>2342.048583984375</v>
+        <v>847.2610473632812</v>
       </c>
       <c r="GT4" t="n">
-        <v>2343.1240234375</v>
+        <v>842.974853515625</v>
       </c>
       <c r="GU4" t="n">
-        <v>2366.7626953125</v>
+        <v>841.5863647460938</v>
       </c>
       <c r="GV4" t="n">
-        <v>2345.612060546875</v>
+        <v>843.494384765625</v>
       </c>
       <c r="GW4" t="n">
-        <v>2341.705322265625</v>
+        <v>851.2806396484375</v>
       </c>
       <c r="GX4" t="n">
-        <v>2353.56640625</v>
+        <v>876.0386352539062</v>
       </c>
       <c r="GY4" t="n">
-        <v>2337.051513671875</v>
+        <v>886.9281005859375</v>
       </c>
       <c r="GZ4" t="n">
-        <v>2338.89306640625</v>
+        <v>896.4815673828125</v>
       </c>
       <c r="HA4" t="n">
-        <v>2340.814697265625</v>
+        <v>912.458251953125</v>
       </c>
       <c r="HB4" t="n">
-        <v>2342.62841796875</v>
+        <v>890.9360961914062</v>
       </c>
       <c r="HC4" t="n">
-        <v>2370.420654296875</v>
+        <v>873.7315673828125</v>
       </c>
       <c r="HD4" t="n">
-        <v>2392.1455078125</v>
+        <v>860.4105224609375</v>
       </c>
       <c r="HE4" t="n">
-        <v>2390.41455078125</v>
+        <v>914.4525146484375</v>
       </c>
       <c r="HF4" t="n">
-        <v>2410.0439453125</v>
+        <v>919.7260131835938</v>
       </c>
       <c r="HG4" t="n">
-        <v>2403.80712890625</v>
+        <v>907.4150390625</v>
       </c>
       <c r="HH4" t="n">
-        <v>2513.7138671875</v>
+        <v>876.9222412109375</v>
       </c>
       <c r="HI4" t="n">
-        <v>2381.4248046875</v>
+        <v>867.5918579101562</v>
       </c>
       <c r="HJ4" t="n">
-        <v>2358.708251953125</v>
+        <v>860.5252075195312</v>
       </c>
       <c r="HK4" t="n">
-        <v>2327.4794921875</v>
+        <v>843.4644775390625</v>
       </c>
       <c r="HL4" t="n">
-        <v>2304.6298828125</v>
+        <v>815.720458984375</v>
       </c>
       <c r="HM4" t="n">
-        <v>2280.158935546875</v>
+        <v>813.3784790039062</v>
       </c>
       <c r="HN4" t="n">
-        <v>2214.189453125</v>
+        <v>796.6856689453125</v>
       </c>
       <c r="HO4" t="n">
-        <v>2214.162353515625</v>
+        <v>771.099609375</v>
       </c>
       <c r="HP4" t="n">
-        <v>2206.03759765625</v>
+        <v>756.359619140625</v>
       </c>
       <c r="HQ4" t="n">
-        <v>2181.43359375</v>
+        <v>752.8611450195312</v>
       </c>
       <c r="HR4" t="n">
-        <v>2172.216552734375</v>
+        <v>761.7755737304688</v>
       </c>
       <c r="HS4" t="n">
-        <v>2172.583984375</v>
+        <v>769.0957641601562</v>
       </c>
       <c r="HT4" t="n">
-        <v>2164.603271484375</v>
+        <v>778.2557373046875</v>
       </c>
       <c r="HU4" t="n">
-        <v>2152.81591796875</v>
+        <v>793.635498046875</v>
       </c>
       <c r="HV4" t="n">
-        <v>2170.4697265625</v>
+        <v>799.9218139648438</v>
       </c>
       <c r="HW4" t="n">
-        <v>2182.50390625</v>
+        <v>801.6055297851562</v>
       </c>
       <c r="HX4" t="n">
-        <v>2194.762939453125</v>
+        <v>817.9122314453125</v>
       </c>
       <c r="HY4" t="n">
-        <v>2202.21826171875</v>
+        <v>871.09326171875</v>
       </c>
       <c r="HZ4" t="n">
-        <v>2197.04736328125</v>
+        <v>847.3019409179688</v>
       </c>
       <c r="IA4" t="n">
-        <v>2213.436767578125</v>
+        <v>858.17041015625</v>
       </c>
       <c r="IB4" t="n">
-        <v>2213.2529296875</v>
+        <v>852.9164428710938</v>
       </c>
       <c r="IC4" t="n">
-        <v>2211.82958984375</v>
+        <v>837.3726196289062</v>
       </c>
       <c r="ID4" t="n">
-        <v>2209.794189453125</v>
+        <v>812.9520874023438</v>
       </c>
       <c r="IE4" t="n">
-        <v>2207.7109375</v>
+        <v>802.2322998046875</v>
       </c>
       <c r="IF4" t="n">
-        <v>2207.42919921875</v>
+        <v>797.763671875</v>
       </c>
       <c r="IG4" t="n">
-        <v>2207.74658203125</v>
+        <v>790.33447265625</v>
       </c>
       <c r="IH4" t="n">
-        <v>2209.972900390625</v>
+        <v>783.8564453125</v>
       </c>
       <c r="II4" t="n">
-        <v>2209.323974609375</v>
+        <v>767.5140991210938</v>
       </c>
       <c r="IJ4" t="n">
-        <v>2210.486328125</v>
+        <v>741.8258056640625</v>
       </c>
       <c r="IK4" t="n">
-        <v>2218.22119140625</v>
+        <v>714.4862060546875</v>
       </c>
       <c r="IL4" t="n">
-        <v>2239.471923828125</v>
+        <v>691.09619140625</v>
       </c>
       <c r="IM4" t="n">
-        <v>2240.366455078125</v>
+        <v>630.8912353515625</v>
       </c>
       <c r="IN4" t="n">
-        <v>2242.580322265625</v>
+        <v>556.933837890625</v>
       </c>
       <c r="IO4" t="n">
-        <v>2281.17431640625</v>
+        <v>486.0819702148438</v>
       </c>
       <c r="IP4" t="n">
-        <v>2272.65869140625</v>
+        <v>449.0601806640625</v>
       </c>
       <c r="IQ4" t="n">
-        <v>2276.521484375</v>
+        <v>438.6459350585938</v>
       </c>
       <c r="IR4" t="n">
-        <v>2285.457763671875</v>
+        <v>429.7025146484375</v>
       </c>
       <c r="IS4" t="n">
-        <v>2281.09814453125</v>
+        <v>419.6519470214844</v>
       </c>
       <c r="IT4" t="n">
-        <v>2273.506103515625</v>
+        <v>420.6009826660156</v>
       </c>
       <c r="IU4" t="n">
-        <v>2242.2421875</v>
+        <v>420.1878967285156</v>
       </c>
       <c r="IV4" t="n">
-        <v>2231.621826171875</v>
+        <v>416.4261169433594</v>
       </c>
       <c r="IW4" t="n">
-        <v>2229.15576171875</v>
+        <v>418.7335510253906</v>
       </c>
       <c r="IX4" t="n">
-        <v>2227.3876953125</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>2234.37939453125</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>2238.228759765625</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>2227.579345703125</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>2226.172607421875</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>2213.4384765625</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>2206.3203125</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>2208.8154296875</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>2209.801513671875</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>2189.070068359375</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>2172.893798828125</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>2190.01611328125</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>2181.177734375</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>2176.11181640625</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>2185.72412109375</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>2166.10302734375</v>
-      </c>
-      <c r="JN4" t="n">
-        <v>2162.51220703125</v>
-      </c>
-      <c r="JO4" t="n">
-        <v>2164.41552734375</v>
-      </c>
-      <c r="JP4" t="n">
-        <v>2165.028076171875</v>
-      </c>
-      <c r="JQ4" t="n">
-        <v>2160.6083984375</v>
-      </c>
-      <c r="JR4" t="n">
-        <v>2151.35791015625</v>
-      </c>
-      <c r="JS4" t="n">
-        <v>2153.1884765625</v>
-      </c>
-      <c r="JT4" t="n">
-        <v>2154.552001953125</v>
-      </c>
-      <c r="JU4" t="n">
-        <v>2151.91162109375</v>
-      </c>
-      <c r="JV4" t="n">
-        <v>2148.698974609375</v>
-      </c>
-      <c r="JW4" t="n">
-        <v>2139.357666015625</v>
-      </c>
-      <c r="JX4" t="n">
-        <v>2133.554931640625</v>
-      </c>
-      <c r="JY4" t="n">
-        <v>2130.670166015625</v>
-      </c>
-      <c r="JZ4" t="n">
-        <v>2125.302001953125</v>
-      </c>
-      <c r="KA4" t="n">
-        <v>2122.7216796875</v>
-      </c>
-      <c r="KB4" t="n">
-        <v>2123.54638671875</v>
-      </c>
-      <c r="KC4" t="n">
-        <v>2123.912353515625</v>
-      </c>
-      <c r="KD4" t="n">
-        <v>2103.733642578125</v>
-      </c>
-      <c r="KE4" t="n">
-        <v>2079.1962890625</v>
-      </c>
-      <c r="KF4" t="n">
-        <v>2073.818115234375</v>
-      </c>
-      <c r="KG4" t="n">
-        <v>2106.1845703125</v>
-      </c>
-      <c r="KH4" t="n">
-        <v>2094.451171875</v>
-      </c>
-      <c r="KI4" t="n">
-        <v>2097.746337890625</v>
-      </c>
-      <c r="KJ4" t="n">
-        <v>2098.215576171875</v>
-      </c>
-      <c r="KK4" t="n">
-        <v>2096.091552734375</v>
-      </c>
-      <c r="KL4" t="n">
-        <v>2090.21826171875</v>
-      </c>
-      <c r="KM4" t="n">
-        <v>2088.15380859375</v>
-      </c>
-      <c r="KN4" t="n">
-        <v>2090.87451171875</v>
-      </c>
-      <c r="KO4" t="n">
-        <v>2106.108154296875</v>
-      </c>
-      <c r="KP4" t="n">
-        <v>2128.460205078125</v>
-      </c>
-      <c r="KQ4" t="n">
-        <v>2137.171630859375</v>
-      </c>
-      <c r="KR4" t="n">
-        <v>2168.73681640625</v>
-      </c>
-      <c r="KS4" t="n">
-        <v>2196.39306640625</v>
-      </c>
-      <c r="KT4" t="n">
-        <v>2190.17041015625</v>
-      </c>
-      <c r="KU4" t="n">
-        <v>2194.4482421875</v>
-      </c>
-      <c r="KV4" t="n">
-        <v>2196.85595703125</v>
-      </c>
-      <c r="KW4" t="n">
-        <v>2194.395751953125</v>
-      </c>
-      <c r="KX4" t="n">
-        <v>2189.632568359375</v>
-      </c>
-      <c r="KY4" t="n">
-        <v>2172.109130859375</v>
-      </c>
-      <c r="KZ4" t="n">
-        <v>2161.90576171875</v>
-      </c>
-      <c r="LA4" t="n">
-        <v>2161.365478515625</v>
-      </c>
-      <c r="LB4" t="n">
-        <v>2167.420654296875</v>
-      </c>
-      <c r="LC4" t="n">
-        <v>2165.510009765625</v>
-      </c>
-      <c r="LD4" t="n">
-        <v>2165.14404296875</v>
-      </c>
-      <c r="LE4" t="n">
-        <v>2162.534423828125</v>
-      </c>
-      <c r="LF4" t="n">
-        <v>2120.4482421875</v>
-      </c>
-      <c r="LG4" t="n">
-        <v>2078.625732421875</v>
-      </c>
-      <c r="LH4" t="n">
-        <v>2037.645874023438</v>
-      </c>
-      <c r="LI4" t="n">
-        <v>1970.448852539062</v>
-      </c>
-      <c r="LJ4" t="n">
-        <v>1847.315673828125</v>
-      </c>
-      <c r="LK4" t="n">
-        <v>1766.687866210938</v>
-      </c>
-      <c r="LL4" t="n">
-        <v>1694.753540039062</v>
-      </c>
-      <c r="LM4" t="n">
-        <v>1625.447021484375</v>
-      </c>
-      <c r="LN4" t="n">
-        <v>1518.8642578125</v>
-      </c>
-      <c r="LO4" t="n">
-        <v>1455.970825195312</v>
-      </c>
-      <c r="LP4" t="n">
-        <v>1343.674438476562</v>
-      </c>
-      <c r="LQ4" t="n">
-        <v>1232.377807617188</v>
-      </c>
-      <c r="LR4" t="n">
-        <v>1144.838256835938</v>
-      </c>
-      <c r="LS4" t="n">
-        <v>1055.669189453125</v>
-      </c>
-      <c r="LT4" t="n">
-        <v>913.8819580078125</v>
-      </c>
-      <c r="LU4" t="n">
-        <v>841.5460815429688</v>
-      </c>
-      <c r="LV4" t="n">
-        <v>797.5917358398438</v>
-      </c>
-      <c r="LW4" t="n">
-        <v>786.9114990234375</v>
-      </c>
-      <c r="LX4" t="n">
-        <v>711.3959350585938</v>
-      </c>
-      <c r="LY4" t="n">
-        <v>659.388916015625</v>
-      </c>
-      <c r="LZ4" t="n">
-        <v>648.04736328125</v>
-      </c>
-      <c r="MA4" t="n">
-        <v>684.8704833984375</v>
-      </c>
-      <c r="MB4" t="n">
-        <v>715.6014404296875</v>
-      </c>
-      <c r="MC4" t="n">
-        <v>743.494140625</v>
-      </c>
-      <c r="MD4" t="n">
-        <v>766.1006469726562</v>
-      </c>
-      <c r="ME4" t="n">
-        <v>768.201904296875</v>
-      </c>
-      <c r="MF4" t="n">
-        <v>771.5360107421875</v>
-      </c>
-      <c r="MG4" t="n">
-        <v>776.6299438476562</v>
-      </c>
-      <c r="MH4" t="n">
-        <v>785.7818603515625</v>
-      </c>
-      <c r="MI4" t="n">
-        <v>792.38037109375</v>
-      </c>
-      <c r="MJ4" t="n">
-        <v>803.5137329101562</v>
-      </c>
-      <c r="MK4" t="n">
-        <v>810.204833984375</v>
-      </c>
-      <c r="ML4" t="n">
-        <v>822.3618774414062</v>
-      </c>
-      <c r="MM4" t="n">
-        <v>854.5390014648438</v>
-      </c>
-      <c r="MN4" t="n">
-        <v>902.0344848632812</v>
-      </c>
-      <c r="MO4" t="n">
-        <v>921.8307495117188</v>
-      </c>
-      <c r="MP4" t="n">
-        <v>921.4609375</v>
-      </c>
-      <c r="MQ4" t="n">
-        <v>893.8524169921875</v>
-      </c>
-      <c r="MR4" t="n">
-        <v>726.38427734375</v>
-      </c>
-      <c r="MS4" t="n">
-        <v>571.1869506835938</v>
-      </c>
-      <c r="MT4" t="n">
-        <v>586.6493530273438</v>
-      </c>
-      <c r="MU4" t="n">
-        <v>448.9462890625</v>
-      </c>
-      <c r="MV4" t="n">
-        <v>1044.955078125</v>
-      </c>
-      <c r="MW4" t="n">
-        <v>599.2828979492188</v>
-      </c>
-      <c r="MX4" t="n">
-        <v>464.9249267578125</v>
-      </c>
-      <c r="MY4" t="n">
-        <v>461.1354370117188</v>
-      </c>
-      <c r="MZ4" t="n">
-        <v>458.569580078125</v>
-      </c>
-      <c r="NA4" t="n">
-        <v>458.8240356445312</v>
-      </c>
-      <c r="NB4" t="n">
-        <v>462.8529052734375</v>
-      </c>
-      <c r="NC4" t="n">
-        <v>466.5319213867188</v>
-      </c>
-      <c r="ND4" t="n">
-        <v>464.1936645507812</v>
-      </c>
-      <c r="NE4" t="n">
-        <v>459.5529174804688</v>
-      </c>
-      <c r="NF4" t="n">
-        <v>457.1287841796875</v>
-      </c>
-      <c r="NG4" t="n">
-        <v>461.659912109375</v>
-      </c>
-      <c r="NH4" t="n">
-        <v>470.5675659179688</v>
-      </c>
-      <c r="NI4" t="n">
-        <v>485.0287170410156</v>
-      </c>
-      <c r="NJ4" t="n">
-        <v>491.4935607910156</v>
-      </c>
-      <c r="NK4" t="n">
-        <v>492.99072265625</v>
-      </c>
-      <c r="NL4" t="n">
-        <v>480.5936889648438</v>
-      </c>
-      <c r="NM4" t="n">
-        <v>472.5816955566406</v>
+        <v>416.6694641113281</v>
       </c>
     </row>
   </sheetData>
